--- a/data/NP20versusRestIncomeTrendsSSA.xlsx
+++ b/data/NP20versusRestIncomeTrendsSSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB0D5443-C864-4AC9-BD53-1C9E6DF05F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3688CB77-088D-4297-BA61-88A3787ABBC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="41" activeTab="44" xr2:uid="{F3089E2F-C8C3-4237-995F-7298FDDDEED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="41" activeTab="44" xr2:uid="{D6216CF2-6836-4DA4-AE7E-3DB968970F14}"/>
   </bookViews>
   <sheets>
     <sheet name="Angola" sheetId="2" r:id="rId1"/>
@@ -295,7 +295,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E4FAD4-F556-46B3-9143-B9A78F19AA39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FD3F80-F1FB-4BA6-A0C1-4031761F1ACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -353,7 +353,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D328397-3929-4387-A375-58DB84D1F7A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7D4515-98DB-4B0C-8B06-7E3AB841C8BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -411,7 +411,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E6C90D-5449-4093-9DCB-E93BF61E4880}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934BD721-230F-43BC-9211-D7DC018D947E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -469,7 +469,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF2D910-874A-4150-8700-D4040A8F2058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65AD9BE-8E9C-4709-A694-F9F016ACB724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC33FB4-5BA7-4986-A6EB-0AA74443949D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243D9735-ADF9-4121-9292-EB6018C8EF9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,7 +585,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576A6F62-9676-4B4B-BB21-7A58A813BDFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1122DD11-D155-443A-BF63-95BEE73D1BFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -643,7 +643,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69547BA7-1EDD-4666-A316-418B0BEEA64C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2B0500-9ED7-4B90-B81C-E72AA218EB1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -701,7 +701,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057822AD-7C6D-4152-90D6-51A1F07C54C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65956F33-3CBB-43AD-B4E7-2E6989534440}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -759,7 +759,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5510CF-7F61-4131-8762-3225DDDA4FA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E10D91-2295-42F5-BB80-0C169AAC18B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +817,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1475A5F-86E7-4C17-A68D-E06BAFD08A59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1395AB8A-3A22-423E-8967-D62B23E62302}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +875,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2FA73C-B146-4CA2-AD8B-1DD9A45D0BC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB02FA3-D248-4961-8979-F5B17C1AF0DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -933,7 +933,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DFCBF8-B2B5-4DA7-8086-BD9ADDA3E96F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC2C1D7-ED5B-43EC-8444-0E202C2E9F49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24EA741-DF2B-4CB8-9F66-A3A8991B5E1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8A453B-2512-4BDA-AECA-3DC771D56160}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,7 +1049,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE6E86F-34F2-4C21-B46C-A520A89A61A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F8338E-137C-4B6D-842C-479AE3D622F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1107,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E627494-8310-49B8-8A62-A61557A06754}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A74644-C08C-496C-B50F-E6ABB0049C59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1165,7 +1165,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0177C31E-2F27-4BBE-B697-371D4D813924}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A982000-1256-4CDA-A733-5496F0DBA19C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1223,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713ED046-5DD0-46C8-8FE3-7A524D4B560F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FC4D76-BEE9-455B-A11C-8A9B5AE38B92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D685EF-47F7-4E25-89BA-ECF3CDEBCCC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A2172C-70CB-4871-AAEF-9FC7EC560448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADDD0E5-D44A-4D90-8786-44B67FC41278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC57361-E308-4748-97A2-ADB8886FB5D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4963D8E-82B5-472D-B117-EE404A8126C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3720E253-A30C-476F-8821-C6CD917B79A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417EDF85-1182-4907-837A-1163A6FA9740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A6F222-19B7-4E39-8991-69D08C817915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E84A67F-8ECA-4325-A6D3-C3A45E2687E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BC960C-FE9F-4379-AB32-C69E2958A735}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F7A5CB-D22C-468B-A67D-F40D08F2EFEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC2EC99-42BE-42F8-BB7E-B38BD4BEEDC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1629,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43233BCE-D8DC-43F8-9AA1-4A318786A2AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E8D254-A830-4E3E-A68D-6506BBC44F49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1687,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EED408-25F9-4D0E-B5D5-501EE9D9EA32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4F6A5A-1899-42D1-88D9-F91DDB325DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1745,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BB6A42-4ADB-45B4-9091-A3227F20B85D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0CDE13-0108-4A36-B293-AE47D1DCDF14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431B59FC-BE0B-4046-881C-CE2FFFEB621F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D52D0BC-3524-47EB-AE2C-05629C3B9D0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CBBD3B-C1C9-4392-80DE-01FC433596BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD517DE4-0D06-458D-90F4-33FBB73C9124}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1919,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE56967B-004C-4CB8-B2F1-212D26F60536}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6B3C82-52FE-4DA3-8258-80710FFD3833}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1977,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC0D1E6-11B4-41C5-986D-32BEAF16D56F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB7114F-0BB8-4A26-98BF-72BA38006883}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2035,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADE27B9-3A19-4783-AF14-07B1D4223FA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D564F757-DA53-4ABA-84FD-AA711D807519}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2093,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119730C4-CA81-4DB4-A364-6B1A3B520A01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E32D13-1209-4852-834C-D1459FD7F074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2151,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68081E5C-8A35-4432-BC96-36A5B89AF9AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC70544-BC08-4707-9FBF-64B864DCF8AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2209,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7E1219-6140-4E9B-B581-CD8A3EA80A59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC4FED2-DE11-45B6-A774-73A74DC99A12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2267,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A90694-5E2B-4DBB-A394-67BADB8C231B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DB346D-90A5-4A7C-99C1-5762457C3E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2325,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D280A1-4800-4A48-A5C9-FA3914269235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AB3A4A-77E5-4348-AE19-9269B585515D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2383,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250C65CC-28F8-47D9-8CED-DD23718638F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886C757B-3E03-44BE-884D-B12FAADC869F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2441,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FD8511-33AD-49CC-8833-A476B3F03738}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A1480C-064A-4384-A349-CFC8B42C1BA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2499,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C5BF4F-910A-475B-A4F8-4C19675588F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC72CA04-21D9-4D0B-8A2A-A42F04EA1ED2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2557,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEEBC3D2-1C60-4EE1-84DB-AFEC6D2745BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B31F7D-AD17-4811-939D-4F54278C3425}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2615,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D71F8D9-FDA4-4ECD-98CC-4E95F6CE2948}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE700C5-FE42-430F-86C4-C6BAA6A1A888}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2673,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89FE440-94A0-4B9A-B446-0E597E07A84F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB160A26-F211-4E4D-87DD-E67EFA7CF9CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2731,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989DDF23-9BFA-467F-B4AE-AB1BAE000304}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE0E351-A9F8-445F-A982-BC6E173DC97D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2789,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10837A2E-FF28-43C3-8157-29CF6AB2DFE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A8E4EF-DA63-4CE8-8486-A7CB3AD8FFDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2847,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470B3352-2E4F-4F00-A405-BB36B94EEC4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D64B728-ED56-48F2-A260-C4FD27B71E00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3181,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4FC5C7-98B7-48BC-B463-21BE75CD7DC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6470F9-9A0F-45E7-B5F5-D9C16F60996C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3207,10 +3207,10 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>0.385516884</v>
+        <v>0.87551688400000005</v>
       </c>
       <c r="K2">
-        <v>6.7899440666712296</v>
+        <v>6.66744406667123</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3221,10 +3221,10 @@
         <v>4</v>
       </c>
       <c r="J3">
-        <v>0.57032670299999999</v>
+        <v>0.87032670300000003</v>
       </c>
       <c r="K3">
-        <v>6.7028964064417798</v>
+        <v>6.6278964064417796</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3235,10 +3235,10 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>0.66280519250000003</v>
+        <v>0.89280519250000001</v>
       </c>
       <c r="K4">
-        <v>6.8566000717380096</v>
+        <v>6.7991000717380103</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3249,10 +3249,10 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>0.65639204799999995</v>
+        <v>0.91639204799999996</v>
       </c>
       <c r="K5">
-        <v>7.0437019879999996</v>
+        <v>6.9787019880000001</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3263,10 +3263,10 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>0.96153217550000003</v>
+        <v>0.56153217550000001</v>
       </c>
       <c r="K6">
-        <v>4.1763114766729403</v>
+        <v>4.2763114766729498</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3277,10 +3277,10 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>1.0513618885</v>
+        <v>0.65136188849999999</v>
       </c>
       <c r="K7">
-        <v>4.8603869251352698</v>
+        <v>4.9603869251352704</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3291,10 +3291,10 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <v>1.0233695819999999</v>
+        <v>0.713369582</v>
       </c>
       <c r="K8">
-        <v>5.3551808921712301</v>
+        <v>5.4326808921712297</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3305,10 +3305,10 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>1.2557439244999999</v>
+        <v>0.61574392450000004</v>
       </c>
       <c r="K9">
-        <v>4.2495941558613</v>
+        <v>4.4095941558613001</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3319,10 +3319,10 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <v>1.4815870695</v>
+        <v>0.73158706949999996</v>
       </c>
       <c r="K10">
-        <v>4.1992977531729396</v>
+        <v>4.3867977531729396</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3333,10 +3333,10 @@
         <v>4</v>
       </c>
       <c r="J11">
-        <v>1.5359906825</v>
+        <v>1.0859906825000001</v>
       </c>
       <c r="K11">
-        <v>4.8825393156763699</v>
+        <v>4.9950393156763697</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3347,10 +3347,10 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <v>1.698755199</v>
+        <v>1.0687551989999999</v>
       </c>
       <c r="K12">
-        <v>4.4972016112088999</v>
+        <v>4.6547016112088997</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3361,10 +3361,10 @@
         <v>4</v>
       </c>
       <c r="J13">
-        <v>1.841695608</v>
+        <v>1.071695608</v>
       </c>
       <c r="K13">
-        <v>4.4749418514246599</v>
+        <v>4.6674418514246598</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3375,10 +3375,10 @@
         <v>4</v>
       </c>
       <c r="J14">
-        <v>1.917537297</v>
+        <v>1.0875372969999999</v>
       </c>
       <c r="K14">
-        <v>4.52893896342123</v>
+        <v>4.7364389634212296</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3389,10 +3389,10 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>2.0513280224999999</v>
+        <v>1.1213280225</v>
       </c>
       <c r="K15">
-        <v>4.6511008710873298</v>
+        <v>4.8836008710873298</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3403,10 +3403,10 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>2.20967688</v>
+        <v>1.1296768800000001</v>
       </c>
       <c r="K16">
-        <v>4.6499629717808197</v>
+        <v>4.9199629717808202</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3419,7 +3419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828AC735-F160-4275-82BD-53D66D207310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DE81C7-E55B-4DDB-B8E9-DF1A1C236E17}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3445,10 +3445,10 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>0.26208140800000002</v>
+        <v>1.792081408</v>
       </c>
       <c r="K2">
-        <v>11.108501565808201</v>
+        <v>10.7260015658082</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3459,10 +3459,10 @@
         <v>13</v>
       </c>
       <c r="J3">
-        <v>0.3927435145</v>
+        <v>1.9127435145</v>
       </c>
       <c r="K3">
-        <v>11.828223710416101</v>
+        <v>11.4482237104161</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3473,10 +3473,10 @@
         <v>13</v>
       </c>
       <c r="J4">
-        <v>0.55632868000000002</v>
+        <v>1.77632868</v>
       </c>
       <c r="K4">
-        <v>10.936732898493201</v>
+        <v>10.6317328984931</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3487,10 +3487,10 @@
         <v>13</v>
       </c>
       <c r="J5">
-        <v>0.53780740999999999</v>
+        <v>1.8578074099999999</v>
       </c>
       <c r="K5">
-        <v>11.449460476267101</v>
+        <v>11.119460476267101</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3501,10 +3501,10 @@
         <v>13</v>
       </c>
       <c r="J6">
-        <v>0.63111255499999996</v>
+        <v>1.7211125549999999</v>
       </c>
       <c r="K6">
-        <v>10.573723231113</v>
+        <v>10.301223231112999</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3515,10 +3515,10 @@
         <v>13</v>
       </c>
       <c r="J7">
-        <v>0.87304675649999997</v>
+        <v>1.5330467565000001</v>
       </c>
       <c r="K7">
-        <v>9.3406218725188292</v>
+        <v>9.1756218725188408</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3529,10 +3529,10 @@
         <v>13</v>
       </c>
       <c r="J8">
-        <v>0.90114873399999995</v>
+        <v>1.5211487340000001</v>
       </c>
       <c r="K8">
-        <v>9.2594635014315099</v>
+        <v>9.1044635014315105</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3543,10 +3543,10 @@
         <v>13</v>
       </c>
       <c r="J9">
-        <v>0.94964677500000005</v>
+        <v>1.6396467749999999</v>
       </c>
       <c r="K9">
-        <v>9.9861814569349292</v>
+        <v>9.8136814569349298</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3557,10 +3557,10 @@
         <v>13</v>
       </c>
       <c r="J10">
-        <v>1.1498309250000001</v>
+        <v>1.599830925</v>
       </c>
       <c r="K10">
-        <v>9.6143011728595908</v>
+        <v>9.5018011728595901</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3571,10 +3571,10 @@
         <v>13</v>
       </c>
       <c r="J11">
-        <v>1.2921170239999999</v>
+        <v>1.4521170240000001</v>
       </c>
       <c r="K11">
-        <v>8.4221680042739706</v>
+        <v>8.3821680042739803</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3585,10 +3585,10 @@
         <v>13</v>
       </c>
       <c r="J12">
-        <v>1.4425754799999999</v>
+        <v>1.3825754800000001</v>
       </c>
       <c r="K12">
-        <v>7.7747479108219197</v>
+        <v>7.7897479108219203</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3599,10 +3599,10 @@
         <v>13</v>
       </c>
       <c r="J13">
-        <v>1.5858436929999999</v>
+        <v>1.355843693</v>
       </c>
       <c r="K13">
-        <v>7.4768705835993199</v>
+        <v>7.53437058359932</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3613,10 +3613,10 @@
         <v>13</v>
       </c>
       <c r="J14">
-        <v>1.6446271349999999</v>
+        <v>1.3346271350000001</v>
       </c>
       <c r="K14">
-        <v>7.2288897915924704</v>
+        <v>7.30638979159247</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3627,10 +3627,10 @@
         <v>13</v>
       </c>
       <c r="J15">
-        <v>1.794071347</v>
+        <v>1.3340713470000001</v>
       </c>
       <c r="K15">
-        <v>7.0676739440719203</v>
+        <v>7.1826739440719196</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3641,10 +3641,10 @@
         <v>13</v>
       </c>
       <c r="J16">
-        <v>1.974819023</v>
+        <v>1.2848190230000001</v>
       </c>
       <c r="K16">
-        <v>6.6862199017842503</v>
+        <v>6.8587199017842497</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3657,7 +3657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A886E813-95D4-4586-BAA8-DD243427D90B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8563C30-A928-4B9B-90CB-B875B5573C82}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3683,10 +3683,10 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>0.78397655249999998</v>
+        <v>0.60397655250000004</v>
       </c>
       <c r="K2">
-        <v>2.4575605194092498</v>
+        <v>2.5025605194092502</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3697,10 +3697,10 @@
         <v>14</v>
       </c>
       <c r="J3">
-        <v>0.96748565799999997</v>
+        <v>0.59748565799999998</v>
       </c>
       <c r="K3">
-        <v>2.38313392796575</v>
+        <v>2.4756339279657502</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3711,10 +3711,10 @@
         <v>14</v>
       </c>
       <c r="J4">
-        <v>1.1132377760000001</v>
+        <v>0.50323777599999997</v>
       </c>
       <c r="K4">
-        <v>1.9327263094246601</v>
+        <v>2.0852263094246601</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3725,10 +3725,10 @@
         <v>14</v>
       </c>
       <c r="J5">
-        <v>1.0861004139999999</v>
+        <v>0.59610041400000002</v>
       </c>
       <c r="K5">
-        <v>2.3474695540342498</v>
+        <v>2.4699695540342499</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3739,10 +3739,10 @@
         <v>14</v>
       </c>
       <c r="J6">
-        <v>1.2381243049999999</v>
+        <v>0.318124305</v>
       </c>
       <c r="K6">
-        <v>1.08824412922945</v>
+        <v>1.31824412922945</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3753,10 +3753,10 @@
         <v>14</v>
       </c>
       <c r="J7">
-        <v>1.4166748334999999</v>
+        <v>0.27667483349999999</v>
       </c>
       <c r="K7">
-        <v>0.86141978477568504</v>
+        <v>1.1464197847756801</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3767,10 +3767,10 @@
         <v>14</v>
       </c>
       <c r="J8">
-        <v>1.45917048</v>
+        <v>0.22917048000000001</v>
       </c>
       <c r="K8">
-        <v>0.64204806493150701</v>
+        <v>0.94954806493150701</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3781,10 +3781,10 @@
         <v>14</v>
       </c>
       <c r="J9">
-        <v>1.5680063820000001</v>
+        <v>0.19800638200000001</v>
       </c>
       <c r="K9">
-        <v>0.47799470586986298</v>
+        <v>0.82049470586986295</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3795,10 +3795,10 @@
         <v>14</v>
       </c>
       <c r="J10">
-        <v>1.7677544160000001</v>
+        <v>0.21775441600000001</v>
       </c>
       <c r="K10">
-        <v>0.51537577956164404</v>
+        <v>0.902875779561644</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3809,10 +3809,10 @@
         <v>14</v>
       </c>
       <c r="J11">
-        <v>1.8816981079999999</v>
+        <v>0.29169810800000001</v>
       </c>
       <c r="K11">
-        <v>0.82547560998630098</v>
+        <v>1.2229756099863001</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3823,10 +3823,10 @@
         <v>14</v>
       </c>
       <c r="J12">
-        <v>2.0015120089999998</v>
+        <v>0.32151200899999999</v>
       </c>
       <c r="K12">
-        <v>0.93820090185958904</v>
+        <v>1.35820090185959</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3837,10 +3837,10 @@
         <v>14</v>
       </c>
       <c r="J13">
-        <v>2.1363566094999999</v>
+        <v>0.35635660949999998</v>
       </c>
       <c r="K13">
-        <v>1.06612399830993</v>
+        <v>1.51112399830993</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3851,10 +3851,10 @@
         <v>14</v>
       </c>
       <c r="J14">
-        <v>2.1952423319999999</v>
+        <v>0.39524233199999997</v>
       </c>
       <c r="K14">
-        <v>1.23254873206849</v>
+        <v>1.68254873206849</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3865,10 +3865,10 @@
         <v>14</v>
       </c>
       <c r="J15">
-        <v>2.3294356220000001</v>
+        <v>0.42943562200000002</v>
       </c>
       <c r="K15">
-        <v>1.35591725888356</v>
+        <v>1.8309172588835601</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3879,10 +3879,10 @@
         <v>14</v>
       </c>
       <c r="J16">
-        <v>2.4804339340000001</v>
+        <v>0.470433934</v>
       </c>
       <c r="K16">
-        <v>1.5032742562260299</v>
+        <v>2.0057742562260299</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3895,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD03572-44C7-4B58-879E-569664974B15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973BCF5C-3A4B-4FB3-AE02-0030F166E35F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3921,10 +3921,10 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>0.75163349999999995</v>
+        <v>0.72163350000000004</v>
       </c>
       <c r="K2">
-        <v>3.4973343647260302</v>
+        <v>3.50483436472603</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3935,10 +3935,10 @@
         <v>15</v>
       </c>
       <c r="J3">
-        <v>0.85530393599999999</v>
+        <v>0.92530393600000005</v>
       </c>
       <c r="K3">
-        <v>4.5114493584657502</v>
+        <v>4.4939493584657502</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3949,10 +3949,10 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <v>1.0324893675</v>
+        <v>0.76248936749999996</v>
       </c>
       <c r="K4">
-        <v>3.6357087540154098</v>
+        <v>3.7032087540154102</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3963,10 +3963,10 @@
         <v>15</v>
       </c>
       <c r="J5">
-        <v>1.0345381899999999</v>
+        <v>0.78453819000000002</v>
       </c>
       <c r="K5">
-        <v>3.7478046305821899</v>
+        <v>3.8103046305821899</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3977,10 +3977,10 @@
         <v>15</v>
       </c>
       <c r="J6">
-        <v>1.0909867929999999</v>
+        <v>0.73098679300000002</v>
       </c>
       <c r="K6">
-        <v>3.4601820688732898</v>
+        <v>3.5501820688732901</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3991,10 +3991,10 @@
         <v>15</v>
       </c>
       <c r="J7">
-        <v>1.2691527524999999</v>
+        <v>0.68915275249999997</v>
       </c>
       <c r="K7">
-        <v>3.20200975708048</v>
+        <v>3.34700975708048</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4005,10 +4005,10 @@
         <v>15</v>
       </c>
       <c r="J8">
-        <v>1.3053489119999999</v>
+        <v>0.63534891199999999</v>
       </c>
       <c r="K8">
-        <v>2.91825195008219</v>
+        <v>3.0857519500821899</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4019,10 +4019,10 @@
         <v>15</v>
       </c>
       <c r="J9">
-        <v>1.393003577</v>
+        <v>0.68300357700000003</v>
       </c>
       <c r="K9">
-        <v>3.1396834893116399</v>
+        <v>3.3171834893116401</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4033,10 +4033,10 @@
         <v>15</v>
       </c>
       <c r="J10">
-        <v>1.593535277</v>
+        <v>0.70353527699999996</v>
       </c>
       <c r="K10">
-        <v>3.1943586465034199</v>
+        <v>3.4168586465034201</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4047,10 +4047,10 @@
         <v>15</v>
       </c>
       <c r="J11">
-        <v>1.695270818</v>
+        <v>0.71527081800000003</v>
       </c>
       <c r="K11">
-        <v>3.5563747612534198</v>
+        <v>3.8013747612534199</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4061,10 +4061,10 @@
         <v>15</v>
       </c>
       <c r="J12">
-        <v>1.7586811</v>
+        <v>0.81868110000000005</v>
       </c>
       <c r="K12">
-        <v>4.3133571222602702</v>
+        <v>4.5483571222602697</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4075,10 +4075,10 @@
         <v>15</v>
       </c>
       <c r="J13">
-        <v>1.89978928</v>
+        <v>0.80978927999999994</v>
       </c>
       <c r="K13">
-        <v>4.3503061046575304</v>
+        <v>4.6228061046575304</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4089,10 +4089,10 @@
         <v>15</v>
       </c>
       <c r="J14">
-        <v>1.9786719035</v>
+        <v>0.81867190349999996</v>
       </c>
       <c r="K14">
-        <v>4.3835416131661002</v>
+        <v>4.6735416131661003</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4103,10 +4103,10 @@
         <v>15</v>
       </c>
       <c r="J15">
-        <v>2.1157959855000001</v>
+        <v>0.8257959855</v>
       </c>
       <c r="K15">
-        <v>4.3917578529400698</v>
+        <v>4.7142578529400696</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4117,10 +4117,10 @@
         <v>15</v>
       </c>
       <c r="J16">
-        <v>2.2608729599999999</v>
+        <v>0.86087296000000002</v>
       </c>
       <c r="K16">
-        <v>4.5644612120547903</v>
+        <v>4.9144612120547899</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4133,7 +4133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8D4F-0F66-4B9A-8ED8-4946A142D2A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC84DE8-DDAE-46FC-944F-FA49226FD73B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4159,10 +4159,10 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>-0.27933137600000002</v>
+        <v>2.6206686239999999</v>
       </c>
       <c r="K2">
-        <v>13.3077520220822</v>
+        <v>12.5827520220822</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4173,10 +4173,10 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>0.134990518</v>
+        <v>2.1649905180000002</v>
       </c>
       <c r="K3">
-        <v>10.902353740363001</v>
+        <v>10.394853740363001</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4187,10 +4187,10 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>0.70732340999999999</v>
+        <v>1.57732341</v>
       </c>
       <c r="K4">
-        <v>5.92399791462329</v>
+        <v>5.7064979146232897</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4201,10 +4201,10 @@
         <v>16</v>
       </c>
       <c r="J5">
-        <v>0.52220931749999999</v>
+        <v>2.1422093174999999</v>
       </c>
       <c r="K5">
-        <v>8.2654284925428101</v>
+        <v>7.8604284925428098</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4215,10 +4215,10 @@
         <v>16</v>
       </c>
       <c r="J6">
-        <v>0.85924381650000003</v>
+        <v>1.2792438165</v>
       </c>
       <c r="K6">
-        <v>5.0420232924503399</v>
+        <v>4.9370232924503403</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4229,10 +4229,10 @@
         <v>16</v>
       </c>
       <c r="J7">
-        <v>1.0611693925000001</v>
+        <v>1.3811693924999999</v>
       </c>
       <c r="K7">
-        <v>5.1217542272174699</v>
+        <v>5.0417542272174698</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4243,10 +4243,10 @@
         <v>16</v>
       </c>
       <c r="J8">
-        <v>1.101955424</v>
+        <v>1.2319554239999999</v>
       </c>
       <c r="K8">
-        <v>4.6832193631780799</v>
+        <v>4.6507193631780801</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4257,10 +4257,10 @@
         <v>16</v>
       </c>
       <c r="J9">
-        <v>1.1135626485000001</v>
+        <v>1.2335626485</v>
       </c>
       <c r="K9">
-        <v>4.8092641323955503</v>
+        <v>4.77926413239555</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4271,10 +4271,10 @@
         <v>16</v>
       </c>
       <c r="J10">
-        <v>1.3404987239999999</v>
+        <v>1.0904987239999999</v>
       </c>
       <c r="K10">
-        <v>4.5642657299589002</v>
+        <v>4.6267657299589002</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4285,10 +4285,10 @@
         <v>16</v>
       </c>
       <c r="J11">
-        <v>1.478840564</v>
+        <v>0.99884056399999999</v>
       </c>
       <c r="K11">
-        <v>4.5117049274931498</v>
+        <v>4.6317049274931499</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4299,10 +4299,10 @@
         <v>16</v>
       </c>
       <c r="J12">
-        <v>1.6622958324999999</v>
+        <v>0.97229583249999996</v>
       </c>
       <c r="K12">
-        <v>4.2340643980393802</v>
+        <v>4.4065643980393796</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4313,10 +4313,10 @@
         <v>16</v>
       </c>
       <c r="J13">
-        <v>1.8642941260000001</v>
+        <v>0.89429412600000002</v>
       </c>
       <c r="K13">
-        <v>3.7510100301438398</v>
+        <v>3.99351003014384</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4327,10 +4327,10 @@
         <v>16</v>
       </c>
       <c r="J14">
-        <v>1.92260963</v>
+        <v>0.95260962999999999</v>
       </c>
       <c r="K14">
-        <v>3.9405256746917798</v>
+        <v>4.1830256746917804</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4341,10 +4341,10 @@
         <v>16</v>
       </c>
       <c r="J15">
-        <v>2.0685403975000001</v>
+        <v>0.99854039750000001</v>
       </c>
       <c r="K15">
-        <v>4.0354470924058203</v>
+        <v>4.3029470924058204</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4355,10 +4355,10 @@
         <v>16</v>
       </c>
       <c r="J16">
-        <v>2.1875700834999998</v>
+        <v>1.0975700835</v>
       </c>
       <c r="K16">
-        <v>4.2588526846044497</v>
+        <v>4.5313526846044496</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4371,7 +4371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9B70C2-B8CE-4DA2-A946-CDE92668BAAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8017C70D-5D08-4BC8-8981-5924641ABD86}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4397,10 +4397,10 @@
         <v>17</v>
       </c>
       <c r="J2">
-        <v>0.95300872000000003</v>
+        <v>0.12300872</v>
       </c>
       <c r="K2">
-        <v>0.97232014876712303</v>
+        <v>1.17982014876712</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4411,10 +4411,10 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>1.1321549500000001</v>
+        <v>0.12215495</v>
       </c>
       <c r="K3">
-        <v>0.91923468715753398</v>
+        <v>1.17173468715753</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4425,10 +4425,10 @@
         <v>17</v>
       </c>
       <c r="J4">
-        <v>1.2075024599999999</v>
+        <v>0.18750246000000001</v>
       </c>
       <c r="K4">
-        <v>1.54375150828767</v>
+        <v>1.7987515082876699</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4439,10 +4439,10 @@
         <v>17</v>
       </c>
       <c r="J5">
-        <v>1.2446283929999999</v>
+        <v>0.14462839299999999</v>
       </c>
       <c r="K5">
-        <v>1.1127608469554799</v>
+        <v>1.3877608469554801</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4453,10 +4453,10 @@
         <v>17</v>
       </c>
       <c r="J6">
-        <v>1.2493267029999999</v>
+        <v>0.18932670300000001</v>
       </c>
       <c r="K6">
-        <v>1.5510620228801399</v>
+        <v>1.8160620228801401</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4467,10 +4467,10 @@
         <v>17</v>
       </c>
       <c r="J7">
-        <v>1.3203843559999999</v>
+        <v>0.35038435600000001</v>
       </c>
       <c r="K7">
-        <v>2.7779425411369898</v>
+        <v>3.02044254113699</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4481,10 +4481,10 @@
         <v>17</v>
       </c>
       <c r="J8">
-        <v>1.237084971</v>
+        <v>0.66708497099999997</v>
       </c>
       <c r="K8">
-        <v>4.11531779834589</v>
+        <v>4.25781779834589</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4495,10 +4495,10 @@
         <v>17</v>
       </c>
       <c r="J9">
-        <v>1.3502124559999999</v>
+        <v>0.82021245600000003</v>
       </c>
       <c r="K9">
-        <v>4.2584222284657498</v>
+        <v>4.3909222284657501</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4509,10 +4509,10 @@
         <v>17</v>
       </c>
       <c r="J10">
-        <v>1.5374363584999999</v>
+        <v>0.80743635849999995</v>
       </c>
       <c r="K10">
-        <v>4.3464518692791101</v>
+        <v>4.5289518692791102</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4523,10 +4523,10 @@
         <v>17</v>
       </c>
       <c r="J11">
-        <v>1.6551542275</v>
+        <v>0.78515422749999997</v>
       </c>
       <c r="K11">
-        <v>4.4017662376455498</v>
+        <v>4.61926623764555</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4537,10 +4537,10 @@
         <v>17</v>
       </c>
       <c r="J12">
-        <v>1.7812412019999999</v>
+        <v>0.78124120200000002</v>
       </c>
       <c r="K12">
-        <v>4.4401157268972602</v>
+        <v>4.6901157268972602</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4551,10 +4551,10 @@
         <v>17</v>
       </c>
       <c r="J13">
-        <v>1.9341646750000001</v>
+        <v>0.78416467499999998</v>
       </c>
       <c r="K13">
-        <v>4.4202382833047897</v>
+        <v>4.7077382833047903</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4565,10 +4565,10 @@
         <v>17</v>
       </c>
       <c r="J14">
-        <v>1.9960689739999999</v>
+        <v>0.80606897399999999</v>
       </c>
       <c r="K14">
-        <v>4.5419690578698599</v>
+        <v>4.8394690578698603</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4579,10 +4579,10 @@
         <v>17</v>
       </c>
       <c r="J15">
-        <v>2.1321466830000002</v>
+        <v>0.84214668299999995</v>
       </c>
       <c r="K15">
-        <v>4.7333194936335596</v>
+        <v>5.0558194936335603</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4593,10 +4593,10 @@
         <v>17</v>
       </c>
       <c r="J16">
-        <v>2.3007173930000002</v>
+        <v>0.83071739300000003</v>
       </c>
       <c r="K16">
-        <v>4.6195713366815099</v>
+        <v>4.9870713366815096</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4609,7 +4609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63ABDECE-C59E-49AA-98E1-9EA75037BBCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6101743F-F786-45E1-8378-CFA0508FF22B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4635,10 +4635,10 @@
         <v>18</v>
       </c>
       <c r="J2">
-        <v>0.75959439849999999</v>
+        <v>0.83959439849999995</v>
       </c>
       <c r="K2">
-        <v>3.1179692085941801</v>
+        <v>3.0979692085941801</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4649,10 +4649,10 @@
         <v>18</v>
       </c>
       <c r="J3">
-        <v>0.94430725599999998</v>
+        <v>0.81430725599999998</v>
       </c>
       <c r="K3">
-        <v>2.9722238709315101</v>
+        <v>3.0047238709315098</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4663,10 +4663,10 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>1.0737981075</v>
+        <v>0.76379810749999999</v>
       </c>
       <c r="K4">
-        <v>2.74079293887843</v>
+        <v>2.8182929388784301</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4677,10 +4677,10 @@
         <v>18</v>
       </c>
       <c r="J5">
-        <v>1.0608667919999999</v>
+        <v>0.82086679200000001</v>
       </c>
       <c r="K5">
-        <v>2.9689686444657499</v>
+        <v>3.02896864446575</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4691,10 +4691,10 @@
         <v>18</v>
       </c>
       <c r="J6">
-        <v>1.158339005</v>
+        <v>0.65833900499999998</v>
       </c>
       <c r="K6">
-        <v>2.3041671665582202</v>
+        <v>2.4291671665582202</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4705,10 +4705,10 @@
         <v>18</v>
       </c>
       <c r="J7">
-        <v>1.2760071479999999</v>
+        <v>0.76600714800000003</v>
       </c>
       <c r="K7">
-        <v>2.5446634184794501</v>
+        <v>2.67216341847945</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4719,10 +4719,10 @@
         <v>18</v>
       </c>
       <c r="J8">
-        <v>1.2969917120000001</v>
+        <v>0.91699171199999996</v>
       </c>
       <c r="K8">
-        <v>2.3190471404931499</v>
+        <v>2.4140471404931501</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4733,10 +4733,10 @@
         <v>18</v>
       </c>
       <c r="J9">
-        <v>1.3950568219999999</v>
+        <v>1.0750568220000001</v>
       </c>
       <c r="K9">
-        <v>2.5575322328561598</v>
+        <v>2.6375322328561599</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4747,10 +4747,10 @@
         <v>18</v>
       </c>
       <c r="J10">
-        <v>1.570400459</v>
+        <v>1.250400459</v>
       </c>
       <c r="K10">
-        <v>2.9842561866198598</v>
+        <v>3.0642561866198599</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4761,10 +4761,10 @@
         <v>18</v>
       </c>
       <c r="J11">
-        <v>1.6454584249999999</v>
+        <v>1.195458425</v>
       </c>
       <c r="K11">
-        <v>3.0750179964897302</v>
+        <v>3.18751799648973</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4775,10 +4775,10 @@
         <v>18</v>
       </c>
       <c r="J12">
-        <v>1.7517996325</v>
+        <v>1.1617996325</v>
       </c>
       <c r="K12">
-        <v>3.13354351653253</v>
+        <v>3.28104351653253</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4789,10 +4789,10 @@
         <v>18</v>
       </c>
       <c r="J13">
-        <v>1.8794235694999999</v>
+        <v>1.1594235694999999</v>
       </c>
       <c r="K13">
-        <v>3.2226920528304799</v>
+        <v>3.40269205283048</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4803,10 +4803,10 @@
         <v>18</v>
       </c>
       <c r="J14">
-        <v>1.945008598</v>
+        <v>1.155008598</v>
       </c>
       <c r="K14">
-        <v>3.3521578504999998</v>
+        <v>3.5496578505</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4817,10 +4817,10 @@
         <v>18</v>
       </c>
       <c r="J15">
-        <v>2.0889861600000001</v>
+        <v>1.16898616</v>
       </c>
       <c r="K15">
-        <v>3.5209520901369902</v>
+        <v>3.7509520901369902</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4831,10 +4831,10 @@
         <v>18</v>
       </c>
       <c r="J16">
-        <v>2.2279508749999999</v>
+        <v>1.2079508750000001</v>
       </c>
       <c r="K16">
-        <v>3.9323520072773999</v>
+        <v>4.1873520072773998</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4847,7 +4847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC132DC1-C2C3-440D-A671-6E0259E6931E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E4887C-BEB3-4A50-A667-0B8C60363D00}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4873,10 +4873,10 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>9.0320399999987999E-4</v>
+        <v>2.610903204</v>
       </c>
       <c r="K2">
-        <v>11.2148262537945</v>
+        <v>10.562326253794501</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4887,10 +4887,10 @@
         <v>19</v>
       </c>
       <c r="J3">
-        <v>0.15750249450000001</v>
+        <v>2.6575024945000001</v>
       </c>
       <c r="K3">
-        <v>11.3758421845942</v>
+        <v>10.7508421845942</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4901,10 +4901,10 @@
         <v>19</v>
       </c>
       <c r="J4">
-        <v>0.40255051250000001</v>
+        <v>2.3325505125000001</v>
       </c>
       <c r="K4">
-        <v>9.9187705910530806</v>
+        <v>9.4362705910530806</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4915,10 +4915,10 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.55587067700000004</v>
+        <v>1.9658706770000001</v>
       </c>
       <c r="K5">
-        <v>8.3053706869143795</v>
+        <v>7.9528706869143804</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4929,10 +4929,10 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <v>0.4616497685</v>
+        <v>2.3016497684999999</v>
       </c>
       <c r="K6">
-        <v>9.7712437222585606</v>
+        <v>9.3112437222585598</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4943,10 +4943,10 @@
         <v>19</v>
       </c>
       <c r="J7">
-        <v>0.58438745999999997</v>
+        <v>2.4043874600000001</v>
       </c>
       <c r="K7">
-        <v>10.181888066506801</v>
+        <v>9.7268880665068504</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4957,10 +4957,10 @@
         <v>19</v>
       </c>
       <c r="J8">
-        <v>0.67264482000000003</v>
+        <v>2.2226448200000002</v>
       </c>
       <c r="K8">
-        <v>9.3791333155479393</v>
+        <v>8.99163331554794</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4971,10 +4971,10 @@
         <v>19</v>
       </c>
       <c r="J9">
-        <v>0.84107830250000004</v>
+        <v>2.0610783024999999</v>
       </c>
       <c r="K9">
-        <v>8.6430633010873308</v>
+        <v>8.3380633010873293</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4985,10 +4985,10 @@
         <v>19</v>
       </c>
       <c r="J10">
-        <v>1.0699093</v>
+        <v>2.0099092999999999</v>
       </c>
       <c r="K10">
-        <v>8.3660418530821907</v>
+        <v>8.1310418530821895</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4999,10 +4999,10 @@
         <v>19</v>
       </c>
       <c r="J11">
-        <v>1.1736115009999999</v>
+        <v>1.9536115009999999</v>
       </c>
       <c r="K11">
-        <v>8.3854820562568495</v>
+        <v>8.1904820562568492</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5013,10 +5013,10 @@
         <v>19</v>
       </c>
       <c r="J12">
-        <v>1.2585404425</v>
+        <v>2.0685404424999998</v>
       </c>
       <c r="K12">
-        <v>8.9544936564982898</v>
+        <v>8.7519936564982892</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5027,10 +5027,10 @@
         <v>19</v>
       </c>
       <c r="J13">
-        <v>1.3346120779999999</v>
+        <v>2.2046120779999998</v>
       </c>
       <c r="K13">
-        <v>9.5455894462534197</v>
+        <v>9.3280894462534203</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5041,10 +5041,10 @@
         <v>19</v>
       </c>
       <c r="J14">
-        <v>1.334016855</v>
+        <v>2.3140168550000002</v>
       </c>
       <c r="K14">
-        <v>10.001380717756801</v>
+        <v>9.7563807177568496</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5055,10 +5055,10 @@
         <v>19</v>
       </c>
       <c r="J15">
-        <v>1.4175774975</v>
+        <v>2.4475774975000002</v>
       </c>
       <c r="K15">
-        <v>10.4965357626113</v>
+        <v>10.2390357626113</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5069,10 +5069,10 @@
         <v>19</v>
       </c>
       <c r="J16">
-        <v>1.4147097870000001</v>
+        <v>2.7047097870000001</v>
       </c>
       <c r="K16">
-        <v>11.3216896765377</v>
+        <v>10.9991896765377</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5085,7 +5085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225A55A-304E-49BD-96B4-2230EB340F84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2098917C-6297-480A-ABCC-B07DB2B313BF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5111,10 +5111,10 @@
         <v>20</v>
       </c>
       <c r="J2">
-        <v>0.80883729999999998</v>
+        <v>0.43883729999999999</v>
       </c>
       <c r="K2">
-        <v>2.34306711335616</v>
+        <v>2.4355671133561598</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5125,10 +5125,10 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>0.985962318</v>
+        <v>0.44596231800000002</v>
       </c>
       <c r="K3">
-        <v>2.34016654378767</v>
+        <v>2.4751665437876702</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5139,10 +5139,10 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <v>1.1133076550000001</v>
+        <v>0.413307655</v>
       </c>
       <c r="K4">
-        <v>2.1190178807705502</v>
+        <v>2.29401788077055</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5153,10 +5153,10 @@
         <v>20</v>
       </c>
       <c r="J5">
-        <v>1.1213241819999999</v>
+        <v>0.41132418199999998</v>
       </c>
       <c r="K5">
-        <v>2.1052796394315099</v>
+        <v>2.2827796394315101</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5167,10 +5167,10 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>1.162631204</v>
+        <v>0.41263120399999997</v>
       </c>
       <c r="K6">
-        <v>2.10266699352055</v>
+        <v>2.29016699352055</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5181,10 +5181,10 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <v>1.3318642825</v>
+        <v>0.39186428249999999</v>
       </c>
       <c r="K7">
-        <v>1.93982324444349</v>
+        <v>2.1748232444434898</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5195,10 +5195,10 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>1.2718866680000001</v>
+        <v>0.56188666799999998</v>
       </c>
       <c r="K8">
-        <v>2.87972545628767</v>
+        <v>3.0572254562876702</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5209,10 +5209,10 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>1.3974213275</v>
+        <v>0.51742132750000003</v>
       </c>
       <c r="K9">
-        <v>2.4302075448373301</v>
+        <v>2.6502075448373299</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5223,10 +5223,10 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>1.496618233</v>
+        <v>0.81661823300000003</v>
       </c>
       <c r="K10">
-        <v>3.8267331129828799</v>
+        <v>3.9967331129828798</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5237,10 +5237,10 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <v>1.576248047</v>
+        <v>0.98624804700000002</v>
       </c>
       <c r="K11">
-        <v>4.31890100194863</v>
+        <v>4.46640100194863</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5251,10 +5251,10 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>1.677007624</v>
+        <v>1.2170076240000001</v>
       </c>
       <c r="K12">
-        <v>4.9394631624931504</v>
+        <v>5.0544631624931498</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5265,10 +5265,10 @@
         <v>20</v>
       </c>
       <c r="J13">
-        <v>1.803538232</v>
+        <v>1.2035382320000001</v>
       </c>
       <c r="K13">
-        <v>4.7113510584383604</v>
+        <v>4.8613510584383599</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5279,10 +5279,10 @@
         <v>20</v>
       </c>
       <c r="J14">
-        <v>1.8349018079999999</v>
+        <v>1.3249018079999999</v>
       </c>
       <c r="K14">
-        <v>5.0243704384109602</v>
+        <v>5.1518704384109597</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5293,10 +5293,10 @@
         <v>20</v>
       </c>
       <c r="J15">
-        <v>1.962211744</v>
+        <v>1.462211744</v>
       </c>
       <c r="K15">
-        <v>5.2819730913972602</v>
+        <v>5.4069730913972602</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5307,10 +5307,10 @@
         <v>20</v>
       </c>
       <c r="J16">
-        <v>2.0745504385000002</v>
+        <v>1.7645504384999999</v>
       </c>
       <c r="K16">
-        <v>5.5959048561284197</v>
+        <v>5.6734048561284203</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5323,7 +5323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497279C7-62F4-42D3-86F0-D7D62ED0BF50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBAEB98-7016-4D12-843A-B336EDFCA028}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5349,10 +5349,10 @@
         <v>21</v>
       </c>
       <c r="J2">
-        <v>0.67531599899999994</v>
+        <v>0.97531599899999999</v>
       </c>
       <c r="K2">
-        <v>3.3315130550445202</v>
+        <v>3.25651305504452</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5363,10 +5363,10 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <v>0.90002027600000001</v>
+        <v>0.85002027599999996</v>
       </c>
       <c r="K3">
-        <v>2.82566739675342</v>
+        <v>2.8381673967534198</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5377,10 +5377,10 @@
         <v>21</v>
       </c>
       <c r="J4">
-        <v>1.0055829599999999</v>
+        <v>0.87558296000000002</v>
       </c>
       <c r="K4">
-        <v>2.9853794654794501</v>
+        <v>3.0178794654794499</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5391,10 +5391,10 @@
         <v>21</v>
       </c>
       <c r="J5">
-        <v>0.99930275349999997</v>
+        <v>0.8993027535</v>
       </c>
       <c r="K5">
-        <v>2.9777752705291101</v>
+        <v>3.00277527052911</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5405,10 +5405,10 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <v>1.0470529390000001</v>
+        <v>0.85705293900000001</v>
       </c>
       <c r="K6">
-        <v>3.06886882004452</v>
+        <v>3.1163688200445199</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5419,10 +5419,10 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>1.1740214375</v>
+        <v>0.89402143749999996</v>
       </c>
       <c r="K7">
-        <v>3.4121665584332201</v>
+        <v>3.48216655843322</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5433,10 +5433,10 @@
         <v>21</v>
       </c>
       <c r="J8">
-        <v>1.146858183</v>
+        <v>0.96685818300000004</v>
       </c>
       <c r="K8">
-        <v>3.9486361391815099</v>
+        <v>3.9936361391815098</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5447,10 +5447,10 @@
         <v>21</v>
       </c>
       <c r="J9">
-        <v>1.205391865</v>
+        <v>1.005391865</v>
       </c>
       <c r="K9">
-        <v>4.2748355953938404</v>
+        <v>4.3248355953938402</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5461,10 +5461,10 @@
         <v>21</v>
       </c>
       <c r="J10">
-        <v>1.3447350764999999</v>
+        <v>1.1147350764999999</v>
       </c>
       <c r="K10">
-        <v>4.9349765048476</v>
+        <v>4.9924765048476001</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5475,10 +5475,10 @@
         <v>21</v>
       </c>
       <c r="J11">
-        <v>1.4197019959999999</v>
+        <v>1.259701996</v>
       </c>
       <c r="K11">
-        <v>5.6095799804520503</v>
+        <v>5.6495799804520503</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5489,10 +5489,10 @@
         <v>21</v>
       </c>
       <c r="J12">
-        <v>1.517724313</v>
+        <v>1.3577243130000001</v>
       </c>
       <c r="K12">
-        <v>6.0098086477774002</v>
+        <v>6.0498086477774002</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5503,10 +5503,10 @@
         <v>21</v>
       </c>
       <c r="J13">
-        <v>1.6077470005000001</v>
+        <v>1.5077470005</v>
       </c>
       <c r="K13">
-        <v>6.6715372224777401</v>
+        <v>6.6965372224777404</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5517,10 +5517,10 @@
         <v>21</v>
       </c>
       <c r="J14">
-        <v>1.6490188965000001</v>
+        <v>1.6090188965000001</v>
       </c>
       <c r="K14">
-        <v>7.1133028101215796</v>
+        <v>7.1233028101215803</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5531,10 +5531,10 @@
         <v>21</v>
       </c>
       <c r="J15">
-        <v>1.7679181900000001</v>
+        <v>1.68791819</v>
       </c>
       <c r="K15">
-        <v>7.4333903155136998</v>
+        <v>7.4533903155137002</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5545,10 +5545,10 @@
         <v>21</v>
       </c>
       <c r="J16">
-        <v>1.90215538</v>
+        <v>1.74215538</v>
       </c>
       <c r="K16">
-        <v>7.65290773034247</v>
+        <v>7.69290773034247</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5561,7 +5561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3519F343-A419-45F9-B4A3-66BA2B02867D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3253DC18-092A-49BE-B210-1965B9D74861}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5587,10 +5587,10 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>0.92924135299999999</v>
+        <v>0.11924135299999999</v>
       </c>
       <c r="K2">
-        <v>0.74853144257191795</v>
+        <v>0.95103144257191796</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5601,10 +5601,10 @@
         <v>22</v>
       </c>
       <c r="J3">
-        <v>1.1157820615</v>
+        <v>0.11578206150000001</v>
       </c>
       <c r="K3">
-        <v>0.67357667640582197</v>
+        <v>0.92357667640582197</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5615,10 +5615,10 @@
         <v>22</v>
       </c>
       <c r="J4">
-        <v>1.2124748620000001</v>
+        <v>0.122474862</v>
       </c>
       <c r="K4">
-        <v>0.70477648997945197</v>
+        <v>0.97727648997945205</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5629,10 +5629,10 @@
         <v>22</v>
       </c>
       <c r="J5">
-        <v>1.2292500319999999</v>
+        <v>0.11925003200000001</v>
       </c>
       <c r="K5">
-        <v>0.67359995775342496</v>
+        <v>0.95109995775342504</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5643,10 +5643,10 @@
         <v>22</v>
       </c>
       <c r="J6">
-        <v>1.1042798039999999</v>
+        <v>0.29427980399999998</v>
       </c>
       <c r="K6">
-        <v>2.43735730927397</v>
+        <v>2.6398573092739701</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5657,10 +5657,10 @@
         <v>22</v>
       </c>
       <c r="J7">
-        <v>1.264944192</v>
+        <v>0.69494419200000002</v>
       </c>
       <c r="K7">
-        <v>3.0517797054246598</v>
+        <v>3.1942797054246599</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5671,10 +5671,10 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>1.3018930849999999</v>
+        <v>0.65189308499999998</v>
       </c>
       <c r="K8">
-        <v>2.7541808383390398</v>
+        <v>2.9166808383390399</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5685,10 +5685,10 @@
         <v>22</v>
       </c>
       <c r="J9">
-        <v>1.415843371</v>
+        <v>0.62584337099999998</v>
       </c>
       <c r="K9">
-        <v>2.3735055956061601</v>
+        <v>2.5710055956061599</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5699,10 +5699,10 @@
         <v>22</v>
       </c>
       <c r="J10">
-        <v>1.6103705100000001</v>
+        <v>0.65037051000000001</v>
       </c>
       <c r="K10">
-        <v>2.2817255916780801</v>
+        <v>2.5217255916780799</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5713,10 +5713,10 @@
         <v>22</v>
       </c>
       <c r="J11">
-        <v>1.6968916839999999</v>
+        <v>0.76689168399999996</v>
       </c>
       <c r="K11">
-        <v>2.52079283242466</v>
+        <v>2.7532928324246599</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5727,10 +5727,10 @@
         <v>22</v>
       </c>
       <c r="J12">
-        <v>1.861899008</v>
+        <v>0.76189900799999999</v>
       </c>
       <c r="K12">
-        <v>2.2567466178630098</v>
+        <v>2.5317466178630101</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5741,10 +5741,10 @@
         <v>22</v>
       </c>
       <c r="J13">
-        <v>1.967210116</v>
+        <v>0.90721011600000001</v>
       </c>
       <c r="K13">
-        <v>2.6298096627808198</v>
+        <v>2.89480966278082</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5755,10 +5755,10 @@
         <v>22</v>
       </c>
       <c r="J14">
-        <v>1.994181108</v>
+        <v>1.0841811079999999</v>
       </c>
       <c r="K14">
-        <v>3.08912924354795</v>
+        <v>3.3166292435479501</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5769,10 +5769,10 @@
         <v>22</v>
       </c>
       <c r="J15">
-        <v>2.14190514</v>
+        <v>1.1019051399999999</v>
       </c>
       <c r="K15">
-        <v>3.1108576876027398</v>
+        <v>3.3708576876027401</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5783,10 +5783,10 @@
         <v>22</v>
       </c>
       <c r="J16">
-        <v>2.2885501439999998</v>
+        <v>1.1285501440000001</v>
       </c>
       <c r="K16">
-        <v>3.1623586283835601</v>
+        <v>3.4523586283835601</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5799,7 +5799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691F03E3-CA71-498E-8F92-8CF5A2471D1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CDC9F8-3B8A-46EB-ADE0-27D63A5124E0}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5825,10 +5825,10 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>0.77213485749999999</v>
+        <v>0.79213485750000001</v>
       </c>
       <c r="K2">
-        <v>2.6469462856249999</v>
+        <v>2.641946285625</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5839,10 +5839,10 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>0.95833167699999999</v>
+        <v>0.76833167700000005</v>
       </c>
       <c r="K3">
-        <v>2.5150795465034199</v>
+        <v>2.5625795465034198</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5853,10 +5853,10 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>1.0699768734999999</v>
+        <v>0.75997687349999998</v>
       </c>
       <c r="K4">
-        <v>2.45724509669349</v>
+        <v>2.5347450966934901</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5867,10 +5867,10 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>1.0820899955000001</v>
+        <v>0.76208999550000001</v>
       </c>
       <c r="K5">
-        <v>2.46174024085103</v>
+        <v>2.5417402408510301</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5881,10 +5881,10 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>1.1182080539999999</v>
+        <v>0.77820805400000004</v>
       </c>
       <c r="K6">
-        <v>2.5105083974589002</v>
+        <v>2.5955083974589002</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5895,10 +5895,10 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>1.2757963649999999</v>
+        <v>0.79579636499999995</v>
       </c>
       <c r="K7">
-        <v>2.5342617306678101</v>
+        <v>2.6542617306678098</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5909,10 +5909,10 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>1.2727055279999999</v>
+        <v>0.84270552799999998</v>
       </c>
       <c r="K8">
-        <v>2.7031712892328801</v>
+        <v>2.81067128923288</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5923,10 +5923,10 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>1.3582121785000001</v>
+        <v>0.89821217850000001</v>
       </c>
       <c r="K9">
-        <v>2.8807385992106198</v>
+        <v>2.99573859921062</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5937,10 +5937,10 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>1.5785125449999999</v>
+        <v>0.86851254499999997</v>
       </c>
       <c r="K10">
-        <v>2.83887665827055</v>
+        <v>3.0163766582705498</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5951,10 +5951,10 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>1.71084825</v>
+        <v>0.87084824999999999</v>
       </c>
       <c r="K11">
-        <v>2.9864182114725999</v>
+        <v>3.1964182114725999</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5965,10 +5965,10 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>1.8621945835</v>
+        <v>0.83219458349999997</v>
       </c>
       <c r="K12">
-        <v>2.89997053220719</v>
+        <v>3.1574705322071899</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5979,10 +5979,10 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>2.020388718</v>
+        <v>0.82038871800000002</v>
       </c>
       <c r="K13">
-        <v>2.8637959711849299</v>
+        <v>3.1637959711849302</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5993,10 +5993,10 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>2.0397216359999999</v>
+        <v>0.74972163599999997</v>
       </c>
       <c r="K14">
-        <v>2.87819726223288</v>
+        <v>3.2006972622328802</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6007,10 +6007,10 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>2.1047273510000002</v>
+        <v>0.644727351</v>
       </c>
       <c r="K15">
-        <v>2.8647962444417798</v>
+        <v>3.22979624444178</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6021,10 +6021,10 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>2.1699421499999998</v>
+        <v>0.43994214999999998</v>
       </c>
       <c r="K16">
-        <v>2.85039528441781</v>
+        <v>3.2828952844178101</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6037,7 +6037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB4D4EC-2D3E-4F92-AA60-84AABBDE822B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482F7368-153B-47A7-B2C0-74E4C5DFC276}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6063,10 +6063,10 @@
         <v>23</v>
       </c>
       <c r="J2">
-        <v>0.67330487500000002</v>
+        <v>0.35330487500000002</v>
       </c>
       <c r="K2">
-        <v>4.1109477538527397</v>
+        <v>4.1909477538527398</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -6077,10 +6077,10 @@
         <v>23</v>
       </c>
       <c r="J3">
-        <v>0.84044333999999998</v>
+        <v>0.36044334</v>
       </c>
       <c r="K3">
-        <v>4.1554727266438398</v>
+        <v>4.2754727266438399</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -6091,10 +6091,10 @@
         <v>23</v>
       </c>
       <c r="J4">
-        <v>0.92094769499999996</v>
+        <v>0.39094769499999998</v>
       </c>
       <c r="K4">
-        <v>4.5047945830993203</v>
+        <v>4.6372945830993197</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -6105,10 +6105,10 @@
         <v>23</v>
       </c>
       <c r="J5">
-        <v>0.96617319999999995</v>
+        <v>0.35617320000000002</v>
       </c>
       <c r="K5">
-        <v>4.0723087547945198</v>
+        <v>4.2248087547945197</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -6119,10 +6119,10 @@
         <v>23</v>
       </c>
       <c r="J6">
-        <v>1.1587507610000001</v>
+        <v>0.578750761</v>
       </c>
       <c r="K6">
-        <v>2.28173806317466</v>
+        <v>2.42673806317466</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -6133,10 +6133,10 @@
         <v>23</v>
       </c>
       <c r="J7">
-        <v>1.237764898</v>
+        <v>0.737764898</v>
       </c>
       <c r="K7">
-        <v>2.9071743919383599</v>
+        <v>3.0321743919383599</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -6147,10 +6147,10 @@
         <v>23</v>
       </c>
       <c r="J8">
-        <v>1.2886076415000001</v>
+        <v>0.64860764150000005</v>
       </c>
       <c r="K8">
-        <v>2.2700967197619901</v>
+        <v>2.4300967197619898</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -6161,10 +6161,10 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>1.37389461</v>
+        <v>0.82389460999999997</v>
       </c>
       <c r="K9">
-        <v>2.4975838817465799</v>
+        <v>2.63508388174658</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -6175,10 +6175,10 @@
         <v>23</v>
       </c>
       <c r="J10">
-        <v>1.5838924274999999</v>
+        <v>0.6738924275</v>
       </c>
       <c r="K10">
-        <v>2.44543168764555</v>
+        <v>2.67293168764555</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6189,10 +6189,10 @@
         <v>23</v>
       </c>
       <c r="J11">
-        <v>1.7338866035</v>
+        <v>0.56388660349999997</v>
       </c>
       <c r="K11">
-        <v>2.4085360203578801</v>
+        <v>2.70103602035788</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6203,10 +6203,10 @@
         <v>23</v>
       </c>
       <c r="J12">
-        <v>1.89041638</v>
+        <v>0.51041638</v>
       </c>
       <c r="K12">
-        <v>2.3705304255479498</v>
+        <v>2.71553042554795</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6217,10 +6217,10 @@
         <v>23</v>
       </c>
       <c r="J13">
-        <v>2.0277688399999998</v>
+        <v>0.53776884000000003</v>
       </c>
       <c r="K13">
-        <v>2.4885171050684902</v>
+        <v>2.8610171050684898</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6231,10 +6231,10 @@
         <v>23</v>
       </c>
       <c r="J14">
-        <v>2.1250416639999998</v>
+        <v>0.51504166399999995</v>
       </c>
       <c r="K14">
-        <v>2.3374373922191798</v>
+        <v>2.7399373922191801</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6245,10 +6245,10 @@
         <v>23</v>
       </c>
       <c r="J15">
-        <v>2.2680744415</v>
+        <v>0.51807444150000004</v>
       </c>
       <c r="K15">
-        <v>2.3187064581181498</v>
+        <v>2.7562064581181498</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6259,10 +6259,10 @@
         <v>23</v>
       </c>
       <c r="J16">
-        <v>2.427257692</v>
+        <v>0.52725769199999994</v>
       </c>
       <c r="K16">
-        <v>2.3299283167260301</v>
+        <v>2.8049283167260302</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6275,7 +6275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DDEE7E-2059-41CE-A2E3-3B404E77D6E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FD83FE-CC95-42D6-966D-551E54EC2242}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6301,10 +6301,10 @@
         <v>24</v>
       </c>
       <c r="J2">
-        <v>0.55977310599999996</v>
+        <v>0.94977310599999998</v>
       </c>
       <c r="K2">
-        <v>6.8647526139109596</v>
+        <v>6.7672526139109603</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -6315,10 +6315,10 @@
         <v>24</v>
       </c>
       <c r="J3">
-        <v>0.76698797249999995</v>
+        <v>0.88698797250000005</v>
       </c>
       <c r="K3">
-        <v>6.3499379383818502</v>
+        <v>6.3199379383818499</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -6329,10 +6329,10 @@
         <v>24</v>
       </c>
       <c r="J4">
-        <v>0.83469361200000003</v>
+        <v>0.98469361200000005</v>
       </c>
       <c r="K4">
-        <v>7.0536033093287704</v>
+        <v>7.0161033093287699</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -6343,10 +6343,10 @@
         <v>24</v>
       </c>
       <c r="J5">
-        <v>0.86190495700000003</v>
+        <v>0.94190495699999999</v>
       </c>
       <c r="K5">
-        <v>6.7311922539006801</v>
+        <v>6.7111922539006796</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -6357,10 +6357,10 @@
         <v>24</v>
       </c>
       <c r="J6">
-        <v>0.952909491</v>
+        <v>0.79290949099999997</v>
       </c>
       <c r="K6">
-        <v>4.6552904354691798</v>
+        <v>4.6952904354691798</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -6371,10 +6371,10 @@
         <v>24</v>
       </c>
       <c r="J7">
-        <v>1.1063742750000001</v>
+        <v>1.076374275</v>
       </c>
       <c r="K7">
-        <v>4.6621708148116401</v>
+        <v>4.6696708148116404</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -6385,10 +6385,10 @@
         <v>24</v>
       </c>
       <c r="J8">
-        <v>1.173414146</v>
+        <v>1.0034141459999999</v>
       </c>
       <c r="K8">
-        <v>4.3949642717191804</v>
+        <v>4.4374642717191799</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -6399,10 +6399,10 @@
         <v>24</v>
       </c>
       <c r="J9">
-        <v>1.2928211890000001</v>
+        <v>0.85282118900000004</v>
       </c>
       <c r="K9">
-        <v>3.8493673054897299</v>
+        <v>3.9593673054897298</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -6413,10 +6413,10 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>1.4895134745</v>
+        <v>0.79951347449999999</v>
       </c>
       <c r="K10">
-        <v>3.65075437110103</v>
+        <v>3.8232543711010298</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6427,10 +6427,10 @@
         <v>24</v>
       </c>
       <c r="J11">
-        <v>1.6246688300000001</v>
+        <v>0.84466883000000004</v>
       </c>
       <c r="K11">
-        <v>3.6348467651027399</v>
+        <v>3.8298467651027401</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6441,10 +6441,10 @@
         <v>24</v>
       </c>
       <c r="J12">
-        <v>1.7650454200000001</v>
+        <v>0.88504541999999997</v>
       </c>
       <c r="K12">
-        <v>3.6206975491095901</v>
+        <v>3.8406975491095898</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6455,10 +6455,10 @@
         <v>24</v>
       </c>
       <c r="J13">
-        <v>1.9065626575000001</v>
+        <v>0.90656265749999998</v>
       </c>
       <c r="K13">
-        <v>3.5973827602825299</v>
+        <v>3.8473827602825299</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6469,10 +6469,10 @@
         <v>24</v>
       </c>
       <c r="J14">
-        <v>1.987580739</v>
+        <v>0.92758073900000004</v>
       </c>
       <c r="K14">
-        <v>3.5839222125102701</v>
+        <v>3.8489222125102698</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6483,10 +6483,10 @@
         <v>24</v>
       </c>
       <c r="J15">
-        <v>2.1405016570000002</v>
+        <v>0.950501657</v>
       </c>
       <c r="K15">
-        <v>3.5576739008184899</v>
+        <v>3.8551739008184902</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6497,10 +6497,10 @@
         <v>24</v>
       </c>
       <c r="J16">
-        <v>2.2981022499999999</v>
+        <v>0.99810224999999997</v>
       </c>
       <c r="K16">
-        <v>3.54100594434931</v>
+        <v>3.8660059443493102</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6513,7 +6513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76258AC-6B3A-4AEC-B336-92F820BEA0AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3DD80E-2ACD-464C-BFE7-1E6AE5FE6E82}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6539,10 +6539,10 @@
         <v>25</v>
       </c>
       <c r="J2">
-        <v>0.76423922950000001</v>
+        <v>0.46423922950000002</v>
       </c>
       <c r="K2">
-        <v>3.8570740282414402</v>
+        <v>3.9320740282414399</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -6553,10 +6553,10 @@
         <v>25</v>
       </c>
       <c r="J3">
-        <v>0.93628121200000003</v>
+        <v>0.48628121200000002</v>
       </c>
       <c r="K3">
-        <v>4.0062694230274003</v>
+        <v>4.1187694230274001</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -6567,10 +6567,10 @@
         <v>25</v>
       </c>
       <c r="J4">
-        <v>1.03456009</v>
+        <v>0.41456008999999999</v>
       </c>
       <c r="K4">
-        <v>4.56445175832192</v>
+        <v>4.7194517583219202</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -6581,10 +6581,10 @@
         <v>25</v>
       </c>
       <c r="J5">
-        <v>1.045779684</v>
+        <v>0.47577968399999998</v>
       </c>
       <c r="K5">
-        <v>4.0563893255753403</v>
+        <v>4.1988893255753403</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -6595,10 +6595,10 @@
         <v>25</v>
       </c>
       <c r="J6">
-        <v>1.0927899830000001</v>
+        <v>0.35278998299999997</v>
       </c>
       <c r="K6">
-        <v>4.9595340110993096</v>
+        <v>5.1445340110993101</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -6609,10 +6609,10 @@
         <v>25</v>
       </c>
       <c r="J7">
-        <v>1.2560425645</v>
+        <v>0.33604256449999997</v>
       </c>
       <c r="K7">
-        <v>4.7938962081900698</v>
+        <v>5.0238962081900702</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -6623,10 +6623,10 @@
         <v>25</v>
       </c>
       <c r="J8">
-        <v>1.2815328500000001</v>
+        <v>0.33153284999999999</v>
       </c>
       <c r="K8">
-        <v>3.7511769244863</v>
+        <v>3.9886769244862998</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -6637,10 +6637,10 @@
         <v>25</v>
       </c>
       <c r="J9">
-        <v>1.3986088175</v>
+        <v>0.33860881749999999</v>
       </c>
       <c r="K9">
-        <v>2.7320538230222602</v>
+        <v>2.9970538230222599</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -6651,10 +6651,10 @@
         <v>25</v>
       </c>
       <c r="J10">
-        <v>1.6132737705</v>
+        <v>0.34327377050000002</v>
       </c>
       <c r="K10">
-        <v>2.4965444340873302</v>
+        <v>2.8140444340873301</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6665,10 +6665,10 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>1.7504809699999999</v>
+        <v>0.35048097</v>
       </c>
       <c r="K11">
-        <v>2.6020722232534199</v>
+        <v>2.95207222325342</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6679,10 +6679,10 @@
         <v>25</v>
       </c>
       <c r="J12">
-        <v>1.89305038</v>
+        <v>0.35305038</v>
       </c>
       <c r="K12">
-        <v>2.6384126104794499</v>
+        <v>3.0234126104794501</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6693,10 +6693,10 @@
         <v>25</v>
       </c>
       <c r="J13">
-        <v>2.0331104125000001</v>
+        <v>0.37311041249999999</v>
       </c>
       <c r="K13">
-        <v>2.7800889722174702</v>
+        <v>3.1950889722174698</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6707,10 +6707,10 @@
         <v>25</v>
       </c>
       <c r="J14">
-        <v>2.1006140370000002</v>
+        <v>0.39061403700000003</v>
       </c>
       <c r="K14">
-        <v>2.91748539485959</v>
+        <v>3.3449853948595898</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6721,10 +6721,10 @@
         <v>25</v>
       </c>
       <c r="J15">
-        <v>2.2526555159999999</v>
+        <v>0.39265551599999998</v>
       </c>
       <c r="K15">
-        <v>2.8974988607260301</v>
+        <v>3.36249886072603</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6735,10 +6735,10 @@
         <v>25</v>
       </c>
       <c r="J16">
-        <v>2.4041702740000002</v>
+        <v>0.404170274</v>
       </c>
       <c r="K16">
-        <v>2.96109044519863</v>
+        <v>3.46109044519863</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6751,7 +6751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7036CB82-051D-481D-BEF9-A8C9500E39DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E4F02-31DF-405B-8FED-6D6889FAF837}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6777,10 +6777,10 @@
         <v>26</v>
       </c>
       <c r="J2">
-        <v>-0.26138496500000002</v>
+        <v>2.6086150350000001</v>
       </c>
       <c r="K2">
-        <v>10.1017722686473</v>
+        <v>9.3842722686472602</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -6791,10 +6791,10 @@
         <v>26</v>
       </c>
       <c r="J3">
-        <v>0.11600197</v>
+        <v>2.2160019700000002</v>
       </c>
       <c r="K3">
-        <v>8.4968351239383608</v>
+        <v>7.9718351239383596</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -6805,10 +6805,10 @@
         <v>26</v>
       </c>
       <c r="J4">
-        <v>0.93452863600000002</v>
+        <v>0.77452863599999999</v>
       </c>
       <c r="K4">
-        <v>2.7463451012739699</v>
+        <v>2.7863451012739699</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -6819,10 +6819,10 @@
         <v>26</v>
       </c>
       <c r="J5">
-        <v>0.2876112925</v>
+        <v>2.1076112925000001</v>
       </c>
       <c r="K5">
-        <v>8.0369369029024007</v>
+        <v>7.5819369029023997</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -6833,10 +6833,10 @@
         <v>26</v>
       </c>
       <c r="J6">
-        <v>1.2230601725000001</v>
+        <v>0.3030601725</v>
       </c>
       <c r="K6">
-        <v>0.86026591577911005</v>
+        <v>1.0902659157791099</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -6847,10 +6847,10 @@
         <v>26</v>
       </c>
       <c r="J7">
-        <v>1.412309595</v>
+        <v>0.23230959500000001</v>
       </c>
       <c r="K7">
-        <v>0.54081410809931496</v>
+        <v>0.835814108099315</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -6861,10 +6861,10 @@
         <v>26</v>
       </c>
       <c r="J8">
-        <v>1.248760425</v>
+        <v>0.60876042500000005</v>
       </c>
       <c r="K8">
-        <v>2.02996249648973</v>
+        <v>2.1899624964897302</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -6875,10 +6875,10 @@
         <v>26</v>
       </c>
       <c r="J9">
-        <v>1.286490318</v>
+        <v>0.74649031799999999</v>
       </c>
       <c r="K9">
-        <v>2.5504742698150702</v>
+        <v>2.68547426981507</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -6889,10 +6889,10 @@
         <v>26</v>
       </c>
       <c r="J10">
-        <v>1.599132204</v>
+        <v>0.52913220400000005</v>
       </c>
       <c r="K10">
-        <v>1.6359927024246601</v>
+        <v>1.90349270242466</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6903,10 +6903,10 @@
         <v>26</v>
       </c>
       <c r="J11">
-        <v>1.7046220955</v>
+        <v>0.63462209550000004</v>
       </c>
       <c r="K11">
-        <v>1.9512146131113</v>
+        <v>2.2187146131112998</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6917,10 +6917,10 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>1.842230992</v>
+        <v>0.72223099199999996</v>
       </c>
       <c r="K12">
-        <v>2.1085107451506899</v>
+        <v>2.3885107451506902</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6931,10 +6931,10 @@
         <v>26</v>
       </c>
       <c r="J13">
-        <v>1.9782966755</v>
+        <v>0.81829667549999996</v>
       </c>
       <c r="K13">
-        <v>2.3439300777003398</v>
+        <v>2.6339300777003398</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6945,10 +6945,10 @@
         <v>26</v>
       </c>
       <c r="J14">
-        <v>2.035015392</v>
+        <v>0.92501539200000005</v>
       </c>
       <c r="K14">
-        <v>2.6217728643287699</v>
+        <v>2.8992728643287702</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6959,10 +6959,10 @@
         <v>26</v>
       </c>
       <c r="J15">
-        <v>2.1753323775000002</v>
+        <v>1.0053323775</v>
       </c>
       <c r="K15">
-        <v>2.8062381385017101</v>
+        <v>3.0987381385017101</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6973,10 +6973,10 @@
         <v>26</v>
       </c>
       <c r="J16">
-        <v>2.3639973809999999</v>
+        <v>1.023997381</v>
       </c>
       <c r="K16">
-        <v>2.7125998328321899</v>
+        <v>3.0475998328321898</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6989,7 +6989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C06AF7-2D9F-4E28-A186-B2F9FDB044C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC164ABA-0544-4AF6-875D-CB55383B6165}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7015,10 +7015,10 @@
         <v>27</v>
       </c>
       <c r="J2">
-        <v>0.77357849349999996</v>
+        <v>0.67357849349999999</v>
       </c>
       <c r="K2">
-        <v>3.1814274314195199</v>
+        <v>3.2064274314195198</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7029,10 +7029,10 @@
         <v>27</v>
       </c>
       <c r="J3">
-        <v>0.96088137250000005</v>
+        <v>0.62088137249999997</v>
       </c>
       <c r="K3">
-        <v>2.8178230815325298</v>
+        <v>2.9028230815325302</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7043,10 +7043,10 @@
         <v>27</v>
       </c>
       <c r="J4">
-        <v>1.0385804525</v>
+        <v>0.62858045250000005</v>
       </c>
       <c r="K4">
-        <v>2.70831036632705</v>
+        <v>2.8108103663270501</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7057,10 +7057,10 @@
         <v>27</v>
       </c>
       <c r="J5">
-        <v>1.0801323</v>
+        <v>0.60013229999999995</v>
       </c>
       <c r="K5">
-        <v>2.6278818565068498</v>
+        <v>2.7478818565068499</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7071,10 +7071,10 @@
         <v>27</v>
       </c>
       <c r="J6">
-        <v>1.1304936065</v>
+        <v>0.55049360650000001</v>
       </c>
       <c r="K6">
-        <v>2.2537483791969199</v>
+        <v>2.39874837919692</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7085,10 +7085,10 @@
         <v>27</v>
       </c>
       <c r="J7">
-        <v>1.2938413200000001</v>
+        <v>0.56384131999999998</v>
       </c>
       <c r="K7">
-        <v>2.0645885741095902</v>
+        <v>2.2470885741095898</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7099,10 +7099,10 @@
         <v>27</v>
       </c>
       <c r="J8">
-        <v>1.3351237970000001</v>
+        <v>0.60512379699999996</v>
       </c>
       <c r="K8">
-        <v>2.0719798726678098</v>
+        <v>2.2544798726678099</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7113,10 +7113,10 @@
         <v>27</v>
       </c>
       <c r="J9">
-        <v>1.47844635</v>
+        <v>0.42844634999999998</v>
       </c>
       <c r="K9">
-        <v>1.68424553578767</v>
+        <v>1.94674553578767</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7127,10 +7127,10 @@
         <v>27</v>
       </c>
       <c r="J10">
-        <v>1.6493467559999999</v>
+        <v>0.60934675599999999</v>
       </c>
       <c r="K10">
-        <v>1.85213070826027</v>
+        <v>2.1121307082602701</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7141,10 +7141,10 @@
         <v>27</v>
       </c>
       <c r="J11">
-        <v>1.7859012704999999</v>
+        <v>0.57590127049999995</v>
       </c>
       <c r="K11">
-        <v>1.8456093399092499</v>
+        <v>2.1481093399092499</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7155,10 +7155,10 @@
         <v>27</v>
       </c>
       <c r="J12">
-        <v>1.962852469</v>
+        <v>0.48285246900000001</v>
       </c>
       <c r="K12">
-        <v>1.47945633480479</v>
+        <v>1.8494563348047901</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7169,10 +7169,10 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>2.1083245439999998</v>
+        <v>0.458324544</v>
       </c>
       <c r="K13">
-        <v>1.4072477681095901</v>
+        <v>1.8197477681095899</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7183,10 +7183,10 @@
         <v>27</v>
       </c>
       <c r="J14">
-        <v>2.1817948079999998</v>
+        <v>0.44179480799999998</v>
       </c>
       <c r="K14">
-        <v>1.38362814731507</v>
+        <v>1.8186281473150701</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7197,10 +7197,10 @@
         <v>27</v>
       </c>
       <c r="J15">
-        <v>2.3296428855000002</v>
+        <v>0.43964288550000002</v>
       </c>
       <c r="K15">
-        <v>1.33737311424144</v>
+        <v>1.8098731142414399</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7211,10 +7211,10 @@
         <v>27</v>
       </c>
       <c r="J16">
-        <v>2.4937976725</v>
+        <v>0.44379767250000002</v>
       </c>
       <c r="K16">
-        <v>1.31437674625856</v>
+        <v>1.82687674625856</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7227,7 +7227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9175EF17-5827-4933-8CE1-20216854674B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA921B67-F52B-4B54-84D7-86C5523B5F79}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7253,10 +7253,10 @@
         <v>28</v>
       </c>
       <c r="J2">
-        <v>0.80189545900000003</v>
+        <v>0.70189545900000005</v>
       </c>
       <c r="K2">
-        <v>4.3548329845650704</v>
+        <v>4.3798329845650699</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7267,10 +7267,10 @@
         <v>28</v>
       </c>
       <c r="J3">
-        <v>0.98145104250000004</v>
+        <v>0.72145104250000003</v>
       </c>
       <c r="K3">
-        <v>4.43667148595034</v>
+        <v>4.5016714859503404</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7281,10 +7281,10 @@
         <v>28</v>
       </c>
       <c r="J4">
-        <v>1.117753027</v>
+        <v>0.61775302700000001</v>
       </c>
       <c r="K4">
-        <v>3.72992366105822</v>
+        <v>3.85492366105822</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7295,10 +7295,10 @@
         <v>28</v>
       </c>
       <c r="J5">
-        <v>1.11969001</v>
+        <v>0.64969001000000004</v>
       </c>
       <c r="K5">
-        <v>3.9365117440753399</v>
+        <v>4.05401174407534</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7309,10 +7309,10 @@
         <v>28</v>
       </c>
       <c r="J6">
-        <v>1.1605291865</v>
+        <v>0.66052918650000003</v>
       </c>
       <c r="K6">
-        <v>3.99652660748459</v>
+        <v>4.12152660748459</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7323,10 +7323,10 @@
         <v>28</v>
       </c>
       <c r="J7">
-        <v>1.2966729225</v>
+        <v>0.71667292250000003</v>
       </c>
       <c r="K7">
-        <v>4.3270810844434902</v>
+        <v>4.4720810844434897</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7337,10 +7337,10 @@
         <v>28</v>
       </c>
       <c r="J8">
-        <v>1.3216359769999999</v>
+        <v>0.71163597700000003</v>
       </c>
       <c r="K8">
-        <v>3.9655704578047901</v>
+        <v>4.11807045780479</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7351,10 +7351,10 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <v>1.4684499815000001</v>
+        <v>0.60844998149999996</v>
       </c>
       <c r="K9">
-        <v>2.5032628470907499</v>
+        <v>2.7182628470907502</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7365,10 +7365,10 @@
         <v>28</v>
       </c>
       <c r="J10">
-        <v>1.6734882284999999</v>
+        <v>0.60348822849999995</v>
       </c>
       <c r="K10">
-        <v>1.8261108195873299</v>
+        <v>2.09361081958733</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7379,10 +7379,10 @@
         <v>28</v>
       </c>
       <c r="J11">
-        <v>1.808619609</v>
+        <v>0.54861960899999995</v>
       </c>
       <c r="K11">
-        <v>1.83991578268151</v>
+        <v>2.1549157826815102</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7393,10 +7393,10 @@
         <v>28</v>
       </c>
       <c r="J12">
-        <v>1.9490679005</v>
+        <v>0.51906790049999996</v>
       </c>
       <c r="K12">
-        <v>1.8421265865188401</v>
+        <v>2.19962658651884</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7407,10 +7407,10 @@
         <v>28</v>
       </c>
       <c r="J13">
-        <v>2.1024727054999999</v>
+        <v>0.52247270550000002</v>
       </c>
       <c r="K13">
-        <v>1.8371612756797899</v>
+        <v>2.2321612756797902</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7421,10 +7421,10 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>2.1867846950000001</v>
+        <v>0.51678469500000002</v>
       </c>
       <c r="K14">
-        <v>1.7903991687157499</v>
+        <v>2.2078991687157501</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7435,10 +7435,10 @@
         <v>28</v>
       </c>
       <c r="J15">
-        <v>2.327926428</v>
+        <v>0.527926428</v>
       </c>
       <c r="K15">
-        <v>1.8054755162876699</v>
+        <v>2.2554755162876701</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7449,10 +7449,10 @@
         <v>28</v>
       </c>
       <c r="J16">
-        <v>2.4811059449999999</v>
+        <v>0.54110594499999998</v>
       </c>
       <c r="K16">
-        <v>1.82682844525685</v>
+        <v>2.3118284452568498</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7465,7 +7465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACF63A4-C1B5-40AF-9210-5EC384C80563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD91DD9-D7B7-4317-AB73-03756608CB01}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7491,10 +7491,10 @@
         <v>29</v>
       </c>
       <c r="J2">
-        <v>0.92865272249999997</v>
+        <v>0.24865272250000001</v>
       </c>
       <c r="K2">
-        <v>1.1233518878681501</v>
+        <v>1.29335188786815</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7505,10 +7505,10 @@
         <v>29</v>
       </c>
       <c r="J3">
-        <v>1.1198686625000001</v>
+        <v>0.21986866250000001</v>
       </c>
       <c r="K3">
-        <v>0.91861666999143798</v>
+        <v>1.1436166699914401</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7519,10 +7519,10 @@
         <v>29</v>
       </c>
       <c r="J4">
-        <v>1.208866397</v>
+        <v>0.26886639699999998</v>
       </c>
       <c r="K4">
-        <v>1.16349011307877</v>
+        <v>1.3984901130787699</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7533,10 +7533,10 @@
         <v>29</v>
       </c>
       <c r="J5">
-        <v>1.2185543720000001</v>
+        <v>0.25855437199999998</v>
       </c>
       <c r="K5">
-        <v>1.1053018179589</v>
+        <v>1.3453018179589</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7547,10 +7547,10 @@
         <v>29</v>
       </c>
       <c r="J6">
-        <v>1.258850936</v>
+        <v>0.27885093599999999</v>
       </c>
       <c r="K6">
-        <v>1.2057098687397301</v>
+        <v>1.45070986873973</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7561,10 +7561,10 @@
         <v>29</v>
       </c>
       <c r="J7">
-        <v>1.3913286149999999</v>
+        <v>0.33132861499999999</v>
       </c>
       <c r="K7">
-        <v>1.3268545585787701</v>
+        <v>1.59185455857877</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7575,10 +7575,10 @@
         <v>29</v>
       </c>
       <c r="J8">
-        <v>1.3582657300000001</v>
+        <v>0.50826572999999997</v>
       </c>
       <c r="K8">
-        <v>1.9081346633904099</v>
+        <v>2.1206346633904101</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7589,10 +7589,10 @@
         <v>29</v>
       </c>
       <c r="J9">
-        <v>1.4050294375000001</v>
+        <v>0.70502943750000002</v>
       </c>
       <c r="K9">
-        <v>2.4491781200770499</v>
+        <v>2.62417812007706</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7603,10 +7603,10 @@
         <v>29</v>
       </c>
       <c r="J10">
-        <v>1.5543880450000001</v>
+        <v>0.79438804500000004</v>
       </c>
       <c r="K10">
-        <v>2.71369846820205</v>
+        <v>2.9036984682020499</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7617,10 +7617,10 @@
         <v>29</v>
       </c>
       <c r="J11">
-        <v>1.7046495290000001</v>
+        <v>0.87464952900000004</v>
       </c>
       <c r="K11">
-        <v>2.61490350816096</v>
+        <v>2.82240350816096</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7631,10 +7631,10 @@
         <v>29</v>
       </c>
       <c r="J12">
-        <v>1.862963041</v>
+        <v>0.95296304099999996</v>
       </c>
       <c r="K12">
-        <v>2.5220738972842498</v>
+        <v>2.7495738972842498</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7645,10 +7645,10 @@
         <v>29</v>
       </c>
       <c r="J13">
-        <v>2.0143556469999999</v>
+        <v>0.95435564699999997</v>
       </c>
       <c r="K13">
-        <v>2.4885642389349298</v>
+        <v>2.75356423893493</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7659,10 +7659,10 @@
         <v>29</v>
       </c>
       <c r="J14">
-        <v>2.1088429309999999</v>
+        <v>0.91884293100000003</v>
       </c>
       <c r="K14">
-        <v>2.3536000891678102</v>
+        <v>2.65110008916781</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7673,10 +7673,10 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>2.2631165549999999</v>
+        <v>0.913116555</v>
       </c>
       <c r="K15">
-        <v>2.29712538179795</v>
+        <v>2.6346253817979499</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7687,10 +7687,10 @@
         <v>29</v>
       </c>
       <c r="J16">
-        <v>2.3970190570000001</v>
+        <v>0.97701905700000002</v>
       </c>
       <c r="K16">
-        <v>2.4639638658869898</v>
+        <v>2.8189638658869902</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7703,7 +7703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E32C22-DDBD-4466-A0C5-85D1D3DD81AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8C8482-7141-49A3-B98E-726F8EEEE10C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7729,10 +7729,10 @@
         <v>30</v>
       </c>
       <c r="J2">
-        <v>0.57153347899999996</v>
+        <v>0.72153347899999998</v>
       </c>
       <c r="K2">
-        <v>4.1268522466883599</v>
+        <v>4.0893522466883603</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7743,10 +7743,10 @@
         <v>30</v>
       </c>
       <c r="J3">
-        <v>0.79905543700000004</v>
+        <v>0.64905543700000001</v>
       </c>
       <c r="K3">
-        <v>3.6411192914349302</v>
+        <v>3.6786192914349298</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7757,10 +7757,10 @@
         <v>30</v>
       </c>
       <c r="J4">
-        <v>0.92470496999999996</v>
+        <v>0.77470497000000005</v>
       </c>
       <c r="K4">
-        <v>3.9071429355821898</v>
+        <v>3.9446429355821899</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7771,10 +7771,10 @@
         <v>30</v>
       </c>
       <c r="J5">
-        <v>0.90232716400000001</v>
+        <v>0.66232716400000002</v>
       </c>
       <c r="K5">
-        <v>3.6937998528356202</v>
+        <v>3.7537998528356198</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7785,10 +7785,10 @@
         <v>30</v>
       </c>
       <c r="J6">
-        <v>1.02964832</v>
+        <v>0.93964831999999998</v>
       </c>
       <c r="K6">
-        <v>4.2969454542465799</v>
+        <v>4.3194454542465799</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7799,10 +7799,10 @@
         <v>30</v>
       </c>
       <c r="J7">
-        <v>0.96817531450000005</v>
+        <v>1.3481753144999999</v>
       </c>
       <c r="K7">
-        <v>5.0782013768544498</v>
+        <v>4.9832013768544501</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7813,10 +7813,10 @@
         <v>30</v>
       </c>
       <c r="J8">
-        <v>1.0120878200000001</v>
+        <v>1.41208782</v>
       </c>
       <c r="K8">
-        <v>5.4430122915753403</v>
+        <v>5.3430122915753397</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7827,10 +7827,10 @@
         <v>30</v>
       </c>
       <c r="J9">
-        <v>1.1184256560000001</v>
+        <v>1.4284256559999999</v>
       </c>
       <c r="K9">
-        <v>5.3525113942191798</v>
+        <v>5.2750113942191801</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7841,10 +7841,10 @@
         <v>30</v>
       </c>
       <c r="J10">
-        <v>1.2735406625000001</v>
+        <v>1.6435406625</v>
       </c>
       <c r="K10">
-        <v>5.9249846973886999</v>
+        <v>5.8324846973886997</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7855,10 +7855,10 @@
         <v>30</v>
       </c>
       <c r="J11">
-        <v>1.3341710090000001</v>
+        <v>1.764171009</v>
       </c>
       <c r="K11">
-        <v>6.2508284806267103</v>
+        <v>6.1433284806267103</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7869,10 +7869,10 @@
         <v>30</v>
       </c>
       <c r="J12">
-        <v>1.4571429119999999</v>
+        <v>1.797142912</v>
       </c>
       <c r="K12">
-        <v>6.10218139528767</v>
+        <v>6.01718139528767</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7883,10 +7883,10 @@
         <v>30</v>
       </c>
       <c r="J13">
-        <v>1.5958199040000001</v>
+        <v>1.8658199040000001</v>
       </c>
       <c r="K13">
-        <v>6.1858148870137004</v>
+        <v>6.1183148870136996</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7897,10 +7897,10 @@
         <v>30</v>
       </c>
       <c r="J14">
-        <v>1.6413184519999999</v>
+        <v>1.951318452</v>
       </c>
       <c r="K14">
-        <v>6.3371512089178097</v>
+        <v>6.25965120891781</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7911,10 +7911,10 @@
         <v>30</v>
       </c>
       <c r="J15">
-        <v>1.7688188574999999</v>
+        <v>2.0588188574999999</v>
       </c>
       <c r="K15">
-        <v>6.5330541897345897</v>
+        <v>6.4605541897345899</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7925,10 +7925,10 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>1.9202986195</v>
+        <v>2.1302986195</v>
       </c>
       <c r="K16">
-        <v>6.5884637012893803</v>
+        <v>6.5359637012893801</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7941,7 +7941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECED5A9C-4207-44A1-A049-55E1E8D802E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDB2EFF-F9C2-4E1C-A98E-FC76C141A26C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7967,10 +7967,10 @@
         <v>31</v>
       </c>
       <c r="J2">
-        <v>0.58472261250000002</v>
+        <v>1.4247226125000001</v>
       </c>
       <c r="K2">
-        <v>4.55613030577911</v>
+        <v>4.3461303057791101</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7981,10 +7981,10 @@
         <v>31</v>
       </c>
       <c r="J3">
-        <v>0.73012727349999995</v>
+        <v>1.5301272735</v>
       </c>
       <c r="K3">
-        <v>4.8676969487482902</v>
+        <v>4.66769694874829</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7995,10 +7995,10 @@
         <v>31</v>
       </c>
       <c r="J4">
-        <v>0.62571525750000001</v>
+        <v>2.2357152574999999</v>
       </c>
       <c r="K4">
-        <v>7.2225314595976</v>
+        <v>6.8200314595976002</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -8009,10 +8009,10 @@
         <v>31</v>
       </c>
       <c r="J5">
-        <v>0.73061275299999995</v>
+        <v>1.9106127530000001</v>
       </c>
       <c r="K5">
-        <v>6.1233796884623297</v>
+        <v>5.8283796884623298</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -8023,10 +8023,10 @@
         <v>31</v>
       </c>
       <c r="J6">
-        <v>0.58139316200000002</v>
+        <v>2.5213931619999999</v>
       </c>
       <c r="K6">
-        <v>8.1765448601849293</v>
+        <v>7.6915448601849299</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -8037,10 +8037,10 @@
         <v>31</v>
       </c>
       <c r="J7">
-        <v>0.6579131305</v>
+        <v>2.7979131305</v>
       </c>
       <c r="K7">
-        <v>9.0700313064160891</v>
+        <v>8.5350313064160908</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -8051,10 +8051,10 @@
         <v>31</v>
       </c>
       <c r="J8">
-        <v>0.58543055349999995</v>
+        <v>3.1054305535000002</v>
       </c>
       <c r="K8">
-        <v>10.1030930465565</v>
+        <v>9.4730930465565102</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -8065,10 +8065,10 @@
         <v>31</v>
       </c>
       <c r="J9">
-        <v>0.57985703550000001</v>
+        <v>3.4598570354999998</v>
       </c>
       <c r="K9">
-        <v>11.2742727274264</v>
+        <v>10.554272727426399</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -8079,10 +8079,10 @@
         <v>31</v>
       </c>
       <c r="J10">
-        <v>0.69564492499999997</v>
+        <v>3.7656449250000001</v>
       </c>
       <c r="K10">
-        <v>12.2545791797089</v>
+        <v>11.4870791797089</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -8093,10 +8093,10 @@
         <v>31</v>
       </c>
       <c r="J11">
-        <v>0.66606360499999995</v>
+        <v>4.2160636050000004</v>
       </c>
       <c r="K11">
-        <v>13.8266758795719</v>
+        <v>12.9391758795719</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -8107,10 +8107,10 @@
         <v>31</v>
       </c>
       <c r="J12">
-        <v>0.77002552599999996</v>
+        <v>4.2500255259999999</v>
       </c>
       <c r="K12">
-        <v>14.019389508911001</v>
+        <v>13.149389508911</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -8121,10 +8121,10 @@
         <v>31</v>
       </c>
       <c r="J13">
-        <v>0.90157992600000003</v>
+        <v>4.2715799260000002</v>
       </c>
       <c r="K13">
-        <v>14.1122954294589</v>
+        <v>13.269795429458901</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -8135,10 +8135,10 @@
         <v>31</v>
       </c>
       <c r="J14">
-        <v>0.96741158599999999</v>
+        <v>4.2874115860000002</v>
       </c>
       <c r="K14">
-        <v>14.203101898020501</v>
+        <v>13.373101898020501</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -8149,10 +8149,10 @@
         <v>31</v>
       </c>
       <c r="J15">
-        <v>1.0717265979999999</v>
+        <v>4.4217265980000002</v>
       </c>
       <c r="K15">
-        <v>14.6295628710479</v>
+        <v>13.7920628710479</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -8163,10 +8163,10 @@
         <v>31</v>
       </c>
       <c r="J16">
-        <v>1.1315655200000001</v>
+        <v>4.7315655200000002</v>
       </c>
       <c r="K16">
-        <v>15.6584880720548</v>
+        <v>14.758488072054799</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -8179,7 +8179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9BBBAF-7F02-462C-9DC9-0145B747EB6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8951544-4C79-4B1C-9166-C65B3A8A1CCB}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8205,10 +8205,10 @@
         <v>32</v>
       </c>
       <c r="J2">
-        <v>0.90864709300000002</v>
+        <v>0.268647093</v>
       </c>
       <c r="K2">
-        <v>1.43526315825685</v>
+        <v>1.5952631582568499</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -8219,10 +8219,10 @@
         <v>32</v>
       </c>
       <c r="J3">
-        <v>1.126083811</v>
+        <v>0.18608381099999999</v>
       </c>
       <c r="K3">
-        <v>0.86999740341438303</v>
+        <v>1.1049974034143799</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -8233,10 +8233,10 @@
         <v>32</v>
       </c>
       <c r="J4">
-        <v>1.2078291825</v>
+        <v>0.23782918250000001</v>
       </c>
       <c r="K4">
-        <v>1.16981475916952</v>
+        <v>1.41231475916952</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -8247,10 +8247,10 @@
         <v>32</v>
       </c>
       <c r="J5">
-        <v>1.23789547</v>
+        <v>0.20789547</v>
       </c>
       <c r="K5">
-        <v>0.97711969414383604</v>
+        <v>1.2346196941438401</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -8261,10 +8261,10 @@
         <v>32</v>
       </c>
       <c r="J6">
-        <v>1.262765887</v>
+        <v>0.232765887</v>
       </c>
       <c r="K6">
-        <v>1.12464962414041</v>
+        <v>1.3821496241404101</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -8275,10 +8275,10 @@
         <v>32</v>
       </c>
       <c r="J7">
-        <v>1.398669717</v>
+        <v>0.28866971699999999</v>
       </c>
       <c r="K7">
-        <v>1.4366196940376701</v>
+        <v>1.7141196940376699</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -8289,10 +8289,10 @@
         <v>32</v>
       </c>
       <c r="J8">
-        <v>1.3912746635</v>
+        <v>0.35127466349999997</v>
       </c>
       <c r="K8">
-        <v>1.5833935259058201</v>
+        <v>1.8433935259058201</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -8303,10 +8303,10 @@
         <v>32</v>
       </c>
       <c r="J9">
-        <v>1.4769786</v>
+        <v>0.42697859999999999</v>
       </c>
       <c r="K9">
-        <v>1.6519872678082199</v>
+        <v>1.9144872678082201</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -8317,10 +8317,10 @@
         <v>32</v>
       </c>
       <c r="J10">
-        <v>1.66800963</v>
+        <v>0.46800963000000001</v>
       </c>
       <c r="K10">
-        <v>1.7726712911301401</v>
+        <v>2.0726712911301401</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -8331,10 +8331,10 @@
         <v>32</v>
       </c>
       <c r="J11">
-        <v>1.7759096004999999</v>
+        <v>0.5059096005</v>
       </c>
       <c r="K11">
-        <v>1.9672890382311601</v>
+        <v>2.28478903823116</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -8345,10 +8345,10 @@
         <v>32</v>
       </c>
       <c r="J12">
-        <v>1.9044734875</v>
+        <v>0.51447348749999999</v>
       </c>
       <c r="K12">
-        <v>2.1329080664811602</v>
+        <v>2.4804080664811599</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -8359,10 +8359,10 @@
         <v>32</v>
       </c>
       <c r="J13">
-        <v>2.0516265319999998</v>
+        <v>0.52162653199999998</v>
       </c>
       <c r="K13">
-        <v>2.2406992574109599</v>
+        <v>2.6231992574109602</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -8373,10 +8373,10 @@
         <v>32</v>
       </c>
       <c r="J14">
-        <v>2.1308659895000002</v>
+        <v>0.53086598949999997</v>
       </c>
       <c r="K14">
-        <v>2.3744100779674699</v>
+        <v>2.7744100779674699</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -8387,10 +8387,10 @@
         <v>32</v>
       </c>
       <c r="J15">
-        <v>2.281063692</v>
+        <v>0.54106369200000004</v>
       </c>
       <c r="K15">
-        <v>2.4948275016575301</v>
+        <v>2.9298275016575301</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -8401,10 +8401,10 @@
         <v>32</v>
       </c>
       <c r="J16">
-        <v>2.4293103380000001</v>
+        <v>0.56931033799999997</v>
       </c>
       <c r="K16">
-        <v>2.7651507716643802</v>
+        <v>3.23015077166438</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -8417,7 +8417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C9EE32-4A9D-4F05-9FF4-3CEFD3F15FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDDD3A0-9C0D-4A6B-8CC6-A68DBA1AD374}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8443,10 +8443,10 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>0.79666229799999999</v>
+        <v>0.54666229799999999</v>
       </c>
       <c r="K2">
-        <v>3.6015064802945198</v>
+        <v>3.6640064802945198</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -8457,10 +8457,10 @@
         <v>6</v>
       </c>
       <c r="J3">
-        <v>0.92922956800000001</v>
+        <v>0.67922956800000001</v>
       </c>
       <c r="K3">
-        <v>4.4899679504657497</v>
+        <v>4.5524679504657497</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -8471,10 +8471,10 @@
         <v>6</v>
       </c>
       <c r="J4">
-        <v>0.9287244885</v>
+        <v>0.89872448849999997</v>
       </c>
       <c r="K4">
-        <v>6.6765723025325299</v>
+        <v>6.6840723025325302</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -8485,10 +8485,10 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>1.0105032759999999</v>
+        <v>0.76050327600000001</v>
       </c>
       <c r="K5">
-        <v>5.2143399344246602</v>
+        <v>5.2768399344246602</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -8499,10 +8499,10 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>0.99207475000000001</v>
+        <v>0.87207475000000001</v>
       </c>
       <c r="K6">
-        <v>6.89136898373288</v>
+        <v>6.9213689837328802</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -8513,10 +8513,10 @@
         <v>6</v>
       </c>
       <c r="J7">
-        <v>1.1234525040000001</v>
+        <v>0.90345250399999999</v>
       </c>
       <c r="K7">
-        <v>7.8634629013972601</v>
+        <v>7.9184629013972598</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -8527,10 +8527,10 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>1.083355472</v>
+        <v>0.97335547200000005</v>
       </c>
       <c r="K8">
-        <v>9.3751227758356208</v>
+        <v>9.4026227758356207</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -8541,10 +8541,10 @@
         <v>6</v>
       </c>
       <c r="J9">
-        <v>1.1940752045</v>
+        <v>0.93407520450000003</v>
       </c>
       <c r="K9">
-        <v>9.8263990070941798</v>
+        <v>9.8913990070941793</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -8555,10 +8555,10 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>1.3224659995000001</v>
+        <v>1.0724659995000001</v>
       </c>
       <c r="K10">
-        <v>10.6076547330017</v>
+        <v>10.6701547330017</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -8569,10 +8569,10 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>1.3060772599999999</v>
+        <v>1.40607726</v>
       </c>
       <c r="K11">
-        <v>12.626231369931499</v>
+        <v>12.601231369931501</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -8583,10 +8583,10 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>1.452934626</v>
+        <v>1.422934626</v>
       </c>
       <c r="K12">
-        <v>12.1596745626781</v>
+        <v>12.167174562678101</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -8597,10 +8597,10 @@
         <v>6</v>
       </c>
       <c r="J13">
-        <v>1.5821780935</v>
+        <v>1.4821780935</v>
       </c>
       <c r="K13">
-        <v>12.6486609560771</v>
+        <v>12.6736609560771</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -8611,10 +8611,10 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>1.640086725</v>
+        <v>1.5200867250000001</v>
       </c>
       <c r="K14">
-        <v>12.967796126969199</v>
+        <v>12.997796126969201</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -8625,10 +8625,10 @@
         <v>6</v>
       </c>
       <c r="J15">
-        <v>1.7213500530000001</v>
+        <v>1.661350053</v>
       </c>
       <c r="K15">
-        <v>14.1907172812705</v>
+        <v>14.2057172812705</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -8639,10 +8639,10 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <v>1.8887362315</v>
+        <v>1.6387362315</v>
       </c>
       <c r="K16">
-        <v>13.9499419695223</v>
+        <v>14.0124419695223</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -8655,7 +8655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBFCA05-6227-4FA4-A21B-F715426F22BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053852C3-75AE-46F5-BB74-AB390FF60204}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8681,10 +8681,10 @@
         <v>33</v>
       </c>
       <c r="J2">
-        <v>0.80123406399999997</v>
+        <v>0.61123406400000002</v>
       </c>
       <c r="K2">
-        <v>10.142002442904101</v>
+        <v>10.1895024429041</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -8695,10 +8695,10 @@
         <v>33</v>
       </c>
       <c r="J3">
-        <v>1.005028152</v>
+        <v>0.555028152</v>
       </c>
       <c r="K3">
-        <v>9.1401073455616402</v>
+        <v>9.2526073455616409</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -8709,10 +8709,10 @@
         <v>33</v>
       </c>
       <c r="J4">
-        <v>1.137884712</v>
+        <v>0.49788471200000001</v>
       </c>
       <c r="K4">
-        <v>8.1401945754246601</v>
+        <v>8.3001945754246602</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -8723,10 +8723,10 @@
         <v>33</v>
       </c>
       <c r="J5">
-        <v>1.1294760580000001</v>
+        <v>0.53947605799999998</v>
       </c>
       <c r="K5">
-        <v>8.8457761909794499</v>
+        <v>8.9932761909794507</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -8737,10 +8737,10 @@
         <v>33</v>
       </c>
       <c r="J6">
-        <v>1.1752354270000001</v>
+        <v>0.51523542700000002</v>
       </c>
       <c r="K6">
-        <v>8.4242692254417797</v>
+        <v>8.5892692254417806</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -8751,10 +8751,10 @@
         <v>33</v>
       </c>
       <c r="J7">
-        <v>1.3337027145</v>
+        <v>0.51370271450000005</v>
       </c>
       <c r="K7">
-        <v>8.3589880200051407</v>
+        <v>8.5639880200051408</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -8765,10 +8765,10 @@
         <v>33</v>
       </c>
       <c r="J8">
-        <v>1.1638472849999999</v>
+        <v>0.91384728500000001</v>
       </c>
       <c r="K8">
-        <v>7.2701354390239699</v>
+        <v>7.3326354390239699</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -8779,10 +8779,10 @@
         <v>33</v>
       </c>
       <c r="J9">
-        <v>1.2495177074999999</v>
+        <v>0.94951770749999997</v>
       </c>
       <c r="K9">
-        <v>7.5438931758647296</v>
+        <v>7.61889317586472</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -8793,10 +8793,10 @@
         <v>33</v>
       </c>
       <c r="J10">
-        <v>1.3896131635</v>
+        <v>1.0996131634999999</v>
       </c>
       <c r="K10">
-        <v>8.59350492830308</v>
+        <v>8.6660049283030798</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -8807,10 +8807,10 @@
         <v>33</v>
       </c>
       <c r="J11">
-        <v>1.4888991125</v>
+        <v>1.2388991125</v>
       </c>
       <c r="K11">
-        <v>9.2983245369434897</v>
+        <v>9.3608245369434897</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -8821,10 +8821,10 @@
         <v>33</v>
       </c>
       <c r="J12">
-        <v>1.5833977724999999</v>
+        <v>1.3133977724999999</v>
       </c>
       <c r="K12">
-        <v>9.7710149404366398</v>
+        <v>9.8385149404366405</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -8835,10 +8835,10 @@
         <v>33</v>
       </c>
       <c r="J13">
-        <v>1.6825706924999999</v>
+        <v>1.3625706925000001</v>
       </c>
       <c r="K13">
-        <v>10.4385148611216</v>
+        <v>10.5185148611216</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -8849,10 +8849,10 @@
         <v>33</v>
       </c>
       <c r="J14">
-        <v>1.7024337974999999</v>
+        <v>1.4024337975000001</v>
       </c>
       <c r="K14">
-        <v>11.087294290351</v>
+        <v>11.162294290350999</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -8863,10 +8863,10 @@
         <v>33</v>
       </c>
       <c r="J15">
-        <v>1.791375766</v>
+        <v>1.451375766</v>
       </c>
       <c r="K15">
-        <v>11.8320190721986</v>
+        <v>11.917019072198601</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -8877,10 +8877,10 @@
         <v>33</v>
       </c>
       <c r="J16">
-        <v>1.83387832</v>
+        <v>1.5538783199999999</v>
       </c>
       <c r="K16">
-        <v>13.552931789863001</v>
+        <v>13.622931789862999</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -8893,7 +8893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B1D9F2-9FBC-465D-8331-8F08DD21AB85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B72594A-CC69-45BA-A541-1A3D7393B3D1}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8919,10 +8919,10 @@
         <v>34</v>
       </c>
       <c r="J2">
-        <v>0.74714571249999995</v>
+        <v>0.86714571250000005</v>
       </c>
       <c r="K2">
-        <v>2.7224422020119898</v>
+        <v>2.69244220201199</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -8933,10 +8933,10 @@
         <v>34</v>
       </c>
       <c r="J3">
-        <v>1.0003342399999999</v>
+        <v>0.64033424000000005</v>
       </c>
       <c r="K3">
-        <v>1.89820945369863</v>
+        <v>1.9882094536986299</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -8947,10 +8947,10 @@
         <v>34</v>
       </c>
       <c r="J4">
-        <v>1.1058695970000001</v>
+        <v>0.65586959700000003</v>
       </c>
       <c r="K4">
-        <v>1.92394177883219</v>
+        <v>2.0364417788321898</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -8961,10 +8961,10 @@
         <v>34</v>
       </c>
       <c r="J5">
-        <v>1.1136769115</v>
+        <v>0.67367691149999998</v>
       </c>
       <c r="K5">
-        <v>1.9817828269195199</v>
+        <v>2.0917828269195202</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -8975,10 +8975,10 @@
         <v>34</v>
       </c>
       <c r="J6">
-        <v>1.1834262419999999</v>
+        <v>0.55342624200000001</v>
       </c>
       <c r="K6">
-        <v>1.61822439840411</v>
+        <v>1.77572439840411</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -8989,10 +8989,10 @@
         <v>34</v>
       </c>
       <c r="J7">
-        <v>1.3746726629999999</v>
+        <v>0.414672663</v>
       </c>
       <c r="K7">
-        <v>1.4233273137020499</v>
+        <v>1.6633273137020499</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -9003,10 +9003,10 @@
         <v>34</v>
       </c>
       <c r="J8">
-        <v>1.378222614</v>
+        <v>0.44822261400000002</v>
       </c>
       <c r="K8">
-        <v>1.5991488670479499</v>
+        <v>1.83164886704795</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -9017,10 +9017,10 @@
         <v>34</v>
       </c>
       <c r="J9">
-        <v>1.47170435</v>
+        <v>0.47170434999999999</v>
       </c>
       <c r="K9">
-        <v>1.6799491179794499</v>
+        <v>1.9299491179794499</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -9031,10 +9031,10 @@
         <v>34</v>
       </c>
       <c r="J10">
-        <v>1.6864082060000001</v>
+        <v>0.50640820600000003</v>
       </c>
       <c r="K10">
-        <v>1.74999274302055</v>
+        <v>2.0449927430205501</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -9045,10 +9045,10 @@
         <v>34</v>
       </c>
       <c r="J11">
-        <v>1.7912588615</v>
+        <v>0.76125886149999999</v>
       </c>
       <c r="K11">
-        <v>2.02774583257021</v>
+        <v>2.2852458325702099</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -9059,10 +9059,10 @@
         <v>34</v>
       </c>
       <c r="J12">
-        <v>1.8722457754999999</v>
+        <v>0.92224577549999998</v>
       </c>
       <c r="K12">
-        <v>2.3437218437962302</v>
+        <v>2.58122184379623</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -9073,10 +9073,10 @@
         <v>34</v>
       </c>
       <c r="J13">
-        <v>2.038155615</v>
+        <v>1.048155615</v>
       </c>
       <c r="K13">
-        <v>2.4280384935102699</v>
+        <v>2.67553849351027</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -9087,10 +9087,10 @@
         <v>34</v>
       </c>
       <c r="J14">
-        <v>2.0888178169999998</v>
+        <v>1.058817817</v>
       </c>
       <c r="K14">
-        <v>2.5917515731472598</v>
+        <v>2.8492515731472601</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -9101,10 +9101,10 @@
         <v>34</v>
       </c>
       <c r="J15">
-        <v>2.2422537</v>
+        <v>1.0222537</v>
       </c>
       <c r="K15">
-        <v>2.5858098626712298</v>
+        <v>2.89080986267123</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -9115,10 +9115,10 @@
         <v>34</v>
       </c>
       <c r="J16">
-        <v>2.3880548400000001</v>
+        <v>1.00805484</v>
       </c>
       <c r="K16">
-        <v>2.6386790297260299</v>
+        <v>2.9836790297260301</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -9131,7 +9131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64991A6E-D915-4342-81AB-4DCD9143BAB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450C16EB-ECDB-40F7-8AEC-5E83865B4948}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9157,10 +9157,10 @@
         <v>35</v>
       </c>
       <c r="J2">
-        <v>0.745507264</v>
+        <v>0.79550726400000005</v>
       </c>
       <c r="K2">
-        <v>3.1182703072876699</v>
+        <v>3.1057703072876701</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -9171,10 +9171,10 @@
         <v>35</v>
       </c>
       <c r="J3">
-        <v>0.96821990599999996</v>
+        <v>0.67821990600000004</v>
       </c>
       <c r="K3">
-        <v>2.57536420158219</v>
+        <v>2.6478642015821898</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -9185,10 +9185,10 @@
         <v>35</v>
       </c>
       <c r="J4">
-        <v>1.0386397599999999</v>
+        <v>0.51863976000000001</v>
       </c>
       <c r="K4">
-        <v>2.6117945805479499</v>
+        <v>2.74179458054794</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -9199,10 +9199,10 @@
         <v>35</v>
       </c>
       <c r="J5">
-        <v>1.1117357670000001</v>
+        <v>0.51173576700000001</v>
       </c>
       <c r="K5">
-        <v>2.07766318153767</v>
+        <v>2.22766318153767</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -9213,10 +9213,10 @@
         <v>35</v>
       </c>
       <c r="J6">
-        <v>1.0970998759999999</v>
+        <v>0.44709987600000001</v>
       </c>
       <c r="K6">
-        <v>2.5977606474383599</v>
+        <v>2.76026064743836</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -9227,10 +9227,10 @@
         <v>35</v>
       </c>
       <c r="J7">
-        <v>1.296788901</v>
+        <v>0.426788901</v>
       </c>
       <c r="K7">
-        <v>2.5871227747500001</v>
+        <v>2.8046227747499999</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -9241,10 +9241,10 @@
         <v>35</v>
       </c>
       <c r="J8">
-        <v>1.3233279449999999</v>
+        <v>0.443327945</v>
       </c>
       <c r="K8">
-        <v>2.24432239731164</v>
+        <v>2.4643223973116402</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -9255,10 +9255,10 @@
         <v>35</v>
       </c>
       <c r="J9">
-        <v>1.4148756140000001</v>
+        <v>0.49487561400000002</v>
       </c>
       <c r="K9">
-        <v>2.0637073978698601</v>
+        <v>2.2937073978698601</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -9269,10 +9269,10 @@
         <v>35</v>
       </c>
       <c r="J10">
-        <v>1.5638194560000001</v>
+        <v>0.66381945600000003</v>
       </c>
       <c r="K10">
-        <v>2.5728495195616401</v>
+        <v>2.7978495195616402</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -9283,10 +9283,10 @@
         <v>35</v>
       </c>
       <c r="J11">
-        <v>1.7159806849999999</v>
+        <v>0.66598068499999996</v>
       </c>
       <c r="K11">
-        <v>2.6247607191609599</v>
+        <v>2.8872607191609601</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -9297,10 +9297,10 @@
         <v>35</v>
       </c>
       <c r="J12">
-        <v>1.8554258560000001</v>
+        <v>0.67542585600000005</v>
       </c>
       <c r="K12">
-        <v>2.67911244010959</v>
+        <v>2.97411244010959</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -9311,10 +9311,10 @@
         <v>35</v>
       </c>
       <c r="J13">
-        <v>1.9997391900000001</v>
+        <v>0.68973918999999995</v>
       </c>
       <c r="K13">
-        <v>2.70963657236301</v>
+        <v>3.0371365723630102</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -9325,10 +9325,10 @@
         <v>35</v>
       </c>
       <c r="J14">
-        <v>2.0802332369999998</v>
+        <v>0.70023323699999995</v>
       </c>
       <c r="K14">
-        <v>2.73842990992808</v>
+        <v>3.0834299099280802</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -9339,10 +9339,10 @@
         <v>35</v>
       </c>
       <c r="J15">
-        <v>2.2185606240000002</v>
+        <v>0.71856062399999998</v>
       </c>
       <c r="K15">
-        <v>2.7890451864657502</v>
+        <v>3.1640451864657502</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -9353,10 +9353,10 @@
         <v>35</v>
       </c>
       <c r="J16">
-        <v>2.363671885</v>
+        <v>0.74367188500000003</v>
       </c>
       <c r="K16">
-        <v>2.8696831246404102</v>
+        <v>3.27468312464041</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -9369,7 +9369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4BFE12-E489-4880-A399-197127034BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A90FB9-CF3A-496B-A0DD-E03BA9DAEA8C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9395,10 +9395,10 @@
         <v>36</v>
       </c>
       <c r="J2">
-        <v>0.82974720550000003</v>
+        <v>1.0297472055000001</v>
       </c>
       <c r="K2">
-        <v>2.4767170342414402</v>
+        <v>2.4267170342414399</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -9409,10 +9409,10 @@
         <v>36</v>
       </c>
       <c r="J3">
-        <v>1.021442435</v>
+        <v>0.96144243500000004</v>
       </c>
       <c r="K3">
-        <v>2.25072144604452</v>
+        <v>2.2657214460445201</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -9423,10 +9423,10 @@
         <v>36</v>
       </c>
       <c r="J4">
-        <v>1.0772255525000001</v>
+        <v>0.70722555249999997</v>
       </c>
       <c r="K4">
-        <v>2.1058556666695201</v>
+        <v>2.1983556666695199</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -9437,10 +9437,10 @@
         <v>36</v>
       </c>
       <c r="J5">
-        <v>1.106186353</v>
+        <v>0.83618635299999999</v>
       </c>
       <c r="K5">
-        <v>2.1734851925719201</v>
+        <v>2.24098519257192</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -9451,10 +9451,10 @@
         <v>36</v>
       </c>
       <c r="J6">
-        <v>1.1156189185000001</v>
+        <v>0.65561891849999998</v>
       </c>
       <c r="K6">
-        <v>2.2195967772243099</v>
+        <v>2.3345967772243199</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -9465,10 +9465,10 @@
         <v>36</v>
       </c>
       <c r="J7">
-        <v>1.339528498</v>
+        <v>0.48952849799999998</v>
       </c>
       <c r="K7">
-        <v>1.7165585604315099</v>
+        <v>1.92905856043151</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -9479,10 +9479,10 @@
         <v>36</v>
       </c>
       <c r="J8">
-        <v>1.3578575989999999</v>
+        <v>0.46785759900000001</v>
       </c>
       <c r="K8">
-        <v>1.8240571070993199</v>
+        <v>2.0465571070993098</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -9493,10 +9493,10 @@
         <v>36</v>
       </c>
       <c r="J9">
-        <v>1.4421377375</v>
+        <v>0.50213773750000001</v>
       </c>
       <c r="K9">
-        <v>2.1622115930222598</v>
+        <v>2.3972115930222602</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -9507,10 +9507,10 @@
         <v>36</v>
       </c>
       <c r="J10">
-        <v>1.6311136125000001</v>
+        <v>0.52111361249999999</v>
       </c>
       <c r="K10">
-        <v>2.4124094050941798</v>
+        <v>2.6899094050941801</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -9521,10 +9521,10 @@
         <v>36</v>
       </c>
       <c r="J11">
-        <v>1.7672077420000001</v>
+        <v>0.59720774200000004</v>
       </c>
       <c r="K11">
-        <v>2.5498613521712299</v>
+        <v>2.8423613521712299</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -9535,10 +9535,10 @@
         <v>36</v>
       </c>
       <c r="J12">
-        <v>1.9074731709999999</v>
+        <v>0.65747317100000002</v>
       </c>
       <c r="K12">
-        <v>2.5451463647842498</v>
+        <v>2.8576463647842498</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -9549,10 +9549,10 @@
         <v>36</v>
       </c>
       <c r="J13">
-        <v>2.0610277780000001</v>
+        <v>0.69102777800000004</v>
       </c>
       <c r="K13">
-        <v>2.5394634664589</v>
+        <v>2.8819634664588998</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -9563,10 +9563,10 @@
         <v>36</v>
       </c>
       <c r="J14">
-        <v>2.1308808379999999</v>
+        <v>0.73088083800000003</v>
       </c>
       <c r="K14">
-        <v>2.6393889685821899</v>
+        <v>2.9893889685821899</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -9577,10 +9577,10 @@
         <v>36</v>
       </c>
       <c r="J15">
-        <v>2.2652486595000001</v>
+        <v>0.75524865949999997</v>
       </c>
       <c r="K15">
-        <v>2.64846071183733</v>
+        <v>3.02596071183733</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -9591,10 +9591,10 @@
         <v>36</v>
       </c>
       <c r="J16">
-        <v>2.4040313279999999</v>
+        <v>0.84403132800000003</v>
       </c>
       <c r="K16">
-        <v>2.9378369625205498</v>
+        <v>3.3278369625205499</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -9607,7 +9607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FEFDCB-19BA-495A-904C-E505FAC2DD82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0472B1-FD32-4D34-A82B-569D4023B9C2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9633,10 +9633,10 @@
         <v>37</v>
       </c>
       <c r="J2">
-        <v>0.84661481699999996</v>
+        <v>0.39661481700000001</v>
       </c>
       <c r="K2">
-        <v>2.6186868436952002</v>
+        <v>2.7311868436952</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -9647,10 +9647,10 @@
         <v>37</v>
       </c>
       <c r="J3">
-        <v>1.0341052319999999</v>
+        <v>0.38410523200000002</v>
       </c>
       <c r="K3">
-        <v>2.4825387604931501</v>
+        <v>2.6450387604931498</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -9661,10 +9661,10 @@
         <v>37</v>
       </c>
       <c r="J4">
-        <v>1.1508822869999999</v>
+        <v>0.37088228699999998</v>
       </c>
       <c r="K4">
-        <v>2.3589981953732901</v>
+        <v>2.55399819537329</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -9675,10 +9675,10 @@
         <v>37</v>
       </c>
       <c r="J5">
-        <v>1.145934129</v>
+        <v>0.39593412900000002</v>
       </c>
       <c r="K5">
-        <v>2.5390266047362999</v>
+        <v>2.7265266047362999</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -9689,10 +9689,10 @@
         <v>37</v>
       </c>
       <c r="J6">
-        <v>1.0943932924999999</v>
+        <v>0.51439329249999999</v>
       </c>
       <c r="K6">
-        <v>2.52876907413527</v>
+        <v>2.67376907413527</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -9703,10 +9703,10 @@
         <v>37</v>
       </c>
       <c r="J7">
-        <v>1.2833615009999999</v>
+        <v>0.77336150100000001</v>
       </c>
       <c r="K7">
-        <v>2.6608711315993201</v>
+        <v>2.7883711315993098</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -9717,10 +9717,10 @@
         <v>37</v>
       </c>
       <c r="J8">
-        <v>1.2806941060000001</v>
+        <v>0.86069410599999996</v>
       </c>
       <c r="K8">
-        <v>2.9760020899383601</v>
+        <v>3.0810020899383601</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -9731,10 +9731,10 @@
         <v>37</v>
       </c>
       <c r="J9">
-        <v>1.3651465140000001</v>
+        <v>0.87514651399999999</v>
       </c>
       <c r="K9">
-        <v>3.0335991249246601</v>
+        <v>3.1560991249246602</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -9745,10 +9745,10 @@
         <v>37</v>
       </c>
       <c r="J10">
-        <v>1.50786938</v>
+        <v>0.95786937999999999</v>
       </c>
       <c r="K10">
-        <v>3.43615018924657</v>
+        <v>3.5736501892465702</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -9759,10 +9759,10 @@
         <v>37</v>
       </c>
       <c r="J11">
-        <v>1.6120867240000001</v>
+        <v>0.97208672399999996</v>
       </c>
       <c r="K11">
-        <v>3.5405954422876702</v>
+        <v>3.7005954422876699</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -9773,10 +9773,10 @@
         <v>37</v>
       </c>
       <c r="J12">
-        <v>1.750262352</v>
+        <v>0.97026235199999999</v>
       </c>
       <c r="K12">
-        <v>3.5385731791232899</v>
+        <v>3.7335731791232898</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -9787,10 +9787,10 @@
         <v>37</v>
       </c>
       <c r="J13">
-        <v>1.8939147924999999</v>
+        <v>0.9539147925</v>
       </c>
       <c r="K13">
-        <v>3.4555732196832198</v>
+        <v>3.6905732196832202</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -9801,10 +9801,10 @@
         <v>37</v>
       </c>
       <c r="J14">
-        <v>1.9752839360000001</v>
+        <v>0.96528393599999995</v>
       </c>
       <c r="K14">
-        <v>3.4879088790137001</v>
+        <v>3.7404088790137</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -9815,10 +9815,10 @@
         <v>37</v>
       </c>
       <c r="J15">
-        <v>2.1191730720000002</v>
+        <v>0.96917307200000002</v>
       </c>
       <c r="K15">
-        <v>3.4679294717260301</v>
+        <v>3.7554294717260301</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -9829,10 +9829,10 @@
         <v>37</v>
       </c>
       <c r="J16">
-        <v>2.2623745775000002</v>
+        <v>1.0123745774999999</v>
       </c>
       <c r="K16">
-        <v>3.6103364926113</v>
+        <v>3.9228364926113</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -9845,7 +9845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE575242-B3E0-4DF3-844C-87C9880E9254}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1911F7A-76DA-438E-B4A0-208E0F1D58BF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9871,10 +9871,10 @@
         <v>38</v>
       </c>
       <c r="J2">
-        <v>-0.28142681800000002</v>
+        <v>3.1085731820000002</v>
       </c>
       <c r="K2">
-        <v>13.711710129157501</v>
+        <v>12.864210129157501</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -9885,10 +9885,10 @@
         <v>38</v>
       </c>
       <c r="J3">
-        <v>-0.10570653200000001</v>
+        <v>3.1242934679999999</v>
       </c>
       <c r="K3">
-        <v>13.7368375919041</v>
+        <v>12.929337591904099</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -9899,10 +9899,10 @@
         <v>38</v>
       </c>
       <c r="J4">
-        <v>-0.53478608000000005</v>
+        <v>4.2252139199999998</v>
       </c>
       <c r="K4">
-        <v>18.673158163835598</v>
+        <v>17.483158163835601</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -9913,10 +9913,10 @@
         <v>38</v>
       </c>
       <c r="J5">
-        <v>-0.170994338</v>
+        <v>3.419005662</v>
       </c>
       <c r="K5">
-        <v>15.0447170776507</v>
+        <v>14.1472170776507</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -9927,10 +9927,10 @@
         <v>38</v>
       </c>
       <c r="J6">
-        <v>-0.71668427199999996</v>
+        <v>4.7533157279999996</v>
       </c>
       <c r="K6">
-        <v>21.035845040602702</v>
+        <v>19.668345040602699</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -9941,10 +9941,10 @@
         <v>38</v>
       </c>
       <c r="J7">
-        <v>-0.42151614050000002</v>
+        <v>4.6384838595</v>
       </c>
       <c r="K7">
-        <v>20.460600952933198</v>
+        <v>19.195600952933201</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -9955,10 +9955,10 @@
         <v>38</v>
       </c>
       <c r="J8">
-        <v>-0.74962766250000001</v>
+        <v>5.4503723375000002</v>
       </c>
       <c r="K8">
-        <v>24.1052726690497</v>
+        <v>22.5552726690497</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -9969,10 +9969,10 @@
         <v>38</v>
       </c>
       <c r="J9">
-        <v>-0.35944566900000002</v>
+        <v>4.9205543309999999</v>
       </c>
       <c r="K9">
-        <v>21.871139499441799</v>
+        <v>20.551139499441799</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -9983,10 +9983,10 @@
         <v>38</v>
       </c>
       <c r="J10">
-        <v>0.110780952</v>
+        <v>4.6407809520000001</v>
       </c>
       <c r="K10">
-        <v>20.276185583917801</v>
+        <v>19.143685583917801</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -9997,10 +9997,10 @@
         <v>38</v>
       </c>
       <c r="J11">
-        <v>0.123025301</v>
+        <v>5.1030253009999997</v>
       </c>
       <c r="K11">
-        <v>21.964458743243199</v>
+        <v>20.719458743243202</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -10011,10 +10011,10 @@
         <v>38</v>
       </c>
       <c r="J12">
-        <v>-0.37880600599999997</v>
+        <v>5.1211939940000004</v>
       </c>
       <c r="K12">
-        <v>23.6935521864315</v>
+        <v>22.3185521864315</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -10025,10 +10025,10 @@
         <v>38</v>
       </c>
       <c r="J13">
-        <v>-0.49772354900000099</v>
+        <v>5.6722764510000001</v>
       </c>
       <c r="K13">
-        <v>26.262719928345899</v>
+        <v>24.720219928345902</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -10039,10 +10039,10 @@
         <v>38</v>
       </c>
       <c r="J14">
-        <v>-0.58180025999999896</v>
+        <v>5.9881997399999998</v>
       </c>
       <c r="K14">
-        <v>27.739519928013699</v>
+        <v>26.097019928013701</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -10053,10 +10053,10 @@
         <v>38</v>
       </c>
       <c r="J15">
-        <v>-0.54573570000000005</v>
+        <v>6.2342643000000004</v>
       </c>
       <c r="K15">
-        <v>28.864396938698601</v>
+        <v>27.169396938698601</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -10067,10 +10067,10 @@
         <v>38</v>
       </c>
       <c r="J16">
-        <v>-0.48126540099999898</v>
+        <v>6.4187345990000004</v>
       </c>
       <c r="K16">
-        <v>29.698319089976</v>
+        <v>27.973319089975998</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -10083,7 +10083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FCE12-5252-467A-B89F-A164AC01852D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD77CE7-3DC0-46D1-8DCF-66381A7C766F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10109,10 +10109,10 @@
         <v>39</v>
       </c>
       <c r="J2">
-        <v>1.03</v>
+        <v>0.01</v>
       </c>
       <c r="K2">
-        <v>2.5190308219178101</v>
+        <v>2.77403082191781</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -10123,10 +10123,10 @@
         <v>39</v>
       </c>
       <c r="J3">
-        <v>1.21</v>
+        <v>0.01</v>
       </c>
       <c r="K3">
-        <v>2.4584916438356199</v>
+        <v>2.7584916438356202</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -10137,10 +10137,10 @@
         <v>39</v>
       </c>
       <c r="J4">
-        <v>1.32</v>
+        <v>0.01</v>
       </c>
       <c r="K4">
-        <v>2.04281917808219</v>
+        <v>2.3703191780821902</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -10151,10 +10151,10 @@
         <v>39</v>
       </c>
       <c r="J5">
-        <v>1.33</v>
+        <v>0.01</v>
       </c>
       <c r="K5">
-        <v>2.2697620547945201</v>
+        <v>2.5997620547945202</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -10165,10 +10165,10 @@
         <v>39</v>
       </c>
       <c r="J6">
-        <v>1.357396544</v>
+        <v>7.7396543999999998E-2</v>
       </c>
       <c r="K6">
-        <v>1.834390864</v>
+        <v>2.1543908639999998</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -10179,10 +10179,10 @@
         <v>39</v>
       </c>
       <c r="J7">
-        <v>1.33464165</v>
+        <v>0.10464165</v>
       </c>
       <c r="K7">
-        <v>1.8371712313356201</v>
+        <v>2.1446712313356202</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -10193,10 +10193,10 @@
         <v>39</v>
       </c>
       <c r="J8">
-        <v>1.2171821300000001</v>
+        <v>0.23718212999999999</v>
       </c>
       <c r="K8">
-        <v>1.81138953599315</v>
+        <v>2.0563895359931501</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -10207,10 +10207,10 @@
         <v>39</v>
       </c>
       <c r="J9">
-        <v>1.3562540999999999</v>
+        <v>0.54625409999999996</v>
       </c>
       <c r="K9">
-        <v>2.19573428321918</v>
+        <v>2.3982342832191801</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -10221,10 +10221,10 @@
         <v>39</v>
       </c>
       <c r="J10">
-        <v>1.6102914500000001</v>
+        <v>0.75029144999999997</v>
       </c>
       <c r="K10">
-        <v>2.3392545347602698</v>
+        <v>2.5542545347602701</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -10235,10 +10235,10 @@
         <v>39</v>
       </c>
       <c r="J11">
-        <v>1.7414883514999999</v>
+        <v>0.8314883515</v>
       </c>
       <c r="K11">
-        <v>2.4020122956866401</v>
+        <v>2.6295122956866401</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -10249,10 +10249,10 @@
         <v>39</v>
       </c>
       <c r="J12">
-        <v>1.8704164640000001</v>
+        <v>0.89041646399999996</v>
       </c>
       <c r="K12">
-        <v>2.4235484867397301</v>
+        <v>2.6685484867397302</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -10263,10 +10263,10 @@
         <v>39</v>
       </c>
       <c r="J13">
-        <v>2.0220524004999998</v>
+        <v>0.92205240050000004</v>
       </c>
       <c r="K13">
-        <v>2.41132279028596</v>
+        <v>2.6863227902859599</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -10277,10 +10277,10 @@
         <v>39</v>
       </c>
       <c r="J14">
-        <v>2.0677968350000002</v>
+        <v>1.037796835</v>
       </c>
       <c r="K14">
-        <v>2.7660420241267101</v>
+        <v>3.0235420241267099</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -10291,10 +10291,10 @@
         <v>39</v>
       </c>
       <c r="J15">
-        <v>2.1645588550000001</v>
+        <v>1.2245588549999999</v>
       </c>
       <c r="K15">
-        <v>3.3326476835102699</v>
+        <v>3.5676476835102702</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -10305,10 +10305,10 @@
         <v>39</v>
       </c>
       <c r="J16">
-        <v>2.393607292</v>
+        <v>0.97360729199999996</v>
       </c>
       <c r="K16">
-        <v>2.4816139304246598</v>
+        <v>2.8366139304246598</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -10321,7 +10321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C9B34-5889-447C-A055-7036BF06A19F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20232C8-A036-42AC-9C5F-BA52FCFA9A67}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10347,10 +10347,10 @@
         <v>40</v>
       </c>
       <c r="J2">
-        <v>0.58309429000000002</v>
+        <v>1.35309429</v>
       </c>
       <c r="K2">
-        <v>11.332929167226</v>
+        <v>11.140429167225999</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -10361,10 +10361,10 @@
         <v>40</v>
       </c>
       <c r="J3">
-        <v>0.787896076</v>
+        <v>1.287896076</v>
       </c>
       <c r="K3">
-        <v>10.7285780357945</v>
+        <v>10.6035780357945</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -10375,10 +10375,10 @@
         <v>40</v>
       </c>
       <c r="J4">
-        <v>0.91949857349999997</v>
+        <v>1.2094985734999999</v>
       </c>
       <c r="K4">
-        <v>10.0306965895017</v>
+        <v>9.9581965895017106</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -10389,10 +10389,10 @@
         <v>40</v>
       </c>
       <c r="J5">
-        <v>0.93411999800000001</v>
+        <v>1.2141199979999999</v>
       </c>
       <c r="K5">
-        <v>10.066172740226</v>
+        <v>9.9961727402260205</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -10403,10 +10403,10 @@
         <v>40</v>
       </c>
       <c r="J6">
-        <v>1.0114565579999999</v>
+        <v>1.101456558</v>
       </c>
       <c r="K6">
-        <v>9.0910961344726005</v>
+        <v>9.0685961344725996</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -10417,10 +10417,10 @@
         <v>40</v>
       </c>
       <c r="J7">
-        <v>1.12292788</v>
+        <v>0.89292788000000001</v>
       </c>
       <c r="K7">
-        <v>8.0981858382191803</v>
+        <v>8.1556858382191795</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -10431,10 +10431,10 @@
         <v>40</v>
       </c>
       <c r="J8">
-        <v>1.1955715200000001</v>
+        <v>0.92557151999999998</v>
       </c>
       <c r="K8">
-        <v>7.6596057501369899</v>
+        <v>7.7271057501369897</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -10445,10 +10445,10 @@
         <v>40</v>
       </c>
       <c r="J9">
-        <v>1.27162256</v>
+        <v>1.02162256</v>
       </c>
       <c r="K9">
-        <v>8.44970531890411</v>
+        <v>8.51220531890411</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -10459,10 +10459,10 @@
         <v>40</v>
       </c>
       <c r="J10">
-        <v>1.360905136</v>
+        <v>1.170905136</v>
       </c>
       <c r="K10">
-        <v>10.983618921479399</v>
+        <v>11.031118921479401</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -10473,10 +10473,10 @@
         <v>40</v>
       </c>
       <c r="J11">
-        <v>1.3856589720000001</v>
+        <v>1.4456589719999999</v>
       </c>
       <c r="K11">
-        <v>13.598789366588999</v>
+        <v>13.583789366589</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -10487,10 +10487,10 @@
         <v>40</v>
       </c>
       <c r="J12">
-        <v>1.4859515894999999</v>
+        <v>1.4559515894999999</v>
       </c>
       <c r="K12">
-        <v>14.377218951940099</v>
+        <v>14.3847189519401</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -10501,10 +10501,10 @@
         <v>40</v>
       </c>
       <c r="J13">
-        <v>1.61012713</v>
+        <v>1.44012713</v>
       </c>
       <c r="K13">
-        <v>14.3345942448973</v>
+        <v>14.3770942448973</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -10515,10 +10515,10 @@
         <v>40</v>
       </c>
       <c r="J14">
-        <v>1.6894081155</v>
+        <v>1.4094081155</v>
       </c>
       <c r="K14">
-        <v>14.1409301629058</v>
+        <v>14.2109301629058</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -10529,10 +10529,10 @@
         <v>40</v>
       </c>
       <c r="J15">
-        <v>1.8431731979999999</v>
+        <v>1.3831731979999999</v>
       </c>
       <c r="K15">
-        <v>13.959849166253401</v>
+        <v>14.074849166253401</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -10543,10 +10543,10 @@
         <v>40</v>
       </c>
       <c r="J16">
-        <v>2.0232424834999998</v>
+        <v>1.3132424835000001</v>
       </c>
       <c r="K16">
-        <v>13.3803838996729</v>
+        <v>13.5578838996729</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -10559,7 +10559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29324929-82C8-4795-99F8-D0F5220FC6E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B790E6-9A5F-4999-B60D-7864B1D43C3C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10585,10 +10585,10 @@
         <v>41</v>
       </c>
       <c r="J2">
-        <v>0.68130548999999996</v>
+        <v>0.89130549000000003</v>
       </c>
       <c r="K2">
-        <v>3.0960234905137001</v>
+        <v>3.0435234905136999</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -10599,10 +10599,10 @@
         <v>41</v>
       </c>
       <c r="J3">
-        <v>0.88828134749999998</v>
+        <v>0.82828134750000004</v>
       </c>
       <c r="K3">
-        <v>2.8132828138099302</v>
+        <v>2.8282828138099299</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -10613,10 +10613,10 @@
         <v>41</v>
       </c>
       <c r="J4">
-        <v>1.0034707279999999</v>
+        <v>0.81347072799999998</v>
       </c>
       <c r="K4">
-        <v>2.7302167015616399</v>
+        <v>2.7777167015616402</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -10627,10 +10627,10 @@
         <v>41</v>
       </c>
       <c r="J5">
-        <v>0.99700997550000003</v>
+        <v>0.85700997550000002</v>
       </c>
       <c r="K5">
-        <v>2.8913821636592498</v>
+        <v>2.92638216365925</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -10641,10 +10641,10 @@
         <v>41</v>
       </c>
       <c r="J6">
-        <v>1.0212824375</v>
+        <v>0.90128243750000003</v>
       </c>
       <c r="K6">
-        <v>3.0475425413099302</v>
+        <v>3.07754254130993</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -10655,10 +10655,10 @@
         <v>41</v>
       </c>
       <c r="J7">
-        <v>1.1629738285</v>
+        <v>0.9429738285</v>
       </c>
       <c r="K7">
-        <v>3.1649257209571902</v>
+        <v>3.2199257209571899</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -10669,10 +10669,10 @@
         <v>41</v>
       </c>
       <c r="J8">
-        <v>1.1517807499999999</v>
+        <v>1.03178075</v>
       </c>
       <c r="K8">
-        <v>3.49315125085616</v>
+        <v>3.5231512508561602</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -10683,10 +10683,10 @@
         <v>41</v>
       </c>
       <c r="J9">
-        <v>1.2031223115</v>
+        <v>1.1431223115</v>
       </c>
       <c r="K9">
-        <v>3.88839065500171</v>
+        <v>3.9033906550017101</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -10697,10 +10697,10 @@
         <v>41</v>
       </c>
       <c r="J10">
-        <v>1.36579552</v>
+        <v>1.26579552</v>
       </c>
       <c r="K10">
-        <v>4.2972702980821902</v>
+        <v>4.3222702980821897</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -10711,10 +10711,10 @@
         <v>41</v>
       </c>
       <c r="J11">
-        <v>1.3980728849999999</v>
+        <v>1.5480728850000001</v>
       </c>
       <c r="K11">
-        <v>5.3236173951883599</v>
+        <v>5.2861173951883602</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -10725,10 +10725,10 @@
         <v>41</v>
       </c>
       <c r="J12">
-        <v>1.530584924</v>
+        <v>1.570584924</v>
       </c>
       <c r="K12">
-        <v>5.37297705667123</v>
+        <v>5.3629770566712303</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -10739,10 +10739,10 @@
         <v>41</v>
       </c>
       <c r="J13">
-        <v>1.6345005175</v>
+        <v>1.6945005175000001</v>
       </c>
       <c r="K13">
-        <v>5.8010871993921196</v>
+        <v>5.7860871993921199</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -10753,10 +10753,10 @@
         <v>41</v>
       </c>
       <c r="J14">
-        <v>1.6316534224999999</v>
+        <v>1.9116534224999999</v>
       </c>
       <c r="K14">
-        <v>6.5975839046489702</v>
+        <v>6.5275839046489699</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -10767,10 +10767,10 @@
         <v>41</v>
       </c>
       <c r="J15">
-        <v>1.7590848450000001</v>
+        <v>1.949084845</v>
       </c>
       <c r="K15">
-        <v>6.7029739942294499</v>
+        <v>6.6554739942294496</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -10781,10 +10781,10 @@
         <v>41</v>
       </c>
       <c r="J16">
-        <v>1.9018382460000001</v>
+        <v>2.0018382460000002</v>
       </c>
       <c r="K16">
-        <v>6.8605637261712298</v>
+        <v>6.8355637261712303</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -10797,7 +10797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9C2A2A-6D62-4D45-A33D-AF93F0ED027F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD084C38-10E8-4524-801D-71D060D7AC18}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10823,10 +10823,10 @@
         <v>42</v>
       </c>
       <c r="J2">
-        <v>0.76072872999999996</v>
+        <v>0.63072872999999996</v>
       </c>
       <c r="K2">
-        <v>2.0556539818835602</v>
+        <v>2.0881539818835599</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -10837,10 +10837,10 @@
         <v>42</v>
       </c>
       <c r="J3">
-        <v>0.93386020599999997</v>
+        <v>0.64386020600000005</v>
       </c>
       <c r="K3">
-        <v>2.0592068663082199</v>
+        <v>2.1317068663082201</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -10851,10 +10851,10 @@
         <v>42</v>
       </c>
       <c r="J4">
-        <v>1.0596451485</v>
+        <v>0.60964514849999996</v>
       </c>
       <c r="K4">
-        <v>1.9058570690393799</v>
+        <v>2.0183570690393799</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -10865,10 +10865,10 @@
         <v>42</v>
       </c>
       <c r="J5">
-        <v>1.0392617545</v>
+        <v>0.67926175450000004</v>
       </c>
       <c r="K5">
-        <v>2.1588745613749998</v>
+        <v>2.2488745613750001</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -10879,10 +10879,10 @@
         <v>42</v>
       </c>
       <c r="J6">
-        <v>1.1557549410000001</v>
+        <v>0.52575494099999998</v>
       </c>
       <c r="K6">
-        <v>1.6647935935171201</v>
+        <v>1.8222935935171201</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -10893,10 +10893,10 @@
         <v>42</v>
       </c>
       <c r="J7">
-        <v>1.3607754164999999</v>
+        <v>0.44077541650000002</v>
       </c>
       <c r="K7">
-        <v>1.38106354313527</v>
+        <v>1.61106354313527</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -10907,10 +10907,10 @@
         <v>42</v>
       </c>
       <c r="J8">
-        <v>1.395348748</v>
+        <v>0.40534874799999998</v>
       </c>
       <c r="K8">
-        <v>1.1924559636849299</v>
+        <v>1.43995596368493</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -10921,10 +10921,10 @@
         <v>42</v>
       </c>
       <c r="J9">
-        <v>1.4759483200000001</v>
+        <v>0.46594832000000003</v>
       </c>
       <c r="K9">
-        <v>1.3842971665753401</v>
+        <v>1.63679716657534</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -10935,10 +10935,10 @@
         <v>42</v>
       </c>
       <c r="J10">
-        <v>1.62819888</v>
+        <v>0.61819888000000001</v>
       </c>
       <c r="K10">
-        <v>1.9988019238356201</v>
+        <v>2.2513019238356198</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -10949,10 +10949,10 @@
         <v>42</v>
       </c>
       <c r="J11">
-        <v>1.7371606500000001</v>
+        <v>0.73716064999999997</v>
       </c>
       <c r="K11">
-        <v>2.3997897005137001</v>
+        <v>2.6497897005137001</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -10963,10 +10963,10 @@
         <v>42</v>
       </c>
       <c r="J12">
-        <v>1.87730526</v>
+        <v>0.83730526000000005</v>
       </c>
       <c r="K12">
-        <v>2.54225984938356</v>
+        <v>2.8022598493835602</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -10977,10 +10977,10 @@
         <v>42</v>
       </c>
       <c r="J13">
-        <v>2.02246214</v>
+        <v>0.91246214000000003</v>
       </c>
       <c r="K13">
-        <v>2.66957378006849</v>
+        <v>2.9470737800684899</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -10991,10 +10991,10 @@
         <v>42</v>
       </c>
       <c r="J14">
-        <v>2.1061064969999999</v>
+        <v>0.95610649700000006</v>
       </c>
       <c r="K14">
-        <v>2.7176026908184898</v>
+        <v>3.0051026908184899</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -11005,10 +11005,10 @@
         <v>42</v>
       </c>
       <c r="J15">
-        <v>2.2441371404999999</v>
+        <v>0.99413714050000002</v>
       </c>
       <c r="K15">
-        <v>2.8121340710393801</v>
+        <v>3.1246340710393801</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -11019,10 +11019,10 @@
         <v>42</v>
       </c>
       <c r="J16">
-        <v>2.3790106574999998</v>
+        <v>1.0690106575</v>
       </c>
       <c r="K16">
-        <v>3.03254034932363</v>
+        <v>3.3600403493236302</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -11035,7 +11035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77243C66-2B81-42CC-B930-6070CE666E6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA621D1A-999C-410C-8D90-1D611E1B196F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11061,10 +11061,10 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>0.92328946199999995</v>
+        <v>0.33328946199999998</v>
       </c>
       <c r="K2">
-        <v>1.2755553057328799</v>
+        <v>1.4230553057328801</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -11075,10 +11075,10 @@
         <v>7</v>
       </c>
       <c r="J3">
-        <v>1.1038121599999999</v>
+        <v>0.33381216000000002</v>
       </c>
       <c r="K3">
-        <v>1.23277202849315</v>
+        <v>1.4252720284931499</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -11089,10 +11089,10 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>1.2081975045</v>
+        <v>0.35819750449999999</v>
       </c>
       <c r="K4">
-        <v>1.3169487060667799</v>
+        <v>1.5294487060667801</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -11103,10 +11103,10 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>1.2108839440000001</v>
+        <v>0.36088394400000001</v>
       </c>
       <c r="K5">
-        <v>1.32869339756164</v>
+        <v>1.5411933975616401</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -11117,10 +11117,10 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>1.2536980344999999</v>
+        <v>0.3736980345</v>
       </c>
       <c r="K6">
-        <v>1.3756556283613</v>
+        <v>1.5956556283612999</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -11131,10 +11131,10 @@
         <v>7</v>
       </c>
       <c r="J7">
-        <v>1.389438594</v>
+        <v>0.39943859399999998</v>
       </c>
       <c r="K7">
-        <v>1.5189296665684899</v>
+        <v>1.76642966656849</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -11145,10 +11145,10 @@
         <v>7</v>
       </c>
       <c r="J8">
-        <v>1.3589659679999999</v>
+        <v>0.48896596799999997</v>
       </c>
       <c r="K8">
-        <v>1.9847596038904101</v>
+        <v>2.2022596038904099</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -11159,10 +11159,10 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>1.4265057315</v>
+        <v>0.58650573149999996</v>
       </c>
       <c r="K9">
-        <v>2.24772616986473</v>
+        <v>2.4577261698647299</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -11173,10 +11173,10 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>1.5887526224999999</v>
+        <v>0.71875262250000005</v>
       </c>
       <c r="K10">
-        <v>2.5660786936900699</v>
+        <v>2.7835786936900702</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -11187,10 +11187,10 @@
         <v>7</v>
       </c>
       <c r="J11">
-        <v>1.7301951664999999</v>
+        <v>0.8001951665</v>
       </c>
       <c r="K11">
-        <v>2.6347814823475999</v>
+        <v>2.8672814823475998</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -11201,10 +11201,10 @@
         <v>7</v>
       </c>
       <c r="J12">
-        <v>1.8736672480000001</v>
+        <v>0.85366724800000005</v>
       </c>
       <c r="K12">
-        <v>2.5899467496438402</v>
+        <v>2.8449467496438401</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -11215,10 +11215,10 @@
         <v>7</v>
       </c>
       <c r="J13">
-        <v>2.0154079600000001</v>
+        <v>0.92540796000000003</v>
       </c>
       <c r="K13">
-        <v>2.6746854072602702</v>
+        <v>2.9471854072602701</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -11229,10 +11229,10 @@
         <v>7</v>
       </c>
       <c r="J14">
-        <v>2.092738368</v>
+        <v>1.0027383679999999</v>
       </c>
       <c r="K14">
-        <v>2.7740628052602698</v>
+        <v>3.0465628052602698</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -11243,10 +11243,10 @@
         <v>7</v>
       </c>
       <c r="J15">
-        <v>2.239715356</v>
+        <v>1.0797153559999999</v>
       </c>
       <c r="K15">
-        <v>2.8368174623698601</v>
+        <v>3.1268174623698601</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -11257,10 +11257,10 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>2.4152356749999999</v>
+        <v>1.1552356749999999</v>
       </c>
       <c r="K16">
-        <v>2.8722084785102702</v>
+        <v>3.1872084785102701</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -11273,7 +11273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1019F62-5E18-42B8-B92C-61F13BDAA3A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AFBA38-7816-44D9-9C08-93F770FECE08}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11299,10 +11299,10 @@
         <v>43</v>
       </c>
       <c r="J2">
-        <v>0.694394387</v>
+        <v>1.0043943870000001</v>
       </c>
       <c r="K2">
-        <v>3.9718014032500002</v>
+        <v>3.8943014032500001</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -11313,10 +11313,10 @@
         <v>43</v>
       </c>
       <c r="J3">
-        <v>0.91582115799999997</v>
+        <v>0.86582115800000004</v>
       </c>
       <c r="K3">
-        <v>3.34450991597945</v>
+        <v>3.3570099159794502</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -11327,10 +11327,10 @@
         <v>43</v>
       </c>
       <c r="J4">
-        <v>1.036592865</v>
+        <v>0.85659286499999998</v>
       </c>
       <c r="K4">
-        <v>3.2763028796404101</v>
+        <v>3.32130287964041</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -11341,10 +11341,10 @@
         <v>43</v>
       </c>
       <c r="J5">
-        <v>1.0434862965</v>
+        <v>0.84348629649999995</v>
       </c>
       <c r="K5">
-        <v>3.22041061765582</v>
+        <v>3.2704106176558199</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -11355,10 +11355,10 @@
         <v>43</v>
       </c>
       <c r="J6">
-        <v>1.1560236150000001</v>
+        <v>0.64602361500000005</v>
       </c>
       <c r="K6">
-        <v>2.3773468359760299</v>
+        <v>2.5048468359760299</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -11369,10 +11369,10 @@
         <v>43</v>
       </c>
       <c r="J7">
-        <v>1.2558189959999999</v>
+        <v>0.80581899599999995</v>
       </c>
       <c r="K7">
-        <v>3.0118727852465801</v>
+        <v>3.1243727852465799</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -11383,10 +11383,10 @@
         <v>43</v>
       </c>
       <c r="J8">
-        <v>1.271069096</v>
+        <v>0.84106909600000002</v>
       </c>
       <c r="K8">
-        <v>3.1535923150411</v>
+        <v>3.2610923150411</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -11397,10 +11397,10 @@
         <v>43</v>
       </c>
       <c r="J9">
-        <v>1.39740665</v>
+        <v>0.74740664999999995</v>
       </c>
       <c r="K9">
-        <v>2.73537409092466</v>
+        <v>2.8978740909246601</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -11411,10 +11411,10 @@
         <v>43</v>
       </c>
       <c r="J10">
-        <v>1.6089331499999999</v>
+        <v>0.74893315000000005</v>
       </c>
       <c r="K10">
-        <v>2.6887978083904098</v>
+        <v>2.9037978083904101</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -11425,10 +11425,10 @@
         <v>43</v>
       </c>
       <c r="J11">
-        <v>1.7474767550000001</v>
+        <v>0.68747675500000005</v>
       </c>
       <c r="K11">
-        <v>2.6848383454965798</v>
+        <v>2.94983834549658</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -11439,10 +11439,10 @@
         <v>43</v>
       </c>
       <c r="J12">
-        <v>1.8898252719999999</v>
+        <v>0.63982527199999994</v>
       </c>
       <c r="K12">
-        <v>2.7084428600821902</v>
+        <v>3.0209428600821902</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -11453,10 +11453,10 @@
         <v>43</v>
       </c>
       <c r="J13">
-        <v>2.043187852</v>
+        <v>0.63318785200000005</v>
       </c>
       <c r="K13">
-        <v>2.7714549548082199</v>
+        <v>3.1239549548082199</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -11467,10 +11467,10 @@
         <v>43</v>
       </c>
       <c r="J14">
-        <v>2.1030060000000002</v>
+        <v>0.64300599999999997</v>
       </c>
       <c r="K14">
-        <v>2.78052630821918</v>
+        <v>3.1455263082191798</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -11481,10 +11481,10 @@
         <v>43</v>
       </c>
       <c r="J15">
-        <v>2.2320786579999998</v>
+        <v>0.65207865799999998</v>
       </c>
       <c r="K15">
-        <v>2.7632026642671201</v>
+        <v>3.1582026642671202</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -11495,10 +11495,10 @@
         <v>43</v>
       </c>
       <c r="J16">
-        <v>2.3433739899999999</v>
+        <v>0.68337398999999999</v>
       </c>
       <c r="K16">
-        <v>2.8052685572945202</v>
+        <v>3.2202685572945202</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -11511,7 +11511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114A0AAD-F19B-498B-8BF0-327895033520}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73AC05E-0617-4FA2-B106-05270C8FABA5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11537,10 +11537,10 @@
         <v>44</v>
       </c>
       <c r="J2">
-        <v>0.77607731999999996</v>
+        <v>0.18607731999999999</v>
       </c>
       <c r="K2">
-        <v>4.7757971083561603</v>
+        <v>4.9232971083561603</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -11551,10 +11551,10 @@
         <v>44</v>
       </c>
       <c r="J3">
-        <v>0.98980387000000003</v>
+        <v>0.15980386999999999</v>
       </c>
       <c r="K3">
-        <v>4.0202586215410996</v>
+        <v>4.2277586215411</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -11565,10 +11565,10 @@
         <v>44</v>
       </c>
       <c r="J4">
-        <v>1.11758275</v>
+        <v>0.14758275000000001</v>
       </c>
       <c r="K4">
-        <v>3.66208691523972</v>
+        <v>3.9045869152397299</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -11579,10 +11579,10 @@
         <v>44</v>
       </c>
       <c r="J5">
-        <v>1.113189065</v>
+        <v>0.15318906500000001</v>
       </c>
       <c r="K5">
-        <v>3.8137754734760301</v>
+        <v>4.0537754734760298</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -11593,10 +11593,10 @@
         <v>44</v>
       </c>
       <c r="J6">
-        <v>1.112190172</v>
+        <v>0.42219017199999997</v>
       </c>
       <c r="K6">
-        <v>3.1909099912465702</v>
+        <v>3.36340999124657</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -11607,10 +11607,10 @@
         <v>44</v>
       </c>
       <c r="J7">
-        <v>1.1756721999999999</v>
+        <v>0.80567219999999995</v>
       </c>
       <c r="K7">
-        <v>4.1919737308219203</v>
+        <v>4.2844737308219196</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -11621,10 +11621,10 @@
         <v>44</v>
       </c>
       <c r="J8">
-        <v>1.2143419385000001</v>
+        <v>0.77434193849999999</v>
       </c>
       <c r="K8">
-        <v>3.92228848797774</v>
+        <v>4.0322884879777403</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -11635,10 +11635,10 @@
         <v>44</v>
       </c>
       <c r="J9">
-        <v>1.344261822</v>
+        <v>0.80426182199999996</v>
       </c>
       <c r="K9">
-        <v>3.1934908458698601</v>
+        <v>3.3284908458698599</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -11649,10 +11649,10 @@
         <v>44</v>
       </c>
       <c r="J10">
-        <v>1.621061807</v>
+        <v>0.50106180700000003</v>
       </c>
       <c r="K10">
-        <v>3.14853372633219</v>
+        <v>3.4285337263321898</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -11663,10 +11663,10 @@
         <v>44</v>
       </c>
       <c r="J11">
-        <v>1.799578009</v>
+        <v>0.46957800900000002</v>
       </c>
       <c r="K11">
-        <v>2.8096831689828798</v>
+        <v>3.1421831689828799</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -11677,10 +11677,10 @@
         <v>44</v>
       </c>
       <c r="J12">
-        <v>1.9424386825</v>
+        <v>0.4924386825</v>
       </c>
       <c r="K12">
-        <v>2.7460400554023998</v>
+        <v>3.1085400554024001</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -11691,10 +11691,10 @@
         <v>44</v>
       </c>
       <c r="J13">
-        <v>2.0824468614999998</v>
+        <v>0.48244686149999999</v>
       </c>
       <c r="K13">
-        <v>2.82914225722774</v>
+        <v>3.22914225722774</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -11705,10 +11705,10 @@
         <v>44</v>
       </c>
       <c r="J14">
-        <v>2.1452297974999999</v>
+        <v>0.4852297975</v>
       </c>
       <c r="K14">
-        <v>3.0274751533647302</v>
+        <v>3.4424751533647302</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -11719,10 +11719,10 @@
         <v>44</v>
       </c>
       <c r="J15">
-        <v>2.291366595</v>
+        <v>0.471366595</v>
       </c>
       <c r="K15">
-        <v>3.0880209539897301</v>
+        <v>3.5430209539897302</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -11733,10 +11733,10 @@
         <v>44</v>
       </c>
       <c r="J16">
-        <v>2.4507290350000002</v>
+        <v>0.43072903499999998</v>
       </c>
       <c r="K16">
-        <v>3.1210926727568502</v>
+        <v>3.6260926727568501</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -11749,7 +11749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4968D3C-93FC-49CB-984A-BE8A2E115203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23973B54-BC38-40D9-91A9-678EF2F4A152}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11775,10 +11775,10 @@
         <v>45</v>
       </c>
       <c r="J2">
-        <v>0.36008319999999999</v>
+        <v>2.2100832000000001</v>
       </c>
       <c r="K2">
-        <v>9.3961600219178099</v>
+        <v>8.9336600219178095</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -11789,10 +11789,10 @@
         <v>45</v>
       </c>
       <c r="J3">
-        <v>0.5806834555</v>
+        <v>1.9806834554999999</v>
       </c>
       <c r="K3">
-        <v>8.4980017388647298</v>
+        <v>8.1480017388647195</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -11803,10 +11803,10 @@
         <v>45</v>
       </c>
       <c r="J4">
-        <v>0.62938164299999999</v>
+        <v>2.1693816429999999</v>
       </c>
       <c r="K4">
-        <v>9.3092450002089002</v>
+        <v>8.9242450002089004</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -11817,10 +11817,10 @@
         <v>45</v>
       </c>
       <c r="J5">
-        <v>0.72641182000000004</v>
+        <v>1.9964118200000001</v>
       </c>
       <c r="K5">
-        <v>8.3874532093835601</v>
+        <v>8.0699532093835593</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -11831,10 +11831,10 @@
         <v>45</v>
       </c>
       <c r="J6">
-        <v>0.74541088099999997</v>
+        <v>1.9654108809999999</v>
       </c>
       <c r="K6">
-        <v>8.3901705674212295</v>
+        <v>8.0851705674212297</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -11845,10 +11845,10 @@
         <v>45</v>
       </c>
       <c r="J7">
-        <v>0.81690447600000005</v>
+        <v>2.2469044760000001</v>
       </c>
       <c r="K7">
-        <v>9.6006697714109599</v>
+        <v>9.24316977141096</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -11859,10 +11859,10 @@
         <v>45</v>
       </c>
       <c r="J8">
-        <v>0.85512985799999996</v>
+        <v>2.2851298579999999</v>
       </c>
       <c r="K8">
-        <v>9.5945284944041092</v>
+        <v>9.2370284944041092</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -11873,10 +11873,10 @@
         <v>45</v>
       </c>
       <c r="J9">
-        <v>1.0334762239999999</v>
+        <v>1.9434762240000001</v>
       </c>
       <c r="K9">
-        <v>8.2224501220821899</v>
+        <v>7.9949501220821899</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -11887,10 +11887,10 @@
         <v>45</v>
       </c>
       <c r="J10">
-        <v>1.437106215</v>
+        <v>1.407106215</v>
       </c>
       <c r="K10">
-        <v>5.6803686517294496</v>
+        <v>5.6878686517294499</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -11901,10 +11901,10 @@
         <v>45</v>
       </c>
       <c r="J11">
-        <v>1.6883813919999999</v>
+        <v>1.028381392</v>
       </c>
       <c r="K11">
-        <v>3.9919525972054801</v>
+        <v>4.1569525972054802</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -11915,10 +11915,10 @@
         <v>45</v>
       </c>
       <c r="J12">
-        <v>1.758312517</v>
+        <v>1.248312517</v>
       </c>
       <c r="K12">
-        <v>4.9185040625308201</v>
+        <v>5.0460040625308196</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -11929,10 +11929,10 @@
         <v>45</v>
       </c>
       <c r="J13">
-        <v>1.8479291874999999</v>
+        <v>1.3879291874999999</v>
       </c>
       <c r="K13">
-        <v>5.5945615387414396</v>
+        <v>5.7095615387414398</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -11943,10 +11943,10 @@
         <v>45</v>
       </c>
       <c r="J14">
-        <v>1.8939003190000001</v>
+        <v>1.5839003190000001</v>
       </c>
       <c r="K14">
-        <v>6.3250098517568496</v>
+        <v>6.4025098517568502</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -11957,10 +11957,10 @@
         <v>45</v>
       </c>
       <c r="J15">
-        <v>2.0233319249999999</v>
+        <v>1.633331925</v>
       </c>
       <c r="K15">
-        <v>6.5048094845034203</v>
+        <v>6.6023094845034196</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -11971,10 +11971,10 @@
         <v>45</v>
       </c>
       <c r="J16">
-        <v>2.1885342634999998</v>
+        <v>1.6185342635</v>
       </c>
       <c r="K16">
-        <v>6.3999869820701996</v>
+        <v>6.5424869820701996</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -11987,7 +11987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1290ACDA-625B-4253-B4DD-3A0D7E655D64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D2600-9030-438C-A8F3-BE151D98BCBD}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12013,10 +12013,10 @@
         <v>46</v>
       </c>
       <c r="J2">
-        <v>0.94150858749999999</v>
+        <v>0.58150858750000001</v>
       </c>
       <c r="K2">
-        <v>2.7643725791524001</v>
+        <v>2.8543725791523999</v>
       </c>
       <c r="L2">
         <v>1984</v>
@@ -12027,10 +12027,10 @@
         <v>46</v>
       </c>
       <c r="J3">
-        <v>1.060450194</v>
+        <v>0.60045019399999999</v>
       </c>
       <c r="K3">
-        <v>2.61320950629452</v>
+        <v>2.7282095062945202</v>
       </c>
       <c r="L3">
         <v>1990</v>
@@ -12041,10 +12041,10 @@
         <v>46</v>
       </c>
       <c r="J4">
-        <v>1.0899514990000001</v>
+        <v>0.52995149900000005</v>
       </c>
       <c r="K4">
-        <v>2.4614084266198599</v>
+        <v>2.60140842661986</v>
       </c>
       <c r="L4">
         <v>1987</v>
@@ -12055,10 +12055,10 @@
         <v>46</v>
       </c>
       <c r="J5">
-        <v>1.1329678999999999</v>
+        <v>0.66296790000000005</v>
       </c>
       <c r="K5">
-        <v>2.3674614496575299</v>
+        <v>2.4849614496575301</v>
       </c>
       <c r="L5">
         <v>1993</v>
@@ -12069,10 +12069,10 @@
         <v>46</v>
       </c>
       <c r="J6">
-        <v>1.3029038774999999</v>
+        <v>0.72290387749999996</v>
       </c>
       <c r="K6">
-        <v>2.3439123867893801</v>
+        <v>2.4889123867893801</v>
       </c>
       <c r="L6">
         <v>1996</v>
@@ -12083,10 +12083,10 @@
         <v>46</v>
       </c>
       <c r="J7">
-        <v>1.306885128</v>
+        <v>0.63688512799999997</v>
       </c>
       <c r="K7">
-        <v>2.3076728275890401</v>
+        <v>2.4751728275890401</v>
       </c>
       <c r="L7">
         <v>1999</v>
@@ -12097,10 +12097,10 @@
         <v>46</v>
       </c>
       <c r="J8">
-        <v>1.4200625815000001</v>
+        <v>0.66006258149999997</v>
       </c>
       <c r="K8">
-        <v>2.4519791491455498</v>
+        <v>2.6419791491455502</v>
       </c>
       <c r="L8">
         <v>2002</v>
@@ -12111,10 +12111,10 @@
         <v>46</v>
       </c>
       <c r="J9">
-        <v>1.6149031755000001</v>
+        <v>0.74490317549999996</v>
       </c>
       <c r="K9">
-        <v>2.6822829732482898</v>
+        <v>2.89978297324829</v>
       </c>
       <c r="L9">
         <v>2005</v>
@@ -12125,10 +12125,10 @@
         <v>46</v>
       </c>
       <c r="J10">
-        <v>1.673870942</v>
+        <v>0.89387094199999995</v>
       </c>
       <c r="K10">
-        <v>3.3269324014863</v>
+        <v>3.5219324014862998</v>
       </c>
       <c r="L10">
         <v>2008</v>
@@ -12139,10 +12139,10 @@
         <v>46</v>
       </c>
       <c r="J11">
-        <v>1.781281128</v>
+        <v>0.95128112799999998</v>
       </c>
       <c r="K11">
-        <v>3.5175058823835599</v>
+        <v>3.7250058823835599</v>
       </c>
       <c r="L11">
         <v>2010</v>
@@ -12153,10 +12153,10 @@
         <v>46</v>
       </c>
       <c r="J12">
-        <v>1.9065264900000001</v>
+        <v>1.0165264899999999</v>
       </c>
       <c r="K12">
-        <v>3.6606724870890401</v>
+        <v>3.8831724870890398</v>
       </c>
       <c r="L12">
         <v>2011</v>
@@ -12167,10 +12167,10 @@
         <v>46</v>
       </c>
       <c r="J13">
-        <v>1.9745435280000001</v>
+        <v>1.0445435279999999</v>
       </c>
       <c r="K13">
-        <v>3.6555326111506798</v>
+        <v>3.8880326111506802</v>
       </c>
       <c r="L13">
         <v>2012</v>
@@ -12181,10 +12181,10 @@
         <v>46</v>
       </c>
       <c r="J14">
-        <v>2.1459295379999999</v>
+        <v>1.035929538</v>
       </c>
       <c r="K14">
-        <v>3.5699899442671201</v>
+        <v>3.84748994426712</v>
       </c>
       <c r="L14">
         <v>2013</v>
@@ -12195,10 +12195,10 @@
         <v>46</v>
       </c>
       <c r="J15">
-        <v>2.3351260300000001</v>
+        <v>1.00512603</v>
       </c>
       <c r="K15">
-        <v>3.4819734240068501</v>
+        <v>3.8144734240068501</v>
       </c>
       <c r="L15">
         <v>2015</v>
@@ -12211,7 +12211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C91432F-E2A1-4C87-94DD-A3CFD8909A00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8260B2-C54E-4BC5-84A0-CBEBBFD14C4D}">
   <dimension ref="I1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12237,10 +12237,10 @@
         <v>47</v>
       </c>
       <c r="J2">
-        <v>1.3012785615</v>
+        <v>1.1612785615000001</v>
       </c>
       <c r="K2">
-        <v>3.39287337332363</v>
+        <v>3.4278733733236302</v>
       </c>
       <c r="L2">
         <v>2002</v>
@@ -12251,10 +12251,10 @@
         <v>47</v>
       </c>
       <c r="J3">
-        <v>1.499130536</v>
+        <v>1.1491305359999999</v>
       </c>
       <c r="K3">
-        <v>3.3190754481917799</v>
+        <v>3.4065754481917798</v>
       </c>
       <c r="L3">
         <v>2005</v>
@@ -12265,10 +12265,10 @@
         <v>47</v>
       </c>
       <c r="J4">
-        <v>1.6503319350000001</v>
+        <v>1.2003319349999999</v>
       </c>
       <c r="K4">
-        <v>3.3213579751541098</v>
+        <v>3.4338579751541101</v>
       </c>
       <c r="L4">
         <v>2008</v>
@@ -12279,10 +12279,10 @@
         <v>47</v>
       </c>
       <c r="J5">
-        <v>1.798053857</v>
+        <v>1.1980538570000001</v>
       </c>
       <c r="K5">
-        <v>3.1238066727363001</v>
+        <v>3.2738066727363</v>
       </c>
       <c r="L5">
         <v>2010</v>
@@ -12293,10 +12293,10 @@
         <v>47</v>
       </c>
       <c r="J6">
-        <v>1.9425988780000001</v>
+        <v>1.2225988779999999</v>
       </c>
       <c r="K6">
-        <v>3.1608757599520501</v>
+        <v>3.3408757599520502</v>
       </c>
       <c r="L6">
         <v>2011</v>
@@ -12307,10 +12307,10 @@
         <v>47</v>
       </c>
       <c r="J7">
-        <v>2.0227962640000001</v>
+        <v>1.2327962640000001</v>
       </c>
       <c r="K7">
-        <v>3.1713088792054802</v>
+        <v>3.36880887920548</v>
       </c>
       <c r="L7">
         <v>2012</v>
@@ -12321,10 +12321,10 @@
         <v>47</v>
       </c>
       <c r="J8">
-        <v>2.1634507169999999</v>
+        <v>1.263450717</v>
       </c>
       <c r="K8">
-        <v>3.2275519782842501</v>
+        <v>3.4525519782842502</v>
       </c>
       <c r="L8">
         <v>2013</v>
@@ -12335,10 +12335,10 @@
         <v>47</v>
       </c>
       <c r="J9">
-        <v>2.2965035540000001</v>
+        <v>1.3365035540000001</v>
       </c>
       <c r="K9">
-        <v>3.4121668512260301</v>
+        <v>3.6521668512260299</v>
       </c>
       <c r="L9">
         <v>2015</v>
@@ -12351,7 +12351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BCD3E1-36A9-4A87-988D-F34168DC99CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1694586-3DCA-4B6F-82BC-EE60336EE9C5}">
   <dimension ref="I1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12377,10 +12377,10 @@
         <v>48</v>
       </c>
       <c r="J2">
-        <v>1.610443303</v>
+        <v>0.62044330299999995</v>
       </c>
       <c r="K2">
-        <v>3.6125110920582202</v>
+        <v>3.8600110920582198</v>
       </c>
       <c r="L2">
         <v>2008</v>
@@ -12391,10 +12391,10 @@
         <v>48</v>
       </c>
       <c r="J3">
-        <v>1.7426147215000001</v>
+        <v>0.63261472149999998</v>
       </c>
       <c r="K3">
-        <v>3.6582281004469199</v>
+        <v>3.9357281004469198</v>
       </c>
       <c r="L3">
         <v>2010</v>
@@ -12405,10 +12405,10 @@
         <v>48</v>
       </c>
       <c r="J4">
-        <v>1.921233465</v>
+        <v>0.58123346499999995</v>
       </c>
       <c r="K4">
-        <v>3.2810061542979501</v>
+        <v>3.61600615429795</v>
       </c>
       <c r="L4">
         <v>2011</v>
@@ -12419,10 +12419,10 @@
         <v>48</v>
       </c>
       <c r="J5">
-        <v>2.1726614999999998</v>
+        <v>0.30266150000000003</v>
       </c>
       <c r="K5">
-        <v>1.4156065428082201</v>
+        <v>1.8831065428082201</v>
       </c>
       <c r="L5">
         <v>2012</v>
@@ -12433,10 +12433,10 @@
         <v>48</v>
       </c>
       <c r="J6">
-        <v>2.3114211120000001</v>
+        <v>0.33142111200000002</v>
       </c>
       <c r="K6">
-        <v>1.5668800644657499</v>
+        <v>2.06188006446575</v>
       </c>
       <c r="L6">
         <v>2013</v>
@@ -12447,10 +12447,10 @@
         <v>48</v>
       </c>
       <c r="J7">
-        <v>2.4918102814999998</v>
+        <v>0.3018102815</v>
       </c>
       <c r="K7">
-        <v>1.3302270186661</v>
+        <v>1.8777270186660999</v>
       </c>
       <c r="L7">
         <v>2015</v>
@@ -12463,7 +12463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1D89F3-6976-488F-9436-F2AB75B35564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1528DA73-E06F-43E8-A79E-16499894B9E0}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12489,10 +12489,10 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>0.89041588000000005</v>
+        <v>0.51041588000000004</v>
       </c>
       <c r="K2">
-        <v>1.3895339752054801</v>
+        <v>1.48453397520548</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -12503,10 +12503,10 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <v>1.074697741</v>
+        <v>0.48469774100000002</v>
       </c>
       <c r="K3">
-        <v>1.26213926338014</v>
+        <v>1.40963926338014</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -12517,10 +12517,10 @@
         <v>8</v>
       </c>
       <c r="J4">
-        <v>1.1688767900000001</v>
+        <v>0.54887679</v>
       </c>
       <c r="K4">
-        <v>1.4413488846917799</v>
+        <v>1.5963488846917799</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -12531,10 +12531,10 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <v>1.1809111825</v>
+        <v>0.54091118250000003</v>
       </c>
       <c r="K5">
-        <v>1.4131752180736299</v>
+        <v>1.57317521807363</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -12545,10 +12545,10 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>1.2008478579999999</v>
+        <v>0.51084785799999999</v>
       </c>
       <c r="K6">
-        <v>1.41844241906164</v>
+        <v>1.5909424190616399</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -12559,10 +12559,10 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>1.344417835</v>
+        <v>0.39441783499999999</v>
       </c>
       <c r="K7">
-        <v>1.28071019878425</v>
+        <v>1.51821019878425</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -12573,10 +12573,10 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>1.3515483260000001</v>
+        <v>0.34154832600000001</v>
       </c>
       <c r="K8">
-        <v>1.2877586719246601</v>
+        <v>1.54025867192466</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -12587,10 +12587,10 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>1.4230998100000001</v>
+        <v>0.45309980999999999</v>
       </c>
       <c r="K9">
-        <v>1.4279235406506801</v>
+        <v>1.67042354065068</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -12601,10 +12601,10 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>1.7020863595</v>
+        <v>0.61208635950000001</v>
       </c>
       <c r="K10">
-        <v>1.4412029306729499</v>
+        <v>1.7137029306729401</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -12615,10 +12615,10 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>1.84586231</v>
+        <v>0.68586230999999998</v>
       </c>
       <c r="K11">
-        <v>1.59933305263699</v>
+        <v>1.88933305263699</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -12629,10 +12629,10 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <v>1.9554201179999999</v>
+        <v>0.64542011799999999</v>
       </c>
       <c r="K12">
-        <v>1.5928667513219199</v>
+        <v>1.92036675132192</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -12643,10 +12643,10 @@
         <v>8</v>
       </c>
       <c r="J13">
-        <v>2.1035744759999999</v>
+        <v>0.63357447600000005</v>
       </c>
       <c r="K13">
-        <v>1.5915898056575299</v>
+        <v>1.9590898056575301</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -12657,10 +12657,10 @@
         <v>8</v>
       </c>
       <c r="J14">
-        <v>2.1715013289999998</v>
+        <v>0.62150132899999999</v>
       </c>
       <c r="K14">
-        <v>1.60826644857192</v>
+        <v>1.99576644857192</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -12671,10 +12671,10 @@
         <v>8</v>
       </c>
       <c r="J15">
-        <v>2.3159928559999998</v>
+        <v>0.61599285599999998</v>
       </c>
       <c r="K15">
-        <v>1.6279415120273999</v>
+        <v>2.0529415120274002</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -12685,10 +12685,10 @@
         <v>8</v>
       </c>
       <c r="J16">
-        <v>2.4861313635000002</v>
+        <v>0.57613136350000005</v>
       </c>
       <c r="K16">
-        <v>1.4782674330976</v>
+        <v>1.9557674330976</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -12701,7 +12701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE78D8A-14B6-4610-B3D9-68D88D290220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA02FE79-4660-4395-99D5-00D5469F70F1}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12727,10 +12727,10 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>0.829069316</v>
+        <v>0.47906931600000002</v>
       </c>
       <c r="K2">
-        <v>2.6784581504520499</v>
+        <v>2.7659581504520498</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -12741,10 +12741,10 @@
         <v>9</v>
       </c>
       <c r="J3">
-        <v>0.98771447499999998</v>
+        <v>0.52771447500000002</v>
       </c>
       <c r="K3">
-        <v>2.9317896004280799</v>
+        <v>3.0467896004280801</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -12755,10 +12755,10 @@
         <v>9</v>
       </c>
       <c r="J4">
-        <v>1.0580536869999999</v>
+        <v>0.62805368699999997</v>
       </c>
       <c r="K4">
-        <v>3.5187006878390399</v>
+        <v>3.6262006878390398</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -12769,10 +12769,10 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <v>1.0858381115</v>
+        <v>0.58583811149999998</v>
       </c>
       <c r="K5">
-        <v>3.2574684173304802</v>
+        <v>3.3824684173304802</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -12783,10 +12783,10 @@
         <v>9</v>
       </c>
       <c r="J6">
-        <v>1.0716002469999999</v>
+        <v>0.71160024700000002</v>
       </c>
       <c r="K6">
-        <v>4.0185040478390404</v>
+        <v>4.1085040478390402</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -12797,10 +12797,10 @@
         <v>9</v>
       </c>
       <c r="J7">
-        <v>1.1080665249999999</v>
+        <v>0.99806652500000004</v>
       </c>
       <c r="K7">
-        <v>5.7348600810787698</v>
+        <v>5.7623600810787696</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -12811,10 +12811,10 @@
         <v>9</v>
       </c>
       <c r="J8">
-        <v>0.99832861250000005</v>
+        <v>1.2983286125</v>
       </c>
       <c r="K8">
-        <v>7.5709164770119903</v>
+        <v>7.4959164770119902</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -12825,10 +12825,10 @@
         <v>9</v>
       </c>
       <c r="J9">
-        <v>1.0072978125000001</v>
+        <v>1.5072978125000001</v>
       </c>
       <c r="K9">
-        <v>8.7654645879708895</v>
+        <v>8.6404645879708895</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -12839,10 +12839,10 @@
         <v>9</v>
       </c>
       <c r="J10">
-        <v>1.146365514</v>
+        <v>1.726365514</v>
       </c>
       <c r="K10">
-        <v>9.1049127310890405</v>
+        <v>8.9599127310890392</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -12853,10 +12853,10 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <v>1.2131447824999999</v>
+        <v>2.0631447825000002</v>
       </c>
       <c r="K11">
-        <v>10.0588247632791</v>
+        <v>9.8463247632791102</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -12867,10 +12867,10 @@
         <v>9</v>
       </c>
       <c r="J12">
-        <v>1.3729222825</v>
+        <v>2.0229222825000002</v>
       </c>
       <c r="K12">
-        <v>9.8170132649914397</v>
+        <v>9.65451326499144</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -12881,10 +12881,10 @@
         <v>9</v>
       </c>
       <c r="J13">
-        <v>1.4996961360000001</v>
+        <v>2.0796961359999999</v>
       </c>
       <c r="K13">
-        <v>10.0704102125753</v>
+        <v>9.9254102125753398</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -12895,10 +12895,10 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <v>1.5780315359999999</v>
+        <v>2.0780315360000001</v>
       </c>
       <c r="K14">
-        <v>10.042389376274</v>
+        <v>9.9173893762739702</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -12909,10 +12909,10 @@
         <v>9</v>
       </c>
       <c r="J15">
-        <v>1.7300409729999999</v>
+        <v>2.0700409729999998</v>
       </c>
       <c r="K15">
-        <v>9.9642363320924705</v>
+        <v>9.8792363320924697</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -12923,10 +12923,10 @@
         <v>9</v>
       </c>
       <c r="J16">
-        <v>1.8943037760000001</v>
+        <v>2.0543037759999998</v>
       </c>
       <c r="K16">
-        <v>9.8441678916164399</v>
+        <v>9.8041678916164408</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -12939,7 +12939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BE19E6-CA18-4F19-8C5E-5A4EDC49ED4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D03A93-8ED7-407F-9922-84259D9598CF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12965,10 +12965,10 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>0.58092914200000001</v>
+        <v>1.290929142</v>
       </c>
       <c r="K2">
-        <v>5.1484444268287701</v>
+        <v>4.9709444268287699</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -12979,10 +12979,10 @@
         <v>10</v>
       </c>
       <c r="J3">
-        <v>0.70353933199999996</v>
+        <v>1.4535393320000001</v>
       </c>
       <c r="K3">
-        <v>5.7845850300136998</v>
+        <v>5.5970850300136998</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -12993,10 +12993,10 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>0.90964595999999998</v>
+        <v>1.15964596</v>
       </c>
       <c r="K4">
-        <v>4.5279665921917802</v>
+        <v>4.4654665921917802</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -13007,10 +13007,10 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>0.80473707699999997</v>
+        <v>1.4947370769999999</v>
       </c>
       <c r="K5">
-        <v>5.9282061417089098</v>
+        <v>5.7557061417089104</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -13021,10 +13021,10 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>1.0537569755</v>
+        <v>0.91375697550000001</v>
       </c>
       <c r="K6">
-        <v>3.48362774242637</v>
+        <v>3.5186277424263701</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -13035,10 +13035,10 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>1.2007929959999999</v>
+        <v>0.93079299599999998</v>
       </c>
       <c r="K7">
-        <v>3.5167149016849302</v>
+        <v>3.5842149016849301</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -13049,10 +13049,10 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>1.1357161849999999</v>
+        <v>1.205716185</v>
       </c>
       <c r="K8">
-        <v>4.62635999484589</v>
+        <v>4.6088599948458899</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -13063,10 +13063,10 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>1.2078131910000001</v>
+        <v>1.2978131909999999</v>
       </c>
       <c r="K9">
-        <v>5.0572384830719201</v>
+        <v>5.0347384830719202</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -13077,10 +13077,10 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>1.4543405144999999</v>
+        <v>1.2243405144999999</v>
       </c>
       <c r="K10">
-        <v>4.8708806247996597</v>
+        <v>4.9283806247996598</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -13091,10 +13091,10 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <v>1.6099183340000001</v>
+        <v>1.1699183339999999</v>
       </c>
       <c r="K11">
-        <v>4.8077765808835604</v>
+        <v>4.9177765808835598</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -13105,10 +13105,10 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>1.7389511529999999</v>
+        <v>1.088951153</v>
       </c>
       <c r="K12">
-        <v>4.7860183761335602</v>
+        <v>4.9485183761335598</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -13119,10 +13119,10 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>1.861263632</v>
+        <v>1.091263632</v>
       </c>
       <c r="K13">
-        <v>4.9629703933698597</v>
+        <v>5.1554703933698596</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -13133,10 +13133,10 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <v>1.9258149499999999</v>
+        <v>1.1058149500000001</v>
       </c>
       <c r="K14">
-        <v>5.2228284542808199</v>
+        <v>5.4278284542808199</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -13147,10 +13147,10 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <v>2.0451114989999999</v>
+        <v>1.145111499</v>
       </c>
       <c r="K15">
-        <v>5.6108550019623298</v>
+        <v>5.8358550019623303</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -13161,10 +13161,10 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <v>2.1519051359999999</v>
+        <v>1.231905136</v>
       </c>
       <c r="K16">
-        <v>6.2854702913424596</v>
+        <v>6.51547029134246</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -13177,7 +13177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ED151C-41CC-439A-BD9B-102E3C7B5075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7D4B3D-CBB8-4CC5-A44D-F8A689F200F5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13203,10 +13203,10 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>0.93821448399999996</v>
+        <v>0.14821448400000001</v>
       </c>
       <c r="K2">
-        <v>1.62726199543836</v>
+        <v>1.82476199543836</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -13217,10 +13217,10 @@
         <v>11</v>
       </c>
       <c r="J3">
-        <v>1.116903124</v>
+        <v>0.146903124</v>
       </c>
       <c r="K3">
-        <v>1.5657898354383599</v>
+        <v>1.8082898354383601</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -13231,10 +13231,10 @@
         <v>11</v>
       </c>
       <c r="J4">
-        <v>1.2331627000000001</v>
+        <v>0.13316269999999999</v>
       </c>
       <c r="K4">
-        <v>1.36413658527397</v>
+        <v>1.6391365852739701</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -13245,10 +13245,10 @@
         <v>11</v>
       </c>
       <c r="J5">
-        <v>1.2399936629999999</v>
+        <v>0.13999366299999999</v>
       </c>
       <c r="K5">
-        <v>1.44817829657877</v>
+        <v>1.7231782965787701</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -13259,10 +13259,10 @@
         <v>11</v>
       </c>
       <c r="J6">
-        <v>1.2891398300000001</v>
+        <v>0.11913983</v>
       </c>
       <c r="K6">
-        <v>1.1782406589383601</v>
+        <v>1.47074065893836</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -13273,10 +13273,10 @@
         <v>11</v>
       </c>
       <c r="J7">
-        <v>1.4046408779999999</v>
+        <v>0.15464087800000001</v>
       </c>
       <c r="K7">
-        <v>1.4511177257054799</v>
+        <v>1.7636177257054799</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -13287,10 +13287,10 @@
         <v>11</v>
       </c>
       <c r="J8">
-        <v>1.3353889759999999</v>
+        <v>0.25538897599999999</v>
       </c>
       <c r="K8">
-        <v>1.9127302902465799</v>
+        <v>2.1827302902465799</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -13301,10 +13301,10 @@
         <v>11</v>
       </c>
       <c r="J9">
-        <v>1.4062943349999999</v>
+        <v>0.456294335</v>
       </c>
       <c r="K9">
-        <v>2.19998066282534</v>
+        <v>2.4374806628253398</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -13315,10 +13315,10 @@
         <v>11</v>
       </c>
       <c r="J10">
-        <v>1.6361425380000001</v>
+        <v>0.45614253799999999</v>
       </c>
       <c r="K10">
-        <v>2.2439966942671199</v>
+        <v>2.5389966942671198</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -13329,10 +13329,10 @@
         <v>11</v>
       </c>
       <c r="J11">
-        <v>1.7839071529999999</v>
+        <v>0.40390715300000002</v>
       </c>
       <c r="K11">
-        <v>2.5834495131198598</v>
+        <v>2.92844951311986</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -13343,10 +13343,10 @@
         <v>11</v>
       </c>
       <c r="J12">
-        <v>1.9235281255000001</v>
+        <v>0.41352812550000001</v>
       </c>
       <c r="K12">
-        <v>2.6205829001318501</v>
+        <v>2.9980829001318501</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -13357,10 +13357,10 @@
         <v>11</v>
       </c>
       <c r="J13">
-        <v>2.0645361575000001</v>
+        <v>0.42453615750000001</v>
       </c>
       <c r="K13">
-        <v>2.66792664555651</v>
+        <v>3.0779266455565102</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -13371,10 +13371,10 @@
         <v>11</v>
       </c>
       <c r="J14">
-        <v>2.1405970920000001</v>
+        <v>0.44059709200000002</v>
       </c>
       <c r="K14">
-        <v>2.76933593247945</v>
+        <v>3.1943359324794498</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -13385,10 +13385,10 @@
         <v>11</v>
       </c>
       <c r="J15">
-        <v>2.3783035080000001</v>
+        <v>0.27830350799999998</v>
       </c>
       <c r="K15">
-        <v>1.4928709723150699</v>
+        <v>2.0178709723150701</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -13399,10 +13399,10 @@
         <v>11</v>
       </c>
       <c r="J16">
-        <v>2.5316814999999999</v>
+        <v>0.29168149999999998</v>
       </c>
       <c r="K16">
-        <v>1.5548900359589</v>
+        <v>2.1148900359588998</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -13415,7 +13415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A788D4C-E649-488C-BCF1-E55984F9C06F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98073707-2C78-4337-BF2D-812BD8082B77}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13441,10 +13441,10 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>0.87712098999999999</v>
+        <v>0.44712099</v>
       </c>
       <c r="K2">
-        <v>1.5560724922260301</v>
+        <v>1.66357249222603</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -13455,10 +13455,10 @@
         <v>12</v>
       </c>
       <c r="J3">
-        <v>1.027470485</v>
+        <v>0.51747048500000004</v>
       </c>
       <c r="K3">
-        <v>1.7977148445034199</v>
+        <v>1.9252148445034201</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -13469,10 +13469,10 @@
         <v>12</v>
       </c>
       <c r="J4">
-        <v>1.1195644570000001</v>
+        <v>0.56956445700000002</v>
       </c>
       <c r="K4">
-        <v>1.98152285835274</v>
+        <v>2.1190228583527402</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -13483,10 +13483,10 @@
         <v>12</v>
       </c>
       <c r="J5">
-        <v>1.1405366395000001</v>
+        <v>0.54053663949999997</v>
       </c>
       <c r="K5">
-        <v>1.8610288538236299</v>
+        <v>2.0110288538236301</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -13497,10 +13497,10 @@
         <v>12</v>
       </c>
       <c r="J6">
-        <v>1.1913560674999999</v>
+        <v>0.51135606749999996</v>
       </c>
       <c r="K6">
-        <v>1.7324672844948601</v>
+        <v>1.90246728449486</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -13511,10 +13511,10 @@
         <v>12</v>
       </c>
       <c r="J7">
-        <v>1.3475988345000001</v>
+        <v>0.5275988345</v>
       </c>
       <c r="K7">
-        <v>1.75793700370377</v>
+        <v>1.9629370037037699</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -13525,10 +13525,10 @@
         <v>12</v>
       </c>
       <c r="J8">
-        <v>1.3631608639999999</v>
+        <v>0.53316086399999996</v>
       </c>
       <c r="K8">
-        <v>1.7760878661917801</v>
+        <v>1.9835878661917801</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -13539,10 +13539,10 @@
         <v>12</v>
       </c>
       <c r="J9">
-        <v>1.4519139965000001</v>
+        <v>0.57191399649999997</v>
       </c>
       <c r="K9">
-        <v>1.9078024597791099</v>
+        <v>2.1278024597791099</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -13553,10 +13553,10 @@
         <v>12</v>
       </c>
       <c r="J10">
-        <v>1.5030853595</v>
+        <v>0.91308535950000003</v>
       </c>
       <c r="K10">
-        <v>3.4874367423167798</v>
+        <v>3.6349367423167802</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -13567,10 +13567,10 @@
         <v>12</v>
       </c>
       <c r="J11">
-        <v>1.6291889749999999</v>
+        <v>0.79918897499999997</v>
       </c>
       <c r="K11">
-        <v>3.3196837151541101</v>
+        <v>3.5271837151541101</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -13581,10 +13581,10 @@
         <v>12</v>
       </c>
       <c r="J12">
-        <v>1.721236625</v>
+        <v>0.83123662499999995</v>
       </c>
       <c r="K12">
-        <v>3.7048785149828798</v>
+        <v>3.9273785149828799</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -13595,10 +13595,10 @@
         <v>12</v>
       </c>
       <c r="J13">
-        <v>1.894307001</v>
+        <v>0.78430700099999995</v>
       </c>
       <c r="K13">
-        <v>3.5595024278321898</v>
+        <v>3.8370024278321901</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -13609,10 +13609,10 @@
         <v>12</v>
       </c>
       <c r="J14">
-        <v>1.9459915624999999</v>
+        <v>0.82599156250000005</v>
       </c>
       <c r="K14">
-        <v>3.7608733422517102</v>
+        <v>4.04087334225171</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -13623,10 +13623,10 @@
         <v>12</v>
       </c>
       <c r="J15">
-        <v>2.0945746380000001</v>
+        <v>0.84457463799999999</v>
       </c>
       <c r="K15">
-        <v>3.8193659295411</v>
+        <v>4.1318659295411004</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -13637,10 +13637,10 @@
         <v>12</v>
       </c>
       <c r="J16">
-        <v>2.2416650250000001</v>
+        <v>0.86166502499999997</v>
       </c>
       <c r="K16">
-        <v>3.8703618259417798</v>
+        <v>4.2153618259417804</v>
       </c>
       <c r="L16">
         <v>2015</v>

--- a/data/NP20versusRestIncomeTrendsSSA.xlsx
+++ b/data/NP20versusRestIncomeTrendsSSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3688CB77-088D-4297-BA61-88A3787ABBC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22DBE636-1A41-49E1-A3F7-C38D2233EC5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="41" activeTab="44" xr2:uid="{D6216CF2-6836-4DA4-AE7E-3DB968970F14}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="41" activeTab="44" xr2:uid="{BF677B2A-B715-4C40-B675-592C28F0BA28}"/>
   </bookViews>
   <sheets>
     <sheet name="Angola" sheetId="2" r:id="rId1"/>
@@ -295,7 +295,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FD3F80-F1FB-4BA6-A0C1-4031761F1ACE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F973A9-49E5-4D45-AE95-1785E9741FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -353,7 +353,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7D4515-98DB-4B0C-8B06-7E3AB841C8BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B701C8EA-E8DD-4389-A3B4-7583112A1DD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -411,7 +411,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934BD721-230F-43BC-9211-D7DC018D947E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC1099B-74A6-454A-B735-043DD01976E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -469,7 +469,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65AD9BE-8E9C-4709-A694-F9F016ACB724}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F97FA08-A5D7-433F-A0BC-B0A2F7C705CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243D9735-ADF9-4121-9292-EB6018C8EF9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6BA733-5FC9-4401-BBC1-6BA24C93BE46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,7 +585,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1122DD11-D155-443A-BF63-95BEE73D1BFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F0D45B-C8F3-4463-BC7B-DE619D247DD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -643,7 +643,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2B0500-9ED7-4B90-B81C-E72AA218EB1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC845883-A777-4973-B4B8-95FE70117F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -701,7 +701,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65956F33-3CBB-43AD-B4E7-2E6989534440}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BC1DD4-3DFA-480A-BAEA-9E68A796F66E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -759,7 +759,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E10D91-2295-42F5-BB80-0C169AAC18B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7515545D-19D7-4DF8-8947-CADD02F4253A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +817,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1395AB8A-3A22-423E-8967-D62B23E62302}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5C8D90-87EF-4403-BE24-72F6CC6F964A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +875,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB02FA3-D248-4961-8979-F5B17C1AF0DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1859D4E4-88E0-4CAA-93E1-41D9541A6FEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -933,7 +933,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC2C1D7-ED5B-43EC-8444-0E202C2E9F49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5DF10D-65F8-4FF0-BBA0-00F999DD1BD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8A453B-2512-4BDA-AECA-3DC771D56160}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C94324D-1B87-4E3F-B415-720A9EDCB035}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,7 +1049,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F8338E-137C-4B6D-842C-479AE3D622F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F06CC01-9206-48B2-8A7D-29B463E95B02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1107,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A74644-C08C-496C-B50F-E6ABB0049C59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3D8669-AF40-4473-8257-C59A1572A954}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1165,7 +1165,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A982000-1256-4CDA-A733-5496F0DBA19C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D63900-B012-424E-8B2C-23EB88A238C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1223,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FC4D76-BEE9-455B-A11C-8A9B5AE38B92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED18196-6B24-41A9-AFCE-11B299B4B0A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A2172C-70CB-4871-AAEF-9FC7EC560448}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E727C49-8E66-420A-82A8-9CA9C9C286FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC57361-E308-4748-97A2-ADB8886FB5D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4749B98C-E2FC-4771-BFF3-2E20D0137747}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3720E253-A30C-476F-8821-C6CD917B79A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B733BF-B609-4E36-8C5A-44401B2703CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A6F222-19B7-4E39-8991-69D08C817915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342340B6-7B4F-4AB4-94ED-103CF5D77C56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BC960C-FE9F-4379-AB32-C69E2958A735}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A172A0E-2BF6-4C01-9645-EA6564D25138}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC2EC99-42BE-42F8-BB7E-B38BD4BEEDC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B921EF5E-4C63-4F2C-9C02-E53879D52582}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1629,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E8D254-A830-4E3E-A68D-6506BBC44F49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779BF218-AE12-4EF9-8004-4FABC928AD5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1687,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4F6A5A-1899-42D1-88D9-F91DDB325DA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B8C759-AF76-4831-A050-29BC3C151305}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1745,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0CDE13-0108-4A36-B293-AE47D1DCDF14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E548925E-7764-4184-9CA6-E07C2B2936FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D52D0BC-3524-47EB-AE2C-05629C3B9D0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50C3A46-EC19-4DEE-8673-41FF00C3674E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD517DE4-0D06-458D-90F4-33FBB73C9124}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE3FA86-94A7-4078-B7BD-551DB9F5413C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1919,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6B3C82-52FE-4DA3-8258-80710FFD3833}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91162FD0-7662-4734-835A-69DA3DEA89CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1977,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB7114F-0BB8-4A26-98BF-72BA38006883}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330AA563-8C24-4DED-BC99-D90C0FF5A70E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2035,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D564F757-DA53-4ABA-84FD-AA711D807519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955DCA0D-9C2C-4F71-A22E-D6C6A58F2555}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2093,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E32D13-1209-4852-834C-D1459FD7F074}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A45944F-9917-4237-A85F-C8BB986310C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2151,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC70544-BC08-4707-9FBF-64B864DCF8AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232A33D2-51B5-48F7-94FF-92C3A7B8577F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2209,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC4FED2-DE11-45B6-A774-73A74DC99A12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622DF8DD-46D3-46AC-B6A5-35AB42BA71C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2267,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DB346D-90A5-4A7C-99C1-5762457C3E39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF1880D-C3B0-49E4-B54D-EC76F2E7C8A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2325,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AB3A4A-77E5-4348-AE19-9269B585515D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB06C328-0DDD-453D-8E99-9484C70E815F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2383,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886C757B-3E03-44BE-884D-B12FAADC869F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907CD622-7E2F-4804-811F-E1034D4B0441}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2441,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A1480C-064A-4384-A349-CFC8B42C1BA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F5D824-6CB0-4335-B6CE-98D932C58009}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2499,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC72CA04-21D9-4D0B-8A2A-A42F04EA1ED2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6836EB-3CBB-48E8-9A03-17ECBB4C409F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2557,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B31F7D-AD17-4811-939D-4F54278C3425}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015D98DC-CEBB-4ADD-A633-AA075B10AFB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2615,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE700C5-FE42-430F-86C4-C6BAA6A1A888}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5A8722-CDAD-4E84-8B4B-362DDD4994C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2673,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB160A26-F211-4E4D-87DD-E67EFA7CF9CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47379FCF-8805-4EF5-9A28-FCE7A8277815}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2731,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE0E351-A9F8-445F-A982-BC6E173DC97D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A206AC22-88C6-47ED-85FF-0E45E49292CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2789,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A8E4EF-DA63-4CE8-8486-A7CB3AD8FFDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB3532D6-14E5-48DE-AD52-1DD552CF588D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2847,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D64B728-ED56-48F2-A260-C4FD27B71E00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE7F941-8FA3-4133-85AF-C912073D6390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3181,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6470F9-9A0F-45E7-B5F5-D9C16F60996C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536D9360-29A1-416F-87BC-41FE6B783408}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3419,7 +3419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DE81C7-E55B-4DDB-B8E9-DF1A1C236E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75774176-6740-4703-BE58-78BB06E3D49E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3657,7 +3657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8563C30-A928-4B9B-90CB-B875B5573C82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3855EB98-D5F4-43A3-9DAF-F7555C89F747}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3895,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973BCF5C-3A4B-4FB3-AE02-0030F166E35F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1264B997-8952-4B22-A872-5A793369390E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4133,7 +4133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC84DE8-DDAE-46FC-944F-FA49226FD73B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D0F2D6-C4D6-46B2-A8B3-DD54C0B316A7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4371,7 +4371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8017C70D-5D08-4BC8-8981-5924641ABD86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594022BD-350F-4C36-9EEF-DBEE059AF559}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4609,7 +4609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6101743F-F786-45E1-8378-CFA0508FF22B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED316089-302F-48D3-B05C-6ED331C1567B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4847,7 +4847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E4887C-BEB3-4A50-A667-0B8C60363D00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FCD4DA-61B8-4380-B2B0-7A3741278F20}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5085,7 +5085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2098917C-6297-480A-ABCC-B07DB2B313BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2F815C-0A40-4776-AEA8-C3D3976FDD69}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5323,7 +5323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBAEB98-7016-4D12-843A-B336EDFCA028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604CC27C-5E4C-4322-B7E7-E910AAFF6238}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5561,7 +5561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3253DC18-092A-49BE-B210-1965B9D74861}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE83A164-2F0A-4C6F-99B2-F9CEDF253A10}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5799,7 +5799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CDC9F8-3B8A-46EB-ADE0-27D63A5124E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D254845-5B2A-4641-B35C-354896F6961A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6037,7 +6037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482F7368-153B-47A7-B2C0-74E4C5DFC276}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC0C07F-3FAE-4F15-92DC-14913566F298}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6275,7 +6275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FD83FE-CC95-42D6-966D-551E54EC2242}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC76E46-83BD-4459-9BB7-EE7DFB63E606}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6513,7 +6513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3DD80E-2ACD-464C-BFE7-1E6AE5FE6E82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B30268B-8858-4294-BC0E-C00E51F0E003}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6751,7 +6751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E4F02-31DF-405B-8FED-6D6889FAF837}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7A7DAB-0681-44FF-B9C8-180C846DB490}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6989,7 +6989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC164ABA-0544-4AF6-875D-CB55383B6165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43BEAE-6EA1-4EF3-B74F-14291181F69E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7227,7 +7227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA921B67-F52B-4B54-84D7-86C5523B5F79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58975A16-53D5-48F4-90C2-00C3D9A4C3D7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7465,7 +7465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD91DD9-D7B7-4317-AB73-03756608CB01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF033479-59D4-4743-9517-AFB500C786CB}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7703,7 +7703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8C8482-7141-49A3-B98E-726F8EEEE10C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66498887-D15E-4185-96FE-73B0DC809BE3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7941,7 +7941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDB2EFF-F9C2-4E1C-A98E-FC76C141A26C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A700E0EF-612E-4B6C-B0D6-18ABDEDB55CB}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8179,7 +8179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8951544-4C79-4B1C-9166-C65B3A8A1CCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FDE570-6A3A-4FD1-9E40-FD881213844D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8417,7 +8417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDDD3A0-9C0D-4A6B-8CC6-A68DBA1AD374}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74255E1E-BE13-4387-99B1-2B5B9A7FF1D4}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8655,7 +8655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053852C3-75AE-46F5-BB74-AB390FF60204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272D32E9-573A-4F00-8D19-FC033F0FD315}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8893,7 +8893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B72594A-CC69-45BA-A541-1A3D7393B3D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF58462-368E-4193-ABE9-CD8583A1A51D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9131,7 +9131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450C16EB-ECDB-40F7-8AEC-5E83865B4948}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CC3C61-9313-467A-BF9A-A6ED6E21390C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9369,7 +9369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A90FB9-CF3A-496B-A0DD-E03BA9DAEA8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C797BD13-2915-43D8-BD87-200D4DC05FF9}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9607,7 +9607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0472B1-FD32-4D34-A82B-569D4023B9C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8172D53D-1352-423A-B19A-380B1F67DFD6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9845,7 +9845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1911F7A-76DA-438E-B4A0-208E0F1D58BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064E15B8-2A46-453A-96CD-E76275C60906}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10083,7 +10083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD77CE7-3DC0-46D1-8DCF-66381A7C766F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB900D73-2AFC-4EE9-9FC9-016E0AB08330}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10321,7 +10321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20232C8-A036-42AC-9C5F-BA52FCFA9A67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27705AFD-3ECE-4956-A13C-9081A7078CF9}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10559,7 +10559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B790E6-9A5F-4999-B60D-7864B1D43C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E02B3ED-F8DC-4BD6-8022-57F95B096E83}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10797,7 +10797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD084C38-10E8-4524-801D-71D060D7AC18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC400D5-522B-4E8D-B13C-A8A339FA99DF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11035,7 +11035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA621D1A-999C-410C-8D90-1D611E1B196F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F38926-0721-4793-8976-EECE3F853FB3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11273,7 +11273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AFBA38-7816-44D9-9C08-93F770FECE08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5E2C02-806C-492F-930A-B97EF35FB296}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11511,7 +11511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73AC05E-0617-4FA2-B106-05270C8FABA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6798BA1-BF9A-47E2-B086-229E5DE9B365}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11749,7 +11749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23973B54-BC38-40D9-91A9-678EF2F4A152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571ED2EF-15D1-423B-9FEA-C870CB237143}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11987,7 +11987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D2600-9030-438C-A8F3-BE151D98BCBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ABA7CA-E610-46BC-A4E9-7480D762577E}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12211,7 +12211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8260B2-C54E-4BC5-84A0-CBEBBFD14C4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95B6E1F-0A23-4595-BE47-008F94F1EFCD}">
   <dimension ref="I1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12351,7 +12351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1694586-3DCA-4B6F-82BC-EE60336EE9C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848EC4E5-6196-420F-9B98-8584F283A4DC}">
   <dimension ref="I1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12463,7 +12463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1528DA73-E06F-43E8-A79E-16499894B9E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA28BAA-F1A3-487B-A89D-7D8EFCB91C7A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12701,7 +12701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA02FE79-4660-4395-99D5-00D5469F70F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC8E9C9-F3CC-4110-B201-476D8580172C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12939,7 +12939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D03A93-8ED7-407F-9922-84259D9598CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2901986-A147-47AA-9CC9-480E48CFCD54}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13177,7 +13177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7D4B3D-CBB8-4CC5-A44D-F8A689F200F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4ABBE7-4760-4B27-AD82-D41F660D3770}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13415,7 +13415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98073707-2C78-4337-BF2D-812BD8082B77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB02B42B-352D-4276-89CE-2B6A68DCF1DD}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
